--- a/output/query_interactors_2nd_druggable_uniq_tclin_marked_up.xlsx
+++ b/output/query_interactors_2nd_druggable_uniq_tclin_marked_up.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - bioDBnet_db2db_200710" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - query_interactors_2nd" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
-  <si>
-    <t>bioDBnet_db2db_200710134955_1703638583</t>
-  </si>
-  <si>
-    <t>UniProt Accession</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+  <si>
+    <t>query_interactors_2nd_druggable_uniq_tclin</t>
+  </si>
+  <si>
+    <t>Uniprot ID</t>
+  </si>
+  <si>
+    <t>Druggability</t>
   </si>
   <si>
     <t>Gene Info</t>
@@ -28,67 +32,22 @@
     <t>GO - Molecular Function</t>
   </si>
   <si>
-    <t>O14578</t>
-  </si>
-  <si>
-    <t>11113 [Gene Symbol: CIT] [Locus Tag: ] [Chromosome: 12] [Map Location: 12q24.23] [Description: citron rho-interacting serine/threonine kinase] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0035556 [Name: intracellular signal transduction]; GO:0030866 [Name: cortical actin cytoskeleton organization]; GO:0048699 [Name: generation of neurons]; GO:0000278 [Name: mitotic cell cycle]; GO:0051402 [Name: neuron apoptotic process]; GO:0000281 [Name: mitotic cytokinesis]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0032467 [Name: positive regulation of cytokinesis]; GO:0031032 [Name: actomyosin structure organization]</t>
-  </si>
-  <si>
-    <t>GO:0017124 [Name: SH3 domain binding]; GO:0030165 [Name: PDZ domain binding]; GO:0097110 [Name: scaffold protein binding]; GO:0046872 [Name: metal ion binding]; GO:0005524 [Name: ATP binding]; GO:0004674 [Name: protein serine/threonine kinase activity]</t>
-  </si>
-  <si>
-    <t>O14980</t>
+    <t>UniProtKB:O14980</t>
+  </si>
+  <si>
+    <t>Tclin</t>
   </si>
   <si>
     <t>7514 [Gene Symbol: XPO1] [Locus Tag: ] [Chromosome: 2] [Map Location: 2p15] [Description: exportin 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0000056 [Name: ribosomal small subunit export from nucleus]; GO:0046825 [Name: regulation of protein export from nucleus]; GO:0051028 [Name: mRNA transport]; GO:0006611 [Name: protein export from nucleus]; GO:0042176 [Name: regulation of protein catabolic process]; GO:0000055 [Name: ribosomal large subunit export from nucleus]; GO:0000054 [Name: ribosomal subunit export from nucleus]; GO:0042254 [Name: ribosome biogenesis]; GO:0006913 [Name: nucleocytoplasmic transport]; GO:0016032 [Name: viral process]; GO:0043488 [Name: regulation of mRNA stability]; GO:0010824 [Name: regulation of centrosome duplication]; GO:0042493 [Name: response to drug]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0075733 [Name: intracellular transport of virus]; GO:0034504 [Name: protein localization to nucleus]</t>
+    <t>GO:0000056 [Name: ribosomal small subunit export from nucleus]; GO:0051028 [Name: mRNA transport]; GO:0006611 [Name: protein export from nucleus]; GO:0046825 [Name: regulation of protein export from nucleus]; GO:0042176 [Name: regulation of protein catabolic process]; GO:0000055 [Name: ribosomal large subunit export from nucleus]; GO:0000054 [Name: ribosomal subunit export from nucleus]; GO:0042254 [Name: ribosome biogenesis]; GO:0043488 [Name: regulation of mRNA stability]; GO:0016032 [Name: viral process]; GO:0006913 [Name: nucleocytoplasmic transport]; GO:0010824 [Name: regulation of centrosome duplication]; GO:0042493 [Name: response to drug]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0075733 [Name: intracellular transport of virus]; GO:0034504 [Name: protein localization to nucleus]</t>
   </si>
   <si>
     <t>GO:0005049 [Name: nuclear export signal receptor activity]; GO:0003723 [Name: RNA binding]; GO:0008536 [Name: Ran GTPase binding]; GO:0019904 [Name: protein domain specific binding]</t>
   </si>
   <si>
-    <t>O15439</t>
-  </si>
-  <si>
-    <t>10257 [Gene Symbol: ABCC4] [Locus Tag: ] [Chromosome: 13] [Map Location: 13q32.1] [Description: ATP binding cassette subfamily C member 4] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0060271 [Name: cilium assembly]; GO:0032310 [Name: prostaglandin secretion]; GO:0042493 [Name: response to drug]; GO:0055085 [Name: transmembrane transport]; GO:0048661 [Name: positive regulation of smooth muscle cell proliferation]; GO:0010243 [Name: response to organonitrogen compound]; GO:0014070 [Name: response to organic cyclic compound]; GO:0002576 [Name: platelet degranulation]</t>
-  </si>
-  <si>
-    <t>GO:0042910 [Name: xenobiotic transporter activity]; GO:0005524 [Name: ATP binding]; GO:0042626 [Name: ATPase activity, coupled to transmembrane movement of substances]; GO:0016404 [Name: 15-hydroxyprostaglandin dehydrogenase (NAD+) activity]; GO:0016887 [Name: ATPase activity]; GO:0015662 [Name: ATPase activity, coupled to transmembrane movement of ions, phosphorylative mechanism]; GO:0015562 [Name: efflux transmembrane transporter activity]</t>
-  </si>
-  <si>
-    <t>O60885</t>
-  </si>
-  <si>
-    <t>23476 [Gene Symbol: BRD4] [Locus Tag: ] [Chromosome: 19] [Map Location: 19p13.12] [Description: bromodomain containing 4] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:2001255 [Name: positive regulation of histone H3-K36 trimethylation]; GO:0050727 [Name: regulation of inflammatory response]; GO:0010971 [Name: positive regulation of G2/M transition of mitotic cell cycle]; GO:0006338 [Name: chromatin remodeling]; GO:0043123 [Name: positive regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0000083 [Name: regulation of transcription involved in G1/S transition of mitotic cell cycle]; GO:1901407 [Name: regulation of phosphorylation of RNA polymerase II C-terminal domain]; GO:0016032 [Name: viral process]; GO:0032968 [Name: positive regulation of transcription elongation from RNA polymerase II promoter]; GO:2000002 [Name: negative regulation of DNA damage checkpoint]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0006325 [Name: chromatin organization]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]</t>
-  </si>
-  <si>
-    <t>GO:0070577 [Name: lysine-acetylated histone binding]; GO:0008353 [Name: RNA polymerase II carboxy-terminal domain kinase activity]; GO:0002039 [Name: p53 binding]; GO:0001134 [Name: transcription factor activity, transcription factor recruiting]; GO:0019899 [Name: enzyme binding]; GO:0003682 [Name: chromatin binding]; GO:0099122 [Name: RNA polymerase II C-terminal domain binding]</t>
-  </si>
-  <si>
-    <t>O75746</t>
-  </si>
-  <si>
-    <t>8604 [Gene Symbol: SLC25A12] [Locus Tag: ] [Chromosome: 2] [Map Location: 2q31.1] [Description: solute carrier family 25 member 12] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006094 [Name: gluconeogenesis]; GO:0051592 [Name: response to calcium ion]; GO:1904024 [Name: negative regulation of glucose catabolic process to lactate via pyruvate]; GO:2001171 [Name: positive regulation of ATP biosynthetic process]; GO:0015810 [Name: aspartate transport]; GO:0006537 [Name: glutamate biosynthetic process]; GO:0010907 [Name: positive regulation of glucose metabolic process]; GO:0031643 [Name: positive regulation of myelination]; GO:0043490 [Name: malate-aspartate shuttle]; GO:0015813 [Name: L-glutamate transport]</t>
-  </si>
-  <si>
-    <t>GO:0042802 [Name: identical protein binding]; GO:0015183 [Name: L-aspartate transmembrane transporter activity]; GO:0005509 [Name: calcium ion binding]; GO:0005313 [Name: L-glutamate transmembrane transporter activity]</t>
-  </si>
-  <si>
-    <t>O95299</t>
+    <t>UniProtKB:O95299</t>
   </si>
   <si>
     <t>4705 [Gene Symbol: NDUFA10] [Locus Tag: ] [Chromosome: 2] [Map Location: 2q37.3] [Description: NADH:ubiquinone oxidoreductase subunit A10] [Gene Type: protein-coding]</t>
@@ -100,55 +59,19 @@
     <t>GO:0008137 [Name: NADH dehydrogenase (ubiquinone) activity]</t>
   </si>
   <si>
-    <t>O96017</t>
-  </si>
-  <si>
-    <t>11200 [Gene Symbol: CHEK2] [Locus Tag: ] [Chromosome: 22] [Map Location: 22q12.1] [Description: checkpoint kinase 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006977 [Name: DNA damage response, signal transduction by p53 class mediator resulting in cell cycle arrest]; GO:0006978 [Name: DNA damage response, signal transduction by p53 class mediator resulting in transcription of p21 class mediator]; GO:0042770 [Name: signal transduction in response to DNA damage]; GO:0071480 [Name: cellular response to gamma radiation]; GO:1901796 [Name: regulation of signal transduction by p53 class mediator]; GO:0051301 [Name: cell division]; GO:1903926 [Name: cellular response to bisphenol A]; GO:0044773 [Name: mitotic DNA damage checkpoint]; GO:2000210 [Name: positive regulation of anoikis]; GO:0000077 [Name: DNA damage checkpoint]; GO:0042176 [Name: regulation of protein catabolic process]; GO:0042771 [Name: intrinsic apoptotic signaling pathway in response to DNA damage by p53 class mediator]; GO:0050821 [Name: protein stabilization]; GO:0044257 [Name: cellular protein catabolic process]; GO:0090307 [Name: mitotic spindle assembly]; GO:0000086 [Name: G2/M transition of mitotic cell cycle]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0006975 [Name: DNA damage induced protein phosphorylation]; GO:0006355 [Name: regulation of transcription, DNA-templated]; GO:0046777 [Name: protein autophosphorylation]; GO:0090399 [Name: replicative senescence]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]; GO:0071157 [Name: negative regulation of cell cycle arrest]; GO:0072428 [Name: signal transduction involved in intra-S DNA damage checkpoint]; GO:1903416 [Name: response to glycoside]; GO:2000002 [Name: negative regulation of DNA damage checkpoint]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:0006302 [Name: double-strand break repair]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0001302 [Name: replicative cell aging]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0006468 [Name: protein phosphorylation]</t>
-  </si>
-  <si>
-    <t>GO:0016301 [Name: kinase activity]; GO:0042803 [Name: protein homodimerization activity]; GO:0042802 [Name: identical protein binding]; GO:0005524 [Name: ATP binding]; GO:0046872 [Name: metal ion binding]; GO:0019901 [Name: protein kinase binding]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0031625 [Name: ubiquitin protein ligase binding]</t>
-  </si>
-  <si>
-    <t>P00338</t>
-  </si>
-  <si>
-    <t>3939 [Gene Symbol: LDHA] [Locus Tag: ] [Chromosome: 11] [Map Location: 11p15.1] [Description: lactate dehydrogenase A] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006096 [Name: glycolytic process]; GO:0006090 [Name: pyruvate metabolic process]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0021762 [Name: substantia nigra development]; GO:0043627 [Name: response to estrogen]; GO:0001666 [Name: response to hypoxia]; GO:0019674 [Name: NAD metabolic process]; GO:0009749 [Name: response to glucose]; GO:0006089 [Name: lactate metabolic process]; GO:0007584 [Name: response to nutrient]; GO:0051591 [Name: response to cAMP]; GO:0043065 [Name: positive regulation of apoptotic process]; GO:0048569 [Name: post-embryonic animal organ development]</t>
-  </si>
-  <si>
-    <t>GO:0051287 [Name: NAD binding]; GO:0004459 [Name: L-lactate dehydrogenase activity]; GO:0045296 [Name: cadherin binding]; GO:0019900 [Name: kinase binding]; GO:0042802 [Name: identical protein binding]</t>
-  </si>
-  <si>
-    <t>P00403</t>
-  </si>
-  <si>
-    <t>4513 [Gene Symbol: COX2] [Locus Tag: ] [Chromosome: MT] [Map Location: ] [Description: cytochrome c oxidase subunit II] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006123 [Name: mitochondrial electron transport, cytochrome c to oxygen]; GO:0042773 [Name: ATP synthesis coupled electron transport]; GO:0007595 [Name: lactation]; GO:0010729 [Name: positive regulation of hydrogen peroxide biosynthetic process]; GO:0010940 [Name: positive regulation of necrotic cell death]; GO:2001171 [Name: positive regulation of ATP biosynthetic process]; GO:0009409 [Name: response to cold]</t>
-  </si>
-  <si>
-    <t>GO:0004129 [Name: cytochrome-c oxidase activity]; GO:0005507 [Name: copper ion binding]</t>
-  </si>
-  <si>
-    <t>P00747</t>
+    <t>UniProtKB:P00747</t>
   </si>
   <si>
     <t>5340 [Gene Symbol: PLG] [Locus Tag: ] [Chromosome: 6] [Map Location: 6q26] [Description: plasminogen] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0006508 [Name: proteolysis]; GO:0002576 [Name: platelet degranulation]; GO:0048771 [Name: tissue remodeling]; GO:0051919 [Name: positive regulation of fibrinolysis]; GO:0060707 [Name: trophoblast giant cell differentiation]; GO:0010812 [Name: negative regulation of cell-substrate adhesion]; GO:0071674 [Name: mononuclear cell migration]; GO:0008285 [Name: negative regulation of cell proliferation]; GO:0051603 [Name: proteolysis involved in cellular protein catabolic process]; GO:0044267 [Name: cellular protein metabolic process]; GO:0051702 [Name: interaction with symbiont]; GO:0022617 [Name: extracellular matrix disassembly]; GO:0042730 [Name: fibrinolysis]; GO:0043536 [Name: positive regulation of blood vessel endothelial cell migration]; GO:0046716 [Name: muscle cell cellular homeostasis]; GO:0042246 [Name: tissue regeneration]; GO:0007596 [Name: blood coagulation]; GO:0045445 [Name: myoblast differentiation]; GO:0051918 [Name: negative regulation of fibrinolysis]; GO:0060716 [Name: labyrinthine layer blood vessel development]; GO:2000048 [Name: negative regulation of cell-cell adhesion mediated by cadherin]</t>
+    <t>GO:0051919 [Name: positive regulation of fibrinolysis]; GO:0060707 [Name: trophoblast giant cell differentiation]; GO:0002576 [Name: platelet degranulation]; GO:0006508 [Name: proteolysis]; GO:0048771 [Name: tissue remodeling]; GO:0010812 [Name: negative regulation of cell-substrate adhesion]; GO:0071674 [Name: mononuclear cell migration]; GO:0008285 [Name: negative regulation of cell proliferation]; GO:0044267 [Name: cellular protein metabolic process]; GO:0051702 [Name: interaction with symbiont]; GO:0051603 [Name: proteolysis involved in cellular protein catabolic process]; GO:0022617 [Name: extracellular matrix disassembly]; GO:0043536 [Name: positive regulation of blood vessel endothelial cell migration]; GO:0042730 [Name: fibrinolysis]; GO:0007596 [Name: blood coagulation]; GO:0042246 [Name: tissue regeneration]; GO:0046716 [Name: muscle cell cellular homeostasis]; GO:0045445 [Name: myoblast differentiation]; GO:0051918 [Name: negative regulation of fibrinolysis]; GO:0060716 [Name: labyrinthine layer blood vessel development]; GO:2000048 [Name: negative regulation of cell-cell adhesion mediated by cadherin]</t>
   </si>
   <si>
     <t>GO:0019904 [Name: protein domain specific binding]; GO:0019900 [Name: kinase binding]; GO:1990405 [Name: protein antigen binding]; GO:0019899 [Name: enzyme binding]; GO:0008236 [Name: serine-type peptidase activity]; GO:0004175 [Name: endopeptidase activity]; GO:0005102 [Name: receptor binding]; GO:1904854 [Name: proteasome core complex binding]; GO:0004252 [Name: serine-type endopeptidase activity]; GO:0034185 [Name: apolipoprotein binding]; GO:0051087 [Name: chaperone binding]</t>
   </si>
   <si>
-    <t>P00750</t>
+    <t>UniProtKB:P00750</t>
   </si>
   <si>
     <t>5327 [Gene Symbol: PLAT] [Locus Tag: ] [Chromosome: 8] [Map Location: 8p11.21] [Description: plasminogen activator, tissue type] [Gene Type: protein-coding]</t>
@@ -160,19 +83,7 @@
     <t>GO:0005102 [Name: receptor binding]; GO:0004252 [Name: serine-type endopeptidase activity]; GO:0051219 [Name: phosphoprotein binding]</t>
   </si>
   <si>
-    <t>P02768</t>
-  </si>
-  <si>
-    <t>213 [Gene Symbol: ALB] [Locus Tag: ] [Chromosome: 4] [Map Location: 4q13.3] [Description: albumin] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0034375 [Name: high-density lipoprotein particle remodeling]; GO:0051659 [Name: maintenance of mitochondrion location]; GO:0043069 [Name: negative regulation of programmed cell death]; GO:0001895 [Name: retina homeostasis]; GO:0002576 [Name: platelet degranulation]; GO:0043687 [Name: post-translational protein modification]; GO:0044267 [Name: cellular protein metabolic process]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0006898 [Name: receptor-mediated endocytosis]; GO:0009267 [Name: cellular response to starvation]</t>
-  </si>
-  <si>
-    <t>GO:0003677 [Name: DNA binding]; GO:0008270 [Name: zinc ion binding]; GO:0005504 [Name: fatty acid binding]; GO:0042802 [Name: identical protein binding]; GO:0030170 [Name: pyridoxal phosphate binding]; GO:0015643 [Name: toxic substance binding]; GO:0005507 [Name: copper ion binding]; GO:0051087 [Name: chaperone binding]; GO:0016209 [Name: antioxidant activity]; GO:0008144 [Name: drug binding]; GO:1903981 [Name: enterobactin binding]</t>
-  </si>
-  <si>
-    <t>P03901</t>
+    <t>UniProtKB:P03901</t>
   </si>
   <si>
     <t>4539 [Gene Symbol: ND4L] [Locus Tag: ] [Chromosome: MT] [Map Location: ] [Description: NADH dehydrogenase, subunit 4L (complex I)] [Gene Type: protein-coding]</t>
@@ -181,271 +92,163 @@
     <t>GO:0006120 [Name: mitochondrial electron transport, NADH to ubiquinone]</t>
   </si>
   <si>
-    <t>P04406</t>
-  </si>
-  <si>
-    <t>2597 [Gene Symbol: GAPDH] [Locus Tag: ] [Chromosome: 12] [Map Location: 12p13.31] [Description: glyceraldehyde-3-phosphate dehydrogenase] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006096 [Name: glycolytic process]; GO:0050821 [Name: protein stabilization]; GO:0050715 [Name: positive regulation of cytokine secretion]; GO:0061621 [Name: canonical glycolysis]; GO:0052501 [Name: positive regulation by organism of apoptotic process in other organism involved in symbiotic interaction]; GO:0051402 [Name: neuron apoptotic process]; GO:0031640 [Name: killing of cells of other organism]; GO:0016241 [Name: regulation of macroautophagy]; GO:0010951 [Name: negative regulation of endopeptidase activity]; GO:0035606 [Name: peptidyl-cysteine S-trans-nitrosylation]; GO:0061844 [Name: antimicrobial humoral immune response mediated by antimicrobial peptide]; GO:0071346 [Name: cellular response to interferon-gamma]; GO:0051873 [Name: killing by host of symbiont cells]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0050832 [Name: defense response to fungus]; GO:0006094 [Name: gluconeogenesis]; GO:0017148 [Name: negative regulation of translation]</t>
-  </si>
-  <si>
-    <t>GO:0008017 [Name: microtubule binding]; GO:0051287 [Name: NAD binding]; GO:0050661 [Name: NADP binding]; GO:0035605 [Name: peptidyl-cysteine S-nitrosylase activity]; GO:0019828 [Name: aspartic-type endopeptidase inhibitor activity]; GO:0097718 [Name: disordered domain specific binding]; GO:0004365 [Name: glyceraldehyde-3-phosphate dehydrogenase (NAD+) (phosphorylating) activity]; GO:0042802 [Name: identical protein binding]</t>
-  </si>
-  <si>
-    <t>P05023</t>
+    <t>UniProtKB:P05023</t>
   </si>
   <si>
     <t>476 [Gene Symbol: ATP1A1] [Locus Tag: ] [Chromosome: 1] [Map Location: 1p13.1] [Description: ATPase Na+/K+ transporting subunit alpha 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0030007 [Name: cellular potassium ion homeostasis]; GO:0060081 [Name: membrane hyperpolarization]; GO:1990573 [Name: potassium ion import across plasma membrane]; GO:1902600 [Name: hydrogen ion transmembrane transport]; GO:0031947 [Name: negative regulation of glucocorticoid biosynthetic process]; GO:0045822 [Name: negative regulation of heart contraction]; GO:0055119 [Name: relaxation of cardiac muscle]; GO:0034220 [Name: ion transmembrane transport]; GO:0008217 [Name: regulation of blood pressure]; GO:0071383 [Name: cellular response to steroid hormone stimulus]; GO:0002026 [Name: regulation of the force of heart contraction]; GO:0042493 [Name: response to drug]; GO:1903779 [Name: regulation of cardiac conduction]; GO:0086013 [Name: membrane repolarization during cardiac muscle cell action potential]; GO:0006883 [Name: cellular sodium ion homeostasis]; GO:0002028 [Name: regulation of sodium ion transport]; GO:1903416 [Name: response to glycoside]; GO:0071260 [Name: cellular response to mechanical stimulus]; GO:0045989 [Name: positive regulation of striated muscle contraction]; GO:0086002 [Name: cardiac muscle cell action potential involved in contraction]; GO:0086064 [Name: cell communication by electrical coupling involved in cardiac conduction]; GO:0036376 [Name: sodium ion export from cell]; GO:0045823 [Name: positive regulation of heart contraction]; GO:0086004 [Name: regulation of cardiac muscle cell contraction]; GO:0086009 [Name: membrane repolarization]</t>
+    <t>GO:0030007 [Name: cellular potassium ion homeostasis]; GO:0060081 [Name: membrane hyperpolarization]; GO:1990573 [Name: potassium ion import across plasma membrane]; GO:1902600 [Name: hydrogen ion transmembrane transport]; GO:0045822 [Name: negative regulation of heart contraction]; GO:0031947 [Name: negative regulation of glucocorticoid biosynthetic process]; GO:0034220 [Name: ion transmembrane transport]; GO:0071383 [Name: cellular response to steroid hormone stimulus]; GO:0008217 [Name: regulation of blood pressure]; GO:0055119 [Name: relaxation of cardiac muscle]; GO:0042493 [Name: response to drug]; GO:0086013 [Name: membrane repolarization during cardiac muscle cell action potential]; GO:1903779 [Name: regulation of cardiac conduction]; GO:0002026 [Name: regulation of the force of heart contraction]; GO:0006883 [Name: cellular sodium ion homeostasis]; GO:1903416 [Name: response to glycoside]; GO:0002028 [Name: regulation of sodium ion transport]; GO:0071260 [Name: cellular response to mechanical stimulus]; GO:0086002 [Name: cardiac muscle cell action potential involved in contraction]; GO:0086064 [Name: cell communication by electrical coupling involved in cardiac conduction]; GO:0045989 [Name: positive regulation of striated muscle contraction]; GO:0036376 [Name: sodium ion export from cell]; GO:0045823 [Name: positive regulation of heart contraction]; GO:0086004 [Name: regulation of cardiac muscle cell contraction]; GO:0086009 [Name: membrane repolarization]</t>
   </si>
   <si>
     <t>GO:0016791 [Name: phosphatase activity]; GO:0043548 [Name: phosphatidylinositol 3-kinase binding]; GO:0051087 [Name: chaperone binding]; GO:0030506 [Name: ankyrin binding]; GO:0019904 [Name: protein domain specific binding]; GO:0005524 [Name: ATP binding]; GO:0046982 [Name: protein heterodimerization activity]; GO:0019901 [Name: protein kinase binding]; GO:1990239 [Name: steroid hormone binding]; GO:0030955 [Name: potassium ion binding]; GO:0031402 [Name: sodium ion binding]; GO:0005391 [Name: sodium:potassium-exchanging ATPase activity]; GO:0043531 [Name: ADP binding]</t>
   </si>
   <si>
-    <t>P05026</t>
+    <t>UniProtKB:P05026</t>
   </si>
   <si>
     <t>481 [Gene Symbol: ATP1B1] [Locus Tag: ] [Chromosome: 1] [Map Location: 1q24.2] [Description: ATPase Na+/K+ transporting subunit beta 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0098655 [Name: cation transmembrane transport]; GO:0007155 [Name: cell adhesion]; GO:0006874 [Name: cellular calcium ion homeostasis]; GO:0050821 [Name: protein stabilization]; GO:0010468 [Name: regulation of gene expression]; GO:0086013 [Name: membrane repolarization during cardiac muscle cell action potential]; GO:1901018 [Name: positive regulation of potassium ion transmembrane transporter activity]; GO:1990573 [Name: potassium ion import across plasma membrane]; GO:0044861 [Name: protein transport into plasma membrane raft]; GO:0055119 [Name: relaxation of cardiac muscle]; GO:0010882 [Name: regulation of cardiac muscle contraction by calcium ion signaling]; GO:0072659 [Name: protein localization to plasma membrane]; GO:0086009 [Name: membrane repolarization]; GO:0006883 [Name: cellular sodium ion homeostasis]; GO:0001666 [Name: response to hypoxia]; GO:0034220 [Name: ion transmembrane transport]; GO:0050900 [Name: leukocyte migration]; GO:0036376 [Name: sodium ion export from cell]; GO:0030007 [Name: cellular potassium ion homeostasis]; GO:1903779 [Name: regulation of cardiac conduction]; GO:0071805 [Name: potassium ion transmembrane transport]; GO:0086064 [Name: cell communication by electrical coupling involved in cardiac conduction]; GO:0032781 [Name: positive regulation of ATPase activity]; GO:0060048 [Name: cardiac muscle contraction]; GO:0046034 [Name: ATP metabolic process]; GO:1903281 [Name: positive regulation of calcium:sodium antiporter activity]; GO:1903288 [Name: positive regulation of potassium ion import]; GO:1903278 [Name: positive regulation of sodium ion export from cell]; GO:0035725 [Name: sodium ion transmembrane transport]</t>
+    <t>GO:0007155 [Name: cell adhesion]; GO:0006874 [Name: cellular calcium ion homeostasis]; GO:0086013 [Name: membrane repolarization during cardiac muscle cell action potential]; GO:0098655 [Name: cation transmembrane transport]; GO:0050821 [Name: protein stabilization]; GO:1901018 [Name: positive regulation of potassium ion transmembrane transporter activity]; GO:0010468 [Name: regulation of gene expression]; GO:1990573 [Name: potassium ion import across plasma membrane]; GO:0044861 [Name: protein transport into plasma membrane raft]; GO:0055119 [Name: relaxation of cardiac muscle]; GO:0086009 [Name: membrane repolarization]; GO:0072659 [Name: protein localization to plasma membrane]; GO:0010882 [Name: regulation of cardiac muscle contraction by calcium ion signaling]; GO:0006883 [Name: cellular sodium ion homeostasis]; GO:0034220 [Name: ion transmembrane transport]; GO:0001666 [Name: response to hypoxia]; GO:0036376 [Name: sodium ion export from cell]; GO:0050900 [Name: leukocyte migration]; GO:0030007 [Name: cellular potassium ion homeostasis]; GO:0086064 [Name: cell communication by electrical coupling involved in cardiac conduction]; GO:0071805 [Name: potassium ion transmembrane transport]; GO:1903779 [Name: regulation of cardiac conduction]; GO:0032781 [Name: positive regulation of ATPase activity]; GO:0060048 [Name: cardiac muscle contraction]; GO:0046034 [Name: ATP metabolic process]; GO:1903281 [Name: positive regulation of calcium:sodium antiporter activity]; GO:1903288 [Name: positive regulation of potassium ion import]; GO:1903278 [Name: positive regulation of sodium ion export from cell]; GO:0035725 [Name: sodium ion transmembrane transport]</t>
   </si>
   <si>
     <t>GO:0019901 [Name: protein kinase binding]; GO:0005391 [Name: sodium:potassium-exchanging ATPase activity]; GO:0023026 [Name: MHC class II protein complex binding]; GO:0001671 [Name: ATPase activator activity]; GO:0051117 [Name: ATPase binding]; GO:0046982 [Name: protein heterodimerization activity]; GO:0008022 [Name: protein C-terminus binding]</t>
   </si>
   <si>
-    <t>P05556</t>
+    <t>UniProtKB:P05556</t>
   </si>
   <si>
     <t>3688 [Gene Symbol: ITGB1] [Locus Tag: ] [Chromosome: 10] [Map Location: 10p11.22] [Description: integrin subunit beta 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0010763 [Name: positive regulation of fibroblast migration]; GO:0031623 [Name: receptor internalization]; GO:0008542 [Name: visual learning]; GO:0090303 [Name: positive regulation of wound healing]; GO:0010710 [Name: regulation of collagen catabolic process]; GO:0016477 [Name: cell migration]; GO:0048333 [Name: mesodermal cell differentiation]; GO:0006909 [Name: phagocytosis]; GO:0030032 [Name: lamellipodium assembly]; GO:0007160 [Name: cell-matrix adhesion]; GO:0007159 [Name: leukocyte cell-cell adhesion]; GO:0007155 [Name: cell adhesion]; GO:0030198 [Name: extracellular matrix organization]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0045214 [Name: sarcomere organization]; GO:0050900 [Name: leukocyte migration]; GO:0055007 [Name: cardiac muscle cell differentiation]; GO:0001708 [Name: cell fate specification]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0043547 [Name: positive regulation of GTPase activity]; GO:1903078 [Name: positive regulation of protein localization to plasma membrane]; GO:0033631 [Name: cell-cell adhesion mediated by integrin]; GO:0031589 [Name: cell-substrate adhesion]; GO:0030335 [Name: positive regulation of cell migration]; GO:0033627 [Name: cell adhesion mediated by integrin]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:2000811 [Name: negative regulation of anoikis]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0051726 [Name: regulation of cell cycle]; GO:0007156 [Name: homophilic cell adhesion via plasma membrane adhesion molecules]; GO:0021943 [Name: formation of radial glial scaffolds]; GO:0002042 [Name: cell migration involved in sprouting angiogenesis]; GO:0048813 [Name: dendrite morphogenesis]; GO:0000132 [Name: establishment of mitotic spindle orientation]; GO:0008354 [Name: germ cell migration]; GO:0034113 [Name: heterotypic cell-cell adhesion]; GO:0050804 [Name: modulation of synaptic transmission]; GO:0045596 [Name: negative regulation of cell differentiation]; GO:2000273 [Name: positive regulation of receptor activity]; GO:0048675 [Name: axon extension]; GO:0006968 [Name: cellular defense response]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:0071711 [Name: basement membrane organization]; GO:0030030 [Name: cell projection organization]; GO:0050901 [Name: leukocyte tethering or rolling]; GO:0007229 [Name: integrin-mediated signaling pathway]; GO:0030183 [Name: B cell differentiation]; GO:0043065 [Name: positive regulation of apoptotic process]; GO:0071404 [Name: cellular response to low-density lipoprotein particle stimulus]; GO:0023035 [Name: CD40 signaling pathway]; GO:0001701 [Name: in utero embryonic development]; GO:0007161 [Name: calcium-independent cell-matrix adhesion]; GO:0050776 [Name: regulation of immune response]; GO:0035024 [Name: negative regulation of Rho protein signal transduction]</t>
+    <t>GO:0016477 [Name: cell migration]; GO:0010763 [Name: positive regulation of fibroblast migration]; GO:0031623 [Name: receptor internalization]; GO:0048333 [Name: mesodermal cell differentiation]; GO:0010710 [Name: regulation of collagen catabolic process]; GO:0008542 [Name: visual learning]; GO:0090303 [Name: positive regulation of wound healing]; GO:0030032 [Name: lamellipodium assembly]; GO:0007160 [Name: cell-matrix adhesion]; GO:0007159 [Name: leukocyte cell-cell adhesion]; GO:0006909 [Name: phagocytosis]; GO:0007155 [Name: cell adhesion]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0030198 [Name: extracellular matrix organization]; GO:0001708 [Name: cell fate specification]; GO:0050900 [Name: leukocyte migration]; GO:0055007 [Name: cardiac muscle cell differentiation]; GO:0033631 [Name: cell-cell adhesion mediated by integrin]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0043547 [Name: positive regulation of GTPase activity]; GO:1903078 [Name: positive regulation of protein localization to plasma membrane]; GO:0045214 [Name: sarcomere organization]; GO:0031589 [Name: cell-substrate adhesion]; GO:0030335 [Name: positive regulation of cell migration]; GO:0033627 [Name: cell adhesion mediated by integrin]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:2000811 [Name: negative regulation of anoikis]; GO:0007156 [Name: homophilic cell adhesion via plasma membrane adhesion molecules]; GO:0021943 [Name: formation of radial glial scaffolds]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0051726 [Name: regulation of cell cycle]; GO:0000132 [Name: establishment of mitotic spindle orientation]; GO:0008354 [Name: germ cell migration]; GO:0048813 [Name: dendrite morphogenesis]; GO:0034113 [Name: heterotypic cell-cell adhesion]; GO:0002042 [Name: cell migration involved in sprouting angiogenesis]; GO:0050804 [Name: modulation of synaptic transmission]; GO:0045596 [Name: negative regulation of cell differentiation]; GO:2000273 [Name: positive regulation of receptor activity]; GO:0071711 [Name: basement membrane organization]; GO:0030030 [Name: cell projection organization]; GO:0048675 [Name: axon extension]; GO:0007229 [Name: integrin-mediated signaling pathway]; GO:0006968 [Name: cellular defense response]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:0050901 [Name: leukocyte tethering or rolling]; GO:0023035 [Name: CD40 signaling pathway]; GO:0071404 [Name: cellular response to low-density lipoprotein particle stimulus]; GO:0030183 [Name: B cell differentiation]; GO:0001701 [Name: in utero embryonic development]; GO:0007161 [Name: calcium-independent cell-matrix adhesion]; GO:0050776 [Name: regulation of immune response]; GO:0043065 [Name: positive regulation of apoptotic process]; GO:0035024 [Name: negative regulation of Rho protein signal transduction]</t>
   </si>
   <si>
     <t>GO:0043236 [Name: laminin binding]; GO:0098639 [Name: collagen binding involved in cell-matrix adhesion]; GO:0046872 [Name: metal ion binding]; GO:1990782 [Name: protein tyrosine kinase binding]; GO:0002020 [Name: protease binding]; GO:0001618 [Name: virus receptor activity]; GO:0015026 [Name: coreceptor activity]; GO:0001968 [Name: fibronectin binding]; GO:0046982 [Name: protein heterodimerization activity]; GO:0044877 [Name: macromolecular complex binding]; GO:0045296 [Name: cadherin binding]; GO:0050839 [Name: cell adhesion molecule binding]; GO:0003779 [Name: actin binding]; GO:0005178 [Name: integrin binding]</t>
   </si>
   <si>
-    <t>P06280</t>
+    <t>UniProtKB:P06280</t>
   </si>
   <si>
     <t>2717 [Gene Symbol: GLA] [Locus Tag: ] [Chromosome: X] [Map Location: Xq22.1] [Description: galactosidase alpha] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0051001 [Name: negative regulation of nitric-oxide synthase activity]; GO:0043312 [Name: neutrophil degranulation]; GO:0046479 [Name: glycosphingolipid catabolic process]; GO:0046477 [Name: glycosylceramide catabolic process]; GO:0016139 [Name: glycoside catabolic process]; GO:0006687 [Name: glycosphingolipid metabolic process]; GO:0009311 [Name: oligosaccharide metabolic process]; GO:0045019 [Name: negative regulation of nitric oxide biosynthetic process]</t>
+    <t>GO:0051001 [Name: negative regulation of nitric-oxide synthase activity]; GO:0043312 [Name: neutrophil degranulation]; GO:0046479 [Name: glycosphingolipid catabolic process]; GO:0046477 [Name: glycosylceramide catabolic process]; GO:0016139 [Name: glycoside catabolic process]; GO:0006687 [Name: glycosphingolipid metabolic process]; GO:0045019 [Name: negative regulation of nitric oxide biosynthetic process]; GO:0009311 [Name: oligosaccharide metabolic process]</t>
   </si>
   <si>
     <t>GO:0042803 [Name: protein homodimerization activity]; GO:0052692 [Name: raffinose alpha-galactosidase activity]; GO:0005102 [Name: receptor binding]; GO:0004557 [Name: alpha-galactosidase activity]; GO:0016787 [Name: hydrolase activity]; GO:0016936 [Name: galactoside binding]; GO:0003824 [Name: catalytic activity]</t>
   </si>
   <si>
-    <t>P06493</t>
-  </si>
-  <si>
-    <t>983 [Gene Symbol: CDK1] [Locus Tag: ] [Chromosome: 10] [Map Location: 10q21.2] [Description: cyclin dependent kinase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0000187 [Name: activation of MAPK activity]; GO:0031145 [Name: anaphase-promoting complex-dependent catabolic process]; GO:0030855 [Name: epithelial cell differentiation]; GO:0014038 [Name: regulation of Schwann cell differentiation]; GO:0048678 [Name: response to axon injury]; GO:0007095 [Name: mitotic G2 DNA damage checkpoint]; GO:0090166 [Name: Golgi disassembly]; GO:0007344 [Name: pronuclear fusion]; GO:0006915 [Name: apoptotic process]; GO:0008283 [Name: cell proliferation]; GO:0006977 [Name: DNA damage response, signal transduction by p53 class mediator resulting in cell cycle arrest]; GO:0006281 [Name: DNA repair]; GO:0016579 [Name: protein deubiquitination]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0010389 [Name: regulation of G2/M transition of mitotic cell cycle]; GO:0070301 [Name: cellular response to hydrogen peroxide]; GO:1905448 [Name: positive regulation of mitochondrial ATP synthesis coupled electron transport]; GO:0051301 [Name: cell division]; GO:0006260 [Name: DNA replication]; GO:0010971 [Name: positive regulation of G2/M transition of mitotic cell cycle]; GO:0006468 [Name: protein phosphorylation]; GO:0045471 [Name: response to ethanol]; GO:0060045 [Name: positive regulation of cardiac muscle cell proliferation]; GO:0045995 [Name: regulation of embryonic development]; GO:0055015 [Name: ventricular cardiac muscle cell development]; GO:1901990 [Name: regulation of mitotic cell cycle phase transition]; GO:0031100 [Name: animal organ regeneration]; GO:0014075 [Name: response to amine]; GO:0065003 [Name: macromolecular complex assembly]; GO:0097711 [Name: ciliary basal body docking]; GO:0030261 [Name: chromosome condensation]; GO:0034501 [Name: protein localization to kinetochore]; GO:0045740 [Name: positive regulation of DNA replication]; GO:0007077 [Name: mitotic nuclear envelope disassembly]; GO:0010628 [Name: positive regulation of gene expression]; GO:0046688 [Name: response to copper ion]; GO:0048511 [Name: rhythmic process]; GO:0000086 [Name: G2/M transition of mitotic cell cycle]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0014070 [Name: response to organic cyclic compound]; GO:0006367 [Name: transcription initiation from RNA polymerase II promoter]; GO:0007569 [Name: cell aging]; GO:0046686 [Name: response to cadmium ion]; GO:1900182 [Name: positive regulation of protein localization to nucleus]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0042752 [Name: regulation of circadian rhythm]; GO:0014823 [Name: response to activity]; GO:0042307 [Name: positive regulation of protein import into nucleus]; GO:0016477 [Name: cell migration]; GO:0007098 [Name: centrosome cycle]</t>
-  </si>
-  <si>
-    <t>GO:0004672 [Name: protein kinase activity]; GO:0001618 [Name: virus receptor activity]; GO:0035173 [Name: histone kinase activity]; GO:0030544 [Name: Hsp70 protein binding]; GO:0008353 [Name: RNA polymerase II carboxy-terminal domain kinase activity]; GO:0003682 [Name: chromatin binding]; GO:0030332 [Name: cyclin binding]; GO:0005524 [Name: ATP binding]; GO:0097472 [Name: cyclin-dependent protein kinase activity]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0004693 [Name: cyclin-dependent protein serine/threonine kinase activity]</t>
-  </si>
-  <si>
-    <t>P06730</t>
-  </si>
-  <si>
-    <t>1977 [Gene Symbol: EIF4E] [Locus Tag: ] [Chromosome: 4] [Map Location: 4q23] [Description: eukaryotic translation initiation factor 4E] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0001662 [Name: behavioral fear response]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0019827 [Name: stem cell population maintenance]; GO:0030324 [Name: lung development]; GO:0045931 [Name: positive regulation of mitotic cell cycle]; GO:0045665 [Name: negative regulation of neuron differentiation]; GO:0006413 [Name: translational initiation]; GO:0006417 [Name: regulation of translation]; GO:0006406 [Name: mRNA export from nucleus]; GO:0099578 [Name: regulation of translation at postsynapse, modulating synaptic transmission]; GO:0071549 [Name: cellular response to dexamethasone stimulus]; GO:0017148 [Name: negative regulation of translation]; GO:0006405 [Name: RNA export from nucleus]; GO:0016032 [Name: viral process]</t>
-  </si>
-  <si>
-    <t>GO:0019899 [Name: enzyme binding]; GO:0031370 [Name: eukaryotic initiation factor 4G binding]; GO:0000340 [Name: RNA 7-methylguanosine cap binding]; GO:0003723 [Name: RNA binding]; GO:0000339 [Name: RNA cap binding]; GO:0003743 [Name: translation initiation factor activity]; GO:0070491 [Name: repressing transcription factor binding]</t>
-  </si>
-  <si>
-    <t>P08581</t>
+    <t>UniProtKB:P08581</t>
   </si>
   <si>
     <t>4233 [Gene Symbol: MET] [Locus Tag: ] [Chromosome: 7] [Map Location: 7q31.2] [Description: MET proto-oncogene, receptor tyrosine kinase] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0050918 [Name: positive chemotaxis]; GO:0035635 [Name: entry of bacterium into host cell]; GO:0000165 [Name: MAPK cascade]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:2001028 [Name: positive regulation of endothelial cell chemotaxis]; GO:0001889 [Name: liver development]; GO:0030182 [Name: neuron differentiation]; GO:0031016 [Name: pancreas development]; GO:0070495 [Name: negative regulation of thrombin-activated receptor signaling pathway]; GO:0001886 [Name: endothelial cell morphogenesis]; GO:0007275 [Name: multicellular organism development]; GO:0051497 [Name: negative regulation of stress fiber assembly]; GO:1901299 [Name: negative regulation of hydrogen peroxide-mediated programmed cell death]; GO:0007169 [Name: transmembrane receptor protein tyrosine kinase signaling pathway]; GO:0035024 [Name: negative regulation of Rho protein signal transduction]; GO:0071526 [Name: semaphorin-plexin signaling pathway]; GO:0007166 [Name: cell surface receptor signaling pathway]; GO:0033674 [Name: positive regulation of kinase activity]; GO:0010507 [Name: negative regulation of autophagy]; GO:0031116 [Name: positive regulation of microtubule polymerization]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0007165 [Name: signal transduction]; GO:1905098 [Name: negative regulation of guanyl-nucleotide exchange factor activity]; GO:0048754 [Name: branching morphogenesis of an epithelial tube]; GO:0061436 [Name: establishment of skin barrier]</t>
+    <t>GO:0050918 [Name: positive chemotaxis]; GO:0000165 [Name: MAPK cascade]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:0035635 [Name: entry of bacterium into host cell]; GO:2001028 [Name: positive regulation of endothelial cell chemotaxis]; GO:0030182 [Name: neuron differentiation]; GO:0031016 [Name: pancreas development]; GO:0001889 [Name: liver development]; GO:0001886 [Name: endothelial cell morphogenesis]; GO:0007275 [Name: multicellular organism development]; GO:0070495 [Name: negative regulation of thrombin-activated receptor signaling pathway]; GO:0051497 [Name: negative regulation of stress fiber assembly]; GO:1901299 [Name: negative regulation of hydrogen peroxide-mediated programmed cell death]; GO:0007169 [Name: transmembrane receptor protein tyrosine kinase signaling pathway]; GO:0071526 [Name: semaphorin-plexin signaling pathway]; GO:0035024 [Name: negative regulation of Rho protein signal transduction]; GO:0007166 [Name: cell surface receptor signaling pathway]; GO:0033674 [Name: positive regulation of kinase activity]; GO:0031116 [Name: positive regulation of microtubule polymerization]; GO:0010507 [Name: negative regulation of autophagy]; GO:0007165 [Name: signal transduction]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:1905098 [Name: negative regulation of guanyl-nucleotide exchange factor activity]; GO:0048754 [Name: branching morphogenesis of an epithelial tube]; GO:0061436 [Name: establishment of skin barrier]</t>
   </si>
   <si>
     <t>GO:0005524 [Name: ATP binding]; GO:0005008 [Name: hepatocyte growth factor-activated receptor activity]; GO:0017154 [Name: semaphorin receptor activity]; GO:0042802 [Name: identical protein binding]; GO:0004713 [Name: protein tyrosine kinase activity]; GO:0004714 [Name: transmembrane receptor protein tyrosine kinase activity]; GO:0019903 [Name: protein phosphatase binding]</t>
   </si>
   <si>
-    <t>P09874</t>
+    <t>UniProtKB:P09874</t>
   </si>
   <si>
     <t>142 [Gene Symbol: PARP1] [Locus Tag: ] [Chromosome: 1] [Map Location: 1q42.12] [Description: poly(ADP-ribose) polymerase 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0032042 [Name: mitochondrial DNA metabolic process]; GO:0043504 [Name: mitochondrial DNA repair]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0044030 [Name: regulation of DNA methylation]; GO:1990966 [Name: ATP generation from poly-ADP-D-ribose]; GO:0034644 [Name: cellular response to UV]; GO:0042769 [Name: DNA damage response, detection of DNA damage]; GO:0030225 [Name: macrophage differentiation]; GO:0010990 [Name: regulation of SMAD protein complex assembly]; GO:0023019 [Name: signal transduction involved in regulation of gene expression]; GO:0007179 [Name: transforming growth factor beta receptor signaling pathway]; GO:0036211 [Name: protein modification process]; GO:0006915 [Name: apoptotic process]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0006281 [Name: DNA repair]; GO:0006302 [Name: double-strand break repair]; GO:0006294 [Name: nucleotide-excision repair, preincision complex assembly]; GO:0006471 [Name: protein ADP-ribosylation]; GO:0016540 [Name: protein autoprocessing]; GO:0071294 [Name: cellular response to zinc ion]; GO:0070213 [Name: protein auto-ADP-ribosylation]; GO:0010332 [Name: response to gamma radiation]; GO:1904646 [Name: cellular response to beta-amyloid]; GO:2001170 [Name: negative regulation of ATP biosynthetic process]; GO:0006293 [Name: nucleotide-excision repair, preincision complex stabilization]; GO:0006366 [Name: transcription from RNA polymerase II promoter]; GO:0030592 [Name: DNA ADP-ribosylation]; GO:0010613 [Name: positive regulation of cardiac muscle hypertrophy]; GO:1904762 [Name: positive regulation of myofibroblast differentiation]; GO:0060391 [Name: positive regulation of SMAD protein import into nucleus]; GO:1905168 [Name: positive regulation of double-strand break repair via homologous recombination]; GO:0070911 [Name: global genome nucleotide-excision repair]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0051901 [Name: positive regulation of mitochondrial depolarization]; GO:0050790 [Name: regulation of catalytic activity]; GO:0000717 [Name: nucleotide-excision repair, DNA duplex unwinding]; GO:0000723 [Name: telomere maintenance]; GO:0070212 [Name: protein poly-ADP-ribosylation]; GO:1903827 [Name: regulation of cellular protein localization]; GO:1901216 [Name: positive regulation of neuron death]; GO:1904357 [Name: negative regulation of telomere maintenance via telomere lengthening]; GO:2000679 [Name: positive regulation of transcription regulatory region DNA binding]; GO:1904044 [Name: response to aldosterone]; GO:0000715 [Name: nucleotide-excision repair, DNA damage recognition]; GO:0006295 [Name: nucleotide-excision repair, DNA incision, 3'-to lesion]; GO:0006296 [Name: nucleotide-excision repair, DNA incision, 5'-to lesion]; GO:1903518 [Name: positive regulation of single strand break repair]; GO:0033683 [Name: nucleotide-excision repair, DNA incision]; GO:0032869 [Name: cellular response to insulin stimulus]; GO:0000724 [Name: double-strand break repair via homologous recombination]; GO:0018424 [Name: peptidyl-glutamic acid poly-ADP-ribosylation]; GO:0033148 [Name: positive regulation of intracellular estrogen receptor signaling pathway]; GO:0034599 [Name: cellular response to oxidative stress]; GO:0007005 [Name: mitochondrion organization]; GO:1903376 [Name: regulation of oxidative stress-induced neuron intrinsic apoptotic signaling pathway]; GO:1900182 [Name: positive regulation of protein localization to nucleus]; GO:0018312 [Name: peptidyl-serine ADP-ribosylation]</t>
+    <t>GO:0043504 [Name: mitochondrial DNA repair]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0032042 [Name: mitochondrial DNA metabolic process]; GO:0044030 [Name: regulation of DNA methylation]; GO:1990966 [Name: ATP generation from poly-ADP-D-ribose]; GO:0034644 [Name: cellular response to UV]; GO:0042769 [Name: DNA damage response, detection of DNA damage]; GO:0030225 [Name: macrophage differentiation]; GO:0023019 [Name: signal transduction involved in regulation of gene expression]; GO:0007179 [Name: transforming growth factor beta receptor signaling pathway]; GO:0036211 [Name: protein modification process]; GO:0010990 [Name: regulation of SMAD protein complex assembly]; GO:0006915 [Name: apoptotic process]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0006471 [Name: protein ADP-ribosylation]; GO:0016540 [Name: protein autoprocessing]; GO:0071294 [Name: cellular response to zinc ion]; GO:0006281 [Name: DNA repair]; GO:0006302 [Name: double-strand break repair]; GO:0006294 [Name: nucleotide-excision repair, preincision complex assembly]; GO:1904646 [Name: cellular response to beta-amyloid]; GO:0070213 [Name: protein auto-ADP-ribosylation]; GO:0010332 [Name: response to gamma radiation]; GO:0006366 [Name: transcription from RNA polymerase II promoter]; GO:0030592 [Name: DNA ADP-ribosylation]; GO:0006293 [Name: nucleotide-excision repair, preincision complex stabilization]; GO:0010613 [Name: positive regulation of cardiac muscle hypertrophy]; GO:1904762 [Name: positive regulation of myofibroblast differentiation]; GO:0060391 [Name: positive regulation of SMAD protein import into nucleus]; GO:1905168 [Name: positive regulation of double-strand break repair via homologous recombination]; GO:2001170 [Name: negative regulation of ATP biosynthetic process]; GO:0070911 [Name: global genome nucleotide-excision repair]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0051901 [Name: positive regulation of mitochondrial depolarization]; GO:0050790 [Name: regulation of catalytic activity]; GO:0000717 [Name: nucleotide-excision repair, DNA duplex unwinding]; GO:0000723 [Name: telomere maintenance]; GO:1903827 [Name: regulation of cellular protein localization]; GO:1901216 [Name: positive regulation of neuron death]; GO:1904357 [Name: negative regulation of telomere maintenance via telomere lengthening]; GO:2000679 [Name: positive regulation of transcription regulatory region DNA binding]; GO:0070212 [Name: protein poly-ADP-ribosylation]; GO:0000715 [Name: nucleotide-excision repair, DNA damage recognition]; GO:1904044 [Name: response to aldosterone]; GO:1903518 [Name: positive regulation of single strand break repair]; GO:0033683 [Name: nucleotide-excision repair, DNA incision]; GO:0032869 [Name: cellular response to insulin stimulus]; GO:0006295 [Name: nucleotide-excision repair, DNA incision, 3'-to lesion]; GO:0006296 [Name: nucleotide-excision repair, DNA incision, 5'-to lesion]; GO:0000724 [Name: double-strand break repair via homologous recombination]; GO:0018424 [Name: peptidyl-glutamic acid poly-ADP-ribosylation]; GO:0033148 [Name: positive regulation of intracellular estrogen receptor signaling pathway]; GO:0034599 [Name: cellular response to oxidative stress]; GO:0007005 [Name: mitochondrion organization]; GO:1903376 [Name: regulation of oxidative stress-induced neuron intrinsic apoptotic signaling pathway]; GO:0018312 [Name: peptidyl-serine ADP-ribosylation]; GO:1900182 [Name: positive regulation of protein localization to nucleus]</t>
   </si>
   <si>
     <t>GO:0042802 [Name: identical protein binding]; GO:0070412 [Name: R-SMAD binding]; GO:0003677 [Name: DNA binding]; GO:0030331 [Name: estrogen receptor binding]; GO:0003723 [Name: RNA binding]; GO:0008134 [Name: transcription factor binding]; GO:0008270 [Name: zinc ion binding]; GO:0001228 [Name: transcriptional activator activity, RNA polymerase II transcription regulatory region sequence-specific binding]; GO:0019899 [Name: enzyme binding]; GO:0051287 [Name: NAD binding]; GO:1990404 [Name: protein ADP-ribosylase activity]; GO:0000977 [Name: RNA polymerase II regulatory region sequence-specific DNA binding]; GO:0042826 [Name: histone deacetylase binding]; GO:0019901 [Name: protein kinase binding]; GO:0047485 [Name: protein N-terminus binding]; GO:0003950 [Name: NAD+ ADP-ribosyltransferase activity]</t>
   </si>
   <si>
-    <t>P09884</t>
+    <t>UniProtKB:P09884</t>
   </si>
   <si>
     <t>5422 [Gene Symbol: POLA1] [Locus Tag: ] [Chromosome: X] [Map Location: Xp22.11-p21.3] [Description: DNA polymerase alpha 1, catalytic subunit] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0006269 [Name: DNA replication, synthesis of RNA primer]; GO:0000731 [Name: DNA synthesis involved in DNA repair]; GO:0006270 [Name: DNA replication initiation]; GO:0006271 [Name: DNA strand elongation involved in DNA replication]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0006273 [Name: lagging strand elongation]; GO:0000083 [Name: regulation of transcription involved in G1/S transition of mitotic cell cycle]; GO:0032201 [Name: telomere maintenance via semi-conservative replication]; GO:0016032 [Name: viral process]; GO:1902975 [Name: mitotic DNA replication initiation]; GO:0006260 [Name: DNA replication]; GO:0006272 [Name: leading strand elongation]; GO:0006281 [Name: DNA repair]; GO:0006303 [Name: double-strand break repair via nonhomologous end joining]</t>
+    <t>GO:0006269 [Name: DNA replication, synthesis of RNA primer]; GO:0000731 [Name: DNA synthesis involved in DNA repair]; GO:0006270 [Name: DNA replication initiation]; GO:0006271 [Name: DNA strand elongation involved in DNA replication]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0000083 [Name: regulation of transcription involved in G1/S transition of mitotic cell cycle]; GO:0006273 [Name: lagging strand elongation]; GO:0032201 [Name: telomere maintenance via semi-conservative replication]; GO:0016032 [Name: viral process]; GO:1902975 [Name: mitotic DNA replication initiation]; GO:0006260 [Name: DNA replication]; GO:0006272 [Name: leading strand elongation]; GO:0006281 [Name: DNA repair]; GO:0006303 [Name: double-strand break repair via nonhomologous end joining]</t>
   </si>
   <si>
     <t>GO:0003677 [Name: DNA binding]; GO:0046872 [Name: metal ion binding]; GO:0017076 [Name: purine nucleotide binding]; GO:0019103 [Name: pyrimidine nucleotide binding]; GO:0003887 [Name: DNA-directed DNA polymerase activity]; GO:0019901 [Name: protein kinase binding]; GO:0051539 [Name: 4 iron, 4 sulfur cluster binding]; GO:0003688 [Name: DNA replication origin binding]; GO:0001882 [Name: nucleoside binding]; GO:0003697 [Name: single-stranded DNA binding]; GO:0003682 [Name: chromatin binding]; GO:0000166 [Name: nucleotide binding]</t>
   </si>
   <si>
-    <t>P0DMV8</t>
-  </si>
-  <si>
-    <t>3303 [Gene Symbol: HSPA1A] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p21.33] [Description: heat shock protein family A (Hsp70) member 1A] [Gene Type: protein-coding]; 3304 [Gene Symbol: HSPA1B] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p21.33] [Description: heat shock protein family A (Hsp70) member 1B] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:1901029 [Name: negative regulation of mitochondrial outer membrane permeabilization involved in apoptotic signaling pathway]; GO:1902236 [Name: negative regulation of endoplasmic reticulum stress-induced intrinsic apoptotic signaling pathway]; GO:0034605 [Name: cellular response to heat]; GO:0030308 [Name: negative regulation of cell growth]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:0042026 [Name: protein refolding]; GO:0060548 [Name: negative regulation of cell death]; GO:0034620 [Name: cellular response to unfolded protein]; GO:0031397 [Name: negative regulation of protein ubiquitination]; GO:0030512 [Name: negative regulation of transforming growth factor beta receptor signaling pathway]; GO:0051092 [Name: positive regulation of NF-kappaB transcription factor activity]; GO:0070370 [Name: cellular heat acclimation]; GO:1902380 [Name: positive regulation of endoribonuclease activity]; GO:1900034 [Name: regulation of cellular response to heat]; GO:0033120 [Name: positive regulation of RNA splicing]; GO:0010628 [Name: positive regulation of gene expression]; GO:0006986 [Name: response to unfolded protein]; GO:0090063 [Name: positive regulation of microtubule nucleation]; GO:1901673 [Name: regulation of mitotic spindle assembly]; GO:0034599 [Name: cellular response to oxidative stress]; GO:0051085 [Name: chaperone mediated protein folding requiring cofactor]; GO:0051131 [Name: chaperone-mediated protein complex assembly]; GO:0097201 [Name: negative regulation of transcription from RNA polymerase II promoter in response to stress]; GO:0032436 [Name: positive regulation of proteasomal ubiquitin-dependent protein catabolic process]; GO:0031396 [Name: regulation of protein ubiquitination]; GO:0006402 [Name: mRNA catabolic process]; GO:0032757 [Name: positive regulation of interleukin-8 production]; GO:0050821 [Name: protein stabilization]; GO:0043488 [Name: regulation of mRNA stability]; GO:0016192 [Name: vesicle-mediated transport]; GO:0090084 [Name: negative regulation of inclusion body assembly]; GO:1903265 [Name: positive regulation of tumor necrosis factor-mediated signaling pathway]; GO:0046034 [Name: ATP metabolic process]; GO:0007041 [Name: lysosomal transport]; GO:0043312 [Name: neutrophil degranulation]; GO:0045648 [Name: positive regulation of erythrocyte differentiation]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0008285 [Name: negative regulation of cell proliferation]; GO:0070434 [Name: positive regulation of nucleotide-binding oligomerization domain containing 2 signaling pathway]</t>
-  </si>
-  <si>
-    <t>GO:0097718 [Name: disordered domain specific binding]; GO:0042826 [Name: histone deacetylase binding]; GO:0055131 [Name: C3HC4-type RING finger domain binding]; GO:0051787 [Name: misfolded protein binding]; GO:0031625 [Name: ubiquitin protein ligase binding]; GO:0044183 [Name: protein binding involved in protein folding]; GO:0003723 [Name: RNA binding]; GO:0005102 [Name: receptor binding]; GO:0031249 [Name: denatured protein binding]; GO:0001618 [Name: virus receptor activity]; GO:0005524 [Name: ATP binding]; GO:0016887 [Name: ATPase activity]; GO:0042623 [Name: ATPase activity, coupled]; GO:0019899 [Name: enzyme binding]; GO:0047485 [Name: protein N-terminus binding]; GO:0001664 [Name: G-protein coupled receptor binding]; GO:0031072 [Name: heat shock protein binding]; GO:0003714 [Name: transcription corepressor activity]; GO:0051082 [Name: unfolded protein binding]; GO:0045296 [Name: cadherin binding]</t>
-  </si>
-  <si>
-    <t>P0DP23</t>
+    <t>UniProtKB:P0DP23</t>
   </si>
   <si>
     <t>801 [Gene Symbol: CALM1] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q32.11] [Description: calmodulin 1] [Gene Type: protein-coding]; 805 [Gene Symbol: CALM2] [Locus Tag: ] [Chromosome: 2] [Map Location: 2p21] [Description: calmodulin 2] [Gene Type: protein-coding]; 808 [Gene Symbol: CALM3] [Locus Tag: ] [Chromosome: 19] [Map Location: 19q13.32] [Description: calmodulin 3] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0043647 [Name: inositol phosphate metabolic process]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0051343 [Name: positive regulation of cyclic-nucleotide phosphodiesterase activity]; GO:0021762 [Name: substantia nigra development]; GO:0032465 [Name: regulation of cytokinesis]; GO:0010880 [Name: regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum]; GO:0022400 [Name: regulation of rhodopsin mediated signaling pathway]; GO:0060314 [Name: regulation of ryanodine-sensitive calcium-release channel activity]; GO:0019722 [Name: calcium-mediated signaling]; GO:0006936 [Name: muscle contraction]; GO:0002576 [Name: platelet degranulation]; GO:1901844 [Name: regulation of cell communication by electrical coupling involved in cardiac conduction]; GO:0000165 [Name: MAPK cascade]; GO:0010881 [Name: regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion]; GO:0016032 [Name: viral process]; GO:0005980 [Name: glycogen catabolic process]; GO:0060316 [Name: positive regulation of ryanodine-sensitive calcium-release channel activity]; GO:0050999 [Name: regulation of nitric-oxide synthase activity]; GO:0007223 [Name: Wnt signaling pathway, calcium modulating pathway]; GO:0060315 [Name: negative regulation of ryanodine-sensitive calcium-release channel activity]; GO:0032516 [Name: positive regulation of phosphoprotein phosphatase activity]; GO:0002027 [Name: regulation of heart rate]; GO:0035307 [Name: positive regulation of protein dephosphorylation]; GO:0071902 [Name: positive regulation of protein serine/threonine kinase activity]; GO:0005513 [Name: detection of calcium ion]; GO:0010800 [Name: positive regulation of peptidyl-threonine phosphorylation]; GO:0031954 [Name: positive regulation of protein autophosphorylation]; GO:0038095 [Name: Fc-epsilon receptor signaling pathway]; GO:0051186 [Name: cofactor metabolic process]; GO:0007186 [Name: G-protein coupled receptor signaling pathway]; GO:0010801 [Name: negative regulation of peptidyl-threonine phosphorylation]; GO:0055117 [Name: regulation of cardiac muscle contraction]; GO:0051592 [Name: response to calcium ion]</t>
+    <t>GO:0043647 [Name: inositol phosphate metabolic process]; GO:0051343 [Name: positive regulation of cyclic-nucleotide phosphodiesterase activity]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0021762 [Name: substantia nigra development]; GO:0010880 [Name: regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum]; GO:0022400 [Name: regulation of rhodopsin mediated signaling pathway]; GO:0060314 [Name: regulation of ryanodine-sensitive calcium-release channel activity]; GO:0032465 [Name: regulation of cytokinesis]; GO:0019722 [Name: calcium-mediated signaling]; GO:0006936 [Name: muscle contraction]; GO:0002576 [Name: platelet degranulation]; GO:1901844 [Name: regulation of cell communication by electrical coupling involved in cardiac conduction]; GO:0000165 [Name: MAPK cascade]; GO:0010881 [Name: regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion]; GO:0016032 [Name: viral process]; GO:0005980 [Name: glycogen catabolic process]; GO:0060316 [Name: positive regulation of ryanodine-sensitive calcium-release channel activity]; GO:0050999 [Name: regulation of nitric-oxide synthase activity]; GO:0007223 [Name: Wnt signaling pathway, calcium modulating pathway]; GO:0060315 [Name: negative regulation of ryanodine-sensitive calcium-release channel activity]; GO:0002027 [Name: regulation of heart rate]; GO:0032516 [Name: positive regulation of phosphoprotein phosphatase activity]; GO:0071902 [Name: positive regulation of protein serine/threonine kinase activity]; GO:0035307 [Name: positive regulation of protein dephosphorylation]; GO:0005513 [Name: detection of calcium ion]; GO:0010800 [Name: positive regulation of peptidyl-threonine phosphorylation]; GO:0031954 [Name: positive regulation of protein autophosphorylation]; GO:0038095 [Name: Fc-epsilon receptor signaling pathway]; GO:0051186 [Name: cofactor metabolic process]; GO:0007186 [Name: G-protein coupled receptor signaling pathway]; GO:0010801 [Name: negative regulation of peptidyl-threonine phosphorylation]; GO:0055117 [Name: regulation of cardiac muscle contraction]; GO:0051592 [Name: response to calcium ion]</t>
   </si>
   <si>
     <t>GO:0044325 [Name: ion channel binding]; GO:0019901 [Name: protein kinase binding]; GO:0008179 [Name: adenylate cyclase binding]; GO:0030234 [Name: enzyme regulator activity]; GO:0043539 [Name: protein serine/threonine kinase activator activity]; GO:0010856 [Name: adenylate cyclase activator activity]; GO:0019855 [Name: calcium channel inhibitor activity]; GO:0019904 [Name: protein domain specific binding]; GO:0031997 [Name: N-terminal myristoylation domain binding]; GO:0097718 [Name: disordered domain specific binding]; GO:0031432 [Name: titin binding]; GO:0005509 [Name: calcium ion binding]; GO:0072542 [Name: protein phosphatase activator activity]</t>
   </si>
   <si>
-    <t>P10415</t>
+    <t>UniProtKB:P10415</t>
   </si>
   <si>
     <t>596 [Gene Symbol: BCL2] [Locus Tag: ] [Chromosome: 18] [Map Location: 18q21.33] [Description: BCL2 apoptosis regulator] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0001782 [Name: B cell homeostasis]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0033033 [Name: negative regulation of myeloid cell apoptotic process]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0034097 [Name: response to cytokine]; GO:0042493 [Name: response to drug]; GO:0048536 [Name: spleen development]; GO:0006808 [Name: regulation of nitrogen utilization]; GO:0033077 [Name: T cell differentiation in thymus]; GO:0031103 [Name: axon regeneration]; GO:0007569 [Name: cell aging]; GO:0071456 [Name: cellular response to hypoxia]; GO:0070059 [Name: intrinsic apoptotic signaling pathway in response to endoplasmic reticulum stress]; GO:0008631 [Name: intrinsic apoptotic signaling pathway in response to oxidative stress]; GO:0008584 [Name: male gonad development]; GO:0051902 [Name: negative regulation of mitochondrial depolarization]; GO:0043524 [Name: negative regulation of neuron apoptotic process]; GO:0048599 [Name: oocyte development]; GO:2001244 [Name: positive regulation of intrinsic apoptotic signaling pathway]; GO:0048743 [Name: positive regulation of skeletal muscle fiber development]; GO:0043029 [Name: T cell homeostasis]; GO:0010559 [Name: regulation of glycoprotein biosynthetic process]; GO:2000134 [Name: negative regulation of G1/S transition of mitotic cell cycle]; GO:0006915 [Name: apoptotic process]; GO:0050853 [Name: B cell receptor signaling pathway]; GO:0098609 [Name: cell-cell adhesion]; GO:0042149 [Name: cellular response to glucose starvation]; GO:0048546 [Name: digestive tract morphogenesis]; GO:0032469 [Name: endoplasmic reticulum calcium ion homeostasis]; GO:0007565 [Name: female pregnancy]; GO:0006959 [Name: humoral immune response]; GO:0030318 [Name: melanocyte differentiation]; GO:0001656 [Name: metanephros development]; GO:0043085 [Name: positive regulation of catalytic activity]; GO:0051924 [Name: regulation of calcium ion transport]; GO:0009314 [Name: response to radiation]; GO:0010224 [Name: response to UV-B]; GO:0001836 [Name: release of cytochrome c from mitochondria]; GO:0010332 [Name: response to gamma radiation]; GO:0048873 [Name: homeostasis of number of cells within a tissue]; GO:0033138 [Name: positive regulation of peptidyl-serine phosphorylation]; GO:0002326 [Name: B cell lineage commitment]; GO:0043375 [Name: CD8-positive, alpha-beta T cell lineage commitment]; GO:0048041 [Name: focal adhesion assembly]; GO:0014031 [Name: mesenchymal cell development]; GO:2001234 [Name: negative regulation of apoptotic signaling pathway]; GO:2001243 [Name: negative regulation of intrinsic apoptotic signaling pathway]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0014042 [Name: positive regulation of neuron maturation]; GO:0014911 [Name: positive regulation of smooth muscle cell migration]; GO:0045636 [Name: positive regulation of melanocyte differentiation]; GO:0035265 [Name: organ growth]; GO:0072593 [Name: reactive oxygen species metabolic process]; GO:0035094 [Name: response to nicotine]; GO:2000378 [Name: negative regulation of reactive oxygen species metabolic process]; GO:1902166 [Name: negative regulation of intrinsic apoptotic signaling pathway in response to DNA damage by p53 class mediator]; GO:0002320 [Name: lymphoid progenitor cell differentiation]; GO:0003014 [Name: renal system process]; GO:0007015 [Name: actin filament organization]; GO:0021747 [Name: cochlear nucleus development]; GO:0043583 [Name: ear development]; GO:0030336 [Name: negative regulation of cell migration]; GO:0001541 [Name: ovarian follicle development]; GO:0048538 [Name: thymus development]; GO:2000811 [Name: negative regulation of anoikis]; GO:0032835 [Name: glomerulus development]; GO:0001658 [Name: branching involved in ureteric bud morphogenesis]; GO:0006582 [Name: melanin metabolic process]; GO:0001503 [Name: ossification]; GO:0048753 [Name: pigment granule organization]; GO:0030890 [Name: positive regulation of B cell proliferation]; GO:0000209 [Name: protein polyubiquitination]; GO:0010468 [Name: regulation of gene expression]; GO:0031647 [Name: regulation of protein stability]; GO:0051384 [Name: response to glucocorticoid]; GO:0040018 [Name: positive regulation of multicellular organism growth]; GO:0042100 [Name: B cell proliferation]; GO:0001662 [Name: behavioral fear response]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0097192 [Name: extrinsic apoptotic signaling pathway in absence of ligand]; GO:0008625 [Name: extrinsic apoptotic signaling pathway via death domain receptors]; GO:0022612 [Name: gland morphogenesis]; GO:0031069 [Name: hair follicle morphogenesis]; GO:0030308 [Name: negative regulation of cell growth]; GO:0030279 [Name: negative regulation of ossification]; GO:0046671 [Name: negative regulation of retinal cell programmed cell death]; GO:0051402 [Name: neuron apoptotic process]; GO:0030307 [Name: positive regulation of cell growth]; GO:0001952 [Name: regulation of cell-matrix adhesion]; GO:0045069 [Name: regulation of viral genome replication]; GO:0010039 [Name: response to iron ion]; GO:0009636 [Name: response to toxic substance]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0033689 [Name: negative regulation of osteoblast proliferation]; GO:1900740 [Name: positive regulation of protein insertion into mitochondrial membrane involved in apoptotic signaling pathway]; GO:0002931 [Name: response to ischemia]; GO:0007409 [Name: axonogenesis]; GO:0051607 [Name: defense response to virus]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:0010507 [Name: negative regulation of autophagy]; GO:0010523 [Name: negative regulation of calcium ion transport into cytosol]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:0006470 [Name: protein dephosphorylation]; GO:0046902 [Name: regulation of mitochondrial membrane permeability]; GO:0051881 [Name: regulation of mitochondrial membrane potential]; GO:0022898 [Name: regulation of transmembrane transporter activity]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0032848 [Name: negative regulation of cellular pH reduction]; GO:0009791 [Name: post-embryonic development]</t>
+    <t>GO:0001782 [Name: B cell homeostasis]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0033033 [Name: negative regulation of myeloid cell apoptotic process]; GO:0034097 [Name: response to cytokine]; GO:0042493 [Name: response to drug]; GO:0048536 [Name: spleen development]; GO:0033077 [Name: T cell differentiation in thymus]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0006808 [Name: regulation of nitrogen utilization]; GO:0031103 [Name: axon regeneration]; GO:0071456 [Name: cellular response to hypoxia]; GO:0070059 [Name: intrinsic apoptotic signaling pathway in response to endoplasmic reticulum stress]; GO:0051902 [Name: negative regulation of mitochondrial depolarization]; GO:0043524 [Name: negative regulation of neuron apoptotic process]; GO:0048743 [Name: positive regulation of skeletal muscle fiber development]; GO:0008631 [Name: intrinsic apoptotic signaling pathway in response to oxidative stress]; GO:0008584 [Name: male gonad development]; GO:0007569 [Name: cell aging]; GO:0048599 [Name: oocyte development]; GO:2000134 [Name: negative regulation of G1/S transition of mitotic cell cycle]; GO:0010559 [Name: regulation of glycoprotein biosynthetic process]; GO:0043029 [Name: T cell homeostasis]; GO:2001244 [Name: positive regulation of intrinsic apoptotic signaling pathway]; GO:0006915 [Name: apoptotic process]; GO:0098609 [Name: cell-cell adhesion]; GO:0042149 [Name: cellular response to glucose starvation]; GO:0006959 [Name: humoral immune response]; GO:0030318 [Name: melanocyte differentiation]; GO:0001656 [Name: metanephros development]; GO:0050853 [Name: B cell receptor signaling pathway]; GO:0043085 [Name: positive regulation of catalytic activity]; GO:0032469 [Name: endoplasmic reticulum calcium ion homeostasis]; GO:0007565 [Name: female pregnancy]; GO:0048546 [Name: digestive tract morphogenesis]; GO:0048873 [Name: homeostasis of number of cells within a tissue]; GO:0033138 [Name: positive regulation of peptidyl-serine phosphorylation]; GO:0051924 [Name: regulation of calcium ion transport]; GO:0001836 [Name: release of cytochrome c from mitochondria]; GO:0009314 [Name: response to radiation]; GO:0010332 [Name: response to gamma radiation]; GO:0002326 [Name: B cell lineage commitment]; GO:0010224 [Name: response to UV-B]; GO:0048041 [Name: focal adhesion assembly]; GO:0014031 [Name: mesenchymal cell development]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0014042 [Name: positive regulation of neuron maturation]; GO:0014911 [Name: positive regulation of smooth muscle cell migration]; GO:0043375 [Name: CD8-positive, alpha-beta T cell lineage commitment]; GO:0045636 [Name: positive regulation of melanocyte differentiation]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:2001234 [Name: negative regulation of apoptotic signaling pathway]; GO:2001243 [Name: negative regulation of intrinsic apoptotic signaling pathway]; GO:2000378 [Name: negative regulation of reactive oxygen species metabolic process]; GO:0035265 [Name: organ growth]; GO:0002320 [Name: lymphoid progenitor cell differentiation]; GO:1902166 [Name: negative regulation of intrinsic apoptotic signaling pathway in response to DNA damage by p53 class mediator]; GO:0072593 [Name: reactive oxygen species metabolic process]; GO:0035094 [Name: response to nicotine]; GO:0003014 [Name: renal system process]; GO:0007015 [Name: actin filament organization]; GO:0043583 [Name: ear development]; GO:0030336 [Name: negative regulation of cell migration]; GO:0001541 [Name: ovarian follicle development]; GO:0032835 [Name: glomerulus development]; GO:0048538 [Name: thymus development]; GO:2000811 [Name: negative regulation of anoikis]; GO:0021747 [Name: cochlear nucleus development]; GO:0001658 [Name: branching involved in ureteric bud morphogenesis]; GO:0006582 [Name: melanin metabolic process]; GO:0048753 [Name: pigment granule organization]; GO:0030890 [Name: positive regulation of B cell proliferation]; GO:0000209 [Name: protein polyubiquitination]; GO:0010468 [Name: regulation of gene expression]; GO:0031647 [Name: regulation of protein stability]; GO:0051384 [Name: response to glucocorticoid]; GO:0001503 [Name: ossification]; GO:0040018 [Name: positive regulation of multicellular organism growth]; GO:0042100 [Name: B cell proliferation]; GO:0001662 [Name: behavioral fear response]; GO:0006974 [Name: cellular response to DNA damage stimulus]; GO:0022612 [Name: gland morphogenesis]; GO:0031069 [Name: hair follicle morphogenesis]; GO:0030308 [Name: negative regulation of cell growth]; GO:0030279 [Name: negative regulation of ossification]; GO:0046671 [Name: negative regulation of retinal cell programmed cell death]; GO:0030307 [Name: positive regulation of cell growth]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0008625 [Name: extrinsic apoptotic signaling pathway via death domain receptors]; GO:0033689 [Name: negative regulation of osteoblast proliferation]; GO:0051402 [Name: neuron apoptotic process]; GO:0097192 [Name: extrinsic apoptotic signaling pathway in absence of ligand]; GO:1900740 [Name: positive regulation of protein insertion into mitochondrial membrane involved in apoptotic signaling pathway]; GO:0001952 [Name: regulation of cell-matrix adhesion]; GO:0045069 [Name: regulation of viral genome replication]; GO:0010039 [Name: response to iron ion]; GO:0002931 [Name: response to ischemia]; GO:0009636 [Name: response to toxic substance]; GO:0009791 [Name: post-embryonic development]; GO:0010507 [Name: negative regulation of autophagy]; GO:0010523 [Name: negative regulation of calcium ion transport into cytosol]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:0032848 [Name: negative regulation of cellular pH reduction]; GO:0051607 [Name: defense response to virus]; GO:0007409 [Name: axonogenesis]; GO:0006470 [Name: protein dephosphorylation]; GO:0046902 [Name: regulation of mitochondrial membrane permeability]; GO:0051881 [Name: regulation of mitochondrial membrane potential]; GO:0022898 [Name: regulation of transmembrane transporter activity]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:0042542 [Name: response to hydrogen peroxide]</t>
   </si>
   <si>
     <t>GO:0051721 [Name: protein phosphatase 2A binding]; GO:0031625 [Name: ubiquitin protein ligase binding]; GO:0015267 [Name: channel activity]; GO:0042802 [Name: identical protein binding]; GO:0051434 [Name: BH3 domain binding]; GO:0016248 [Name: channel inhibitor activity]; GO:0046982 [Name: protein heterodimerization activity]; GO:0070491 [Name: repressing transcription factor binding]; GO:0002020 [Name: protease binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0043565 [Name: sequence-specific DNA binding]</t>
   </si>
   <si>
-    <t>P11387</t>
+    <t>UniProtKB:P11387</t>
   </si>
   <si>
     <t>7150 [Gene Symbol: TOP1] [Locus Tag: ] [Chromosome: 20] [Map Location: 20q12] [Description: DNA topoisomerase I] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0006338 [Name: chromatin remodeling]; GO:0007623 [Name: circadian rhythm]; GO:0007059 [Name: chromosome segregation]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0012501 [Name: programmed cell death]; GO:0006260 [Name: DNA replication]; GO:0006265 [Name: DNA topological change]; GO:0016032 [Name: viral process]; GO:0040016 [Name: embryonic cleavage]; GO:0042493 [Name: response to drug]; GO:0032922 [Name: circadian regulation of gene expression]; GO:0016310 [Name: phosphorylation]</t>
+    <t>GO:0007623 [Name: circadian rhythm]; GO:0006338 [Name: chromatin remodeling]; GO:0007059 [Name: chromosome segregation]; GO:0012501 [Name: programmed cell death]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0006260 [Name: DNA replication]; GO:0006265 [Name: DNA topological change]; GO:0016032 [Name: viral process]; GO:0040016 [Name: embryonic cleavage]; GO:0042493 [Name: response to drug]; GO:0032922 [Name: circadian regulation of gene expression]; GO:0016310 [Name: phosphorylation]</t>
   </si>
   <si>
     <t>GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0003682 [Name: chromatin binding]; GO:0003690 [Name: double-stranded DNA binding]; GO:0005524 [Name: ATP binding]; GO:0000978 [Name: RNA polymerase II core promoter proximal region sequence-specific DNA binding]; GO:0019904 [Name: protein domain specific binding]; GO:0003697 [Name: single-stranded DNA binding]; GO:0097100 [Name: supercoiled DNA binding]; GO:0003677 [Name: DNA binding]; GO:0003917 [Name: DNA topoisomerase type I activity]; GO:0003723 [Name: RNA binding]</t>
   </si>
   <si>
-    <t>P12004</t>
-  </si>
-  <si>
-    <t>5111 [Gene Symbol: PCNA] [Locus Tag: ] [Chromosome: 20] [Map Location: 20p12.3] [Description: proliferating cell nuclear antigen] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0032355 [Name: response to estradiol]; GO:0042769 [Name: DNA damage response, detection of DNA damage]; GO:0006296 [Name: nucleotide-excision repair, DNA incision, 5'-to lesion]; GO:0007507 [Name: heart development]; GO:0006283 [Name: transcription-coupled nucleotide-excision repair]; GO:0031297 [Name: replication fork processing]; GO:0006287 [Name: base-excision repair, gap-filling]; GO:0016567 [Name: protein ubiquitination]; GO:0046686 [Name: response to cadmium ion]; GO:0070301 [Name: cellular response to hydrogen peroxide]; GO:1902065 [Name: response to L-glutamate]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0032201 [Name: telomere maintenance via semi-conservative replication]; GO:0034644 [Name: cellular response to UV]; GO:0006977 [Name: DNA damage response, signal transduction by p53 class mediator resulting in cell cycle arrest]; GO:0030855 [Name: epithelial cell differentiation]; GO:0042276 [Name: error-prone translesion synthesis]; GO:0097421 [Name: liver regeneration]; GO:0006297 [Name: nucleotide-excision repair, DNA gap filling]; GO:0032077 [Name: positive regulation of deoxyribonuclease activity]; GO:0000083 [Name: regulation of transcription involved in G1/S transition of mitotic cell cycle]; GO:0019985 [Name: translesion synthesis]; GO:0071466 [Name: cellular response to xenobiotic stimulus]; GO:0006272 [Name: leading strand elongation]; GO:0071548 [Name: response to dexamethasone]; GO:0070987 [Name: error-free translesion synthesis]; GO:1902990 [Name: mitotic telomere maintenance via semi-conservative replication]; GO:0044849 [Name: estrous cycle]; GO:0006298 [Name: mismatch repair]; GO:0045739 [Name: positive regulation of DNA repair]; GO:0045740 [Name: positive regulation of DNA replication]; GO:0016032 [Name: viral process]; GO:0033683 [Name: nucleotide-excision repair, DNA incision]; GO:0000723 [Name: telomere maintenance]</t>
-  </si>
-  <si>
-    <t>GO:0003684 [Name: damaged DNA binding]; GO:0019899 [Name: enzyme binding]; GO:0042802 [Name: identical protein binding]; GO:0032405 [Name: MutLalpha complex binding]; GO:0000701 [Name: purine-specific mismatch base pair DNA N-glycosylase activity]; GO:0070182 [Name: DNA polymerase binding]; GO:0030331 [Name: estrogen receptor binding]; GO:0030971 [Name: receptor tyrosine kinase binding]; GO:0003682 [Name: chromatin binding]; GO:0032139 [Name: dinucleotide insertion or deletion binding]; GO:0030337 [Name: DNA polymerase processivity factor activity]; GO:0035035 [Name: histone acetyltransferase binding]</t>
-  </si>
-  <si>
-    <t>P12268</t>
+    <t>UniProtKB:P12268</t>
   </si>
   <si>
     <t>3615 [Gene Symbol: IMPDH2] [Locus Tag: ] [Chromosome: 3] [Map Location: 3p21.31] [Description: inosine monophosphate dehydrogenase 2] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0071353 [Name: cellular response to interleukin-4]; GO:0007623 [Name: circadian rhythm]; GO:0006177 [Name: GMP biosynthetic process]; GO:0043312 [Name: neutrophil degranulation]; GO:0046651 [Name: lymphocyte proliferation]; GO:0006183 [Name: GTP biosynthetic process]; GO:0009168 [Name: purine ribonucleoside monophosphate biosynthetic process]; GO:0060041 [Name: retina development in camera-type eye]</t>
+    <t>GO:0071353 [Name: cellular response to interleukin-4]; GO:0007623 [Name: circadian rhythm]; GO:0043312 [Name: neutrophil degranulation]; GO:0006177 [Name: GMP biosynthetic process]; GO:0046651 [Name: lymphocyte proliferation]; GO:0006183 [Name: GTP biosynthetic process]; GO:0009168 [Name: purine ribonucleoside monophosphate biosynthetic process]; GO:0060041 [Name: retina development in camera-type eye]</t>
   </si>
   <si>
     <t>GO:0042802 [Name: identical protein binding]; GO:0046872 [Name: metal ion binding]; GO:0003723 [Name: RNA binding]; GO:0003677 [Name: DNA binding]; GO:0000166 [Name: nucleotide binding]; GO:0003938 [Name: IMP dehydrogenase activity]</t>
   </si>
   <si>
-    <t>P14735</t>
-  </si>
-  <si>
-    <t>3416 [Gene Symbol: IDE] [Locus Tag: ] [Chromosome: 10] [Map Location: 10q23.33] [Description: insulin degrading enzyme] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0051603 [Name: proteolysis involved in cellular protein catabolic process]; GO:0008340 [Name: determination of adult lifespan]; GO:0006508 [Name: proteolysis]; GO:0019885 [Name: antigen processing and presentation of endogenous peptide antigen via MHC class I]; GO:0043171 [Name: peptide catabolic process]; GO:0045732 [Name: positive regulation of protein catabolic process]; GO:0006625 [Name: protein targeting to peroxisome]; GO:0030163 [Name: protein catabolic process]; GO:1901143 [Name: insulin catabolic process]; GO:0010815 [Name: bradykinin catabolic process]; GO:0032092 [Name: positive regulation of protein binding]; GO:0097242 [Name: beta-amyloid clearance]; GO:0050435 [Name: beta-amyloid metabolic process]; GO:1903715 [Name: regulation of aerobic respiration]; GO:0042447 [Name: hormone catabolic process]; GO:0008286 [Name: insulin receptor signaling pathway]; GO:0045861 [Name: negative regulation of proteolysis]; GO:0010992 [Name: ubiquitin homeostasis]; GO:1901142 [Name: insulin metabolic process]; GO:0044257 [Name: cellular protein catabolic process]</t>
-  </si>
-  <si>
-    <t>GO:0001540 [Name: beta-amyloid binding]; GO:0005524 [Name: ATP binding]; GO:0004175 [Name: endopeptidase activity]; GO:0042802 [Name: identical protein binding]; GO:0044877 [Name: macromolecular complex binding]; GO:0004222 [Name: metalloendopeptidase activity]; GO:0043559 [Name: insulin binding]; GO:0031626 [Name: beta-endorphin binding]; GO:0042277 [Name: peptide binding]; GO:0016887 [Name: ATPase activity]; GO:0042803 [Name: protein homodimerization activity]; GO:0008270 [Name: zinc ion binding]; GO:0001618 [Name: virus receptor activity]</t>
-  </si>
-  <si>
-    <t>P15144</t>
-  </si>
-  <si>
-    <t>290 [Gene Symbol: ANPEP] [Locus Tag: ] [Chromosome: 15] [Map Location: 15q26.1] [Description: alanyl aminopeptidase, membrane] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0001525 [Name: angiogenesis]; GO:0006508 [Name: proteolysis]; GO:0030154 [Name: cell differentiation]; GO:0043312 [Name: neutrophil degranulation]; GO:0043171 [Name: peptide catabolic process]</t>
-  </si>
-  <si>
-    <t>GO:0070006 [Name: metalloaminopeptidase activity]; GO:0042277 [Name: peptide binding]; GO:0038023 [Name: signaling receptor activity]; GO:0001618 [Name: virus receptor activity]; GO:0008270 [Name: zinc ion binding]; GO:0004177 [Name: aminopeptidase activity]; GO:0008237 [Name: metallopeptidase activity]</t>
-  </si>
-  <si>
-    <t>P15692</t>
+    <t>UniProtKB:P15692</t>
   </si>
   <si>
     <t>7422 [Gene Symbol: VEGFA] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p21.1] [Description: vascular endothelial growth factor A] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0048739 [Name: cardiac muscle fiber development]; GO:0048469 [Name: cell maturation]; GO:0071456 [Name: cellular response to hypoxia]; GO:0001701 [Name: in utero embryonic development]; GO:0050930 [Name: induction of positive chemotaxis]; GO:0001938 [Name: positive regulation of endothelial cell proliferation]; GO:0043117 [Name: positive regulation of vascular permeability]; GO:0031077 [Name: post-embryonic camera-type eye development]; GO:0035924 [Name: cellular response to vascular endothelial growth factor stimulus]; GO:0010595 [Name: positive regulation of endothelial cell migration]; GO:0097533 [Name: cellular stress response to acid chemical]; GO:0090190 [Name: positive regulation of branching involved in ureteric bud morphogenesis]; GO:0061419 [Name: positive regulation of transcription from RNA polymerase II promoter in response to hypoxia]; GO:1902336 [Name: positive regulation of retinal ganglion cell axon guidance]; GO:0060749 [Name: mammary gland alveolus development]; GO:1903392 [Name: negative regulation of adherens junction organization]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0010629 [Name: negative regulation of gene expression]; GO:0045785 [Name: positive regulation of cell adhesion]; GO:0042327 [Name: positive regulation of phosphorylation]; GO:0050927 [Name: positive regulation of positive chemotaxis]; GO:1901727 [Name: positive regulation of histone deacetylase activity]; GO:0002053 [Name: positive regulation of mesenchymal cell proliferation]; GO:0060948 [Name: cardiac vascular smooth muscle cell development]; GO:0002575 [Name: basophil chemotaxis]; GO:0097475 [Name: motor neuron migration]; GO:0007399 [Name: nervous system development]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0071542 [Name: dopaminergic neuron differentiation]; GO:0070374 [Name: positive regulation of ERK1 and ERK2 cascade]; GO:0090050 [Name: positive regulation of cell migration involved in sprouting angiogenesis]; GO:0038091 [Name: positive regulation of cell proliferation by VEGF-activated platelet derived growth factor receptor signaling pathway]; GO:0051781 [Name: positive regulation of cell division]; GO:0002687 [Name: positive regulation of leukocyte migration]; GO:0060754 [Name: positive regulation of mast cell chemotaxis]; GO:0033138 [Name: positive regulation of peptidyl-serine phosphorylation]; GO:0003007 [Name: heart morphogenesis]; GO:0003169 [Name: coronary vein morphogenesis]; GO:0001569 [Name: branching involved in blood vessel morphogenesis]; GO:0048593 [Name: camera-type eye morphogenesis]; GO:0030224 [Name: monocyte differentiation]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0051894 [Name: positive regulation of focal adhesion assembly]; GO:0031954 [Name: positive regulation of protein autophosphorylation]; GO:1903572 [Name: positive regulation of protein kinase D signaling]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0008360 [Name: regulation of cell shape]; GO:0001666 [Name: response to hypoxia]; GO:0043129 [Name: surfactant homeostasis]; GO:0001570 [Name: vasculogenesis]; GO:0090037 [Name: positive regulation of protein kinase C signaling]; GO:0038084 [Name: vascular endothelial growth factor signaling pathway]; GO:0036303 [Name: lymph vessel morphogenesis]; GO:1900086 [Name: positive regulation of peptidyl-tyrosine autophosphorylation]; GO:0061418 [Name: regulation of transcription from RNA polymerase II promoter in response to hypoxia]; GO:2000573 [Name: positive regulation of DNA biosynthetic process]; GO:0060982 [Name: coronary artery morphogenesis]; GO:0032147 [Name: activation of protein kinase activity]; GO:0002042 [Name: cell migration involved in sprouting angiogenesis]; GO:0042462 [Name: eye photoreceptor cell development]; GO:0001541 [Name: ovarian follicle development]; GO:0043406 [Name: positive regulation of MAP kinase activity]; GO:0031334 [Name: positive regulation of protein complex assembly]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0030949 [Name: positive regulation of vascular endothelial growth factor receptor signaling pathway]; GO:0002040 [Name: sprouting angiogenesis]; GO:0048844 [Name: artery morphogenesis]; GO:1902966 [Name: positive regulation of protein localization to early endosome]; GO:0003151 [Name: outflow tract morphogenesis]; GO:0001525 [Name: angiogenesis]; GO:0048754 [Name: branching morphogenesis of an epithelial tube]; GO:0030225 [Name: macrophage differentiation]; GO:2000048 [Name: negative regulation of cell-cell adhesion mediated by cadherin]; GO:0043154 [Name: negative regulation of cysteine-type endopeptidase activity involved in apoptotic process]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0050679 [Name: positive regulation of epithelial cell proliferation]; GO:0010628 [Name: positive regulation of gene expression]; GO:0002052 [Name: positive regulation of neuroblast proliferation]; GO:0050731 [Name: positive regulation of peptidyl-tyrosine phosphorylation]; GO:0090259 [Name: regulation of retinal ganglion cell axon guidance]; GO:0032793 [Name: positive regulation of CREB transcription factor activity]; GO:0007498 [Name: mesoderm development]; GO:1903672 [Name: positive regulation of sprouting angiogenesis]; GO:0002092 [Name: positive regulation of receptor internalization]; GO:0038190 [Name: VEGF-activated neuropilin signaling pathway]; GO:0071679 [Name: commissural neuron axon guidance]; GO:0030855 [Name: epithelial cell differentiation]; GO:0030324 [Name: lung development]; GO:0002576 [Name: platelet degranulation]; GO:0050918 [Name: positive chemotaxis]; GO:0043536 [Name: positive regulation of blood vessel endothelial cell migration]; GO:0051272 [Name: positive regulation of cellular component movement]; GO:0010749 [Name: regulation of nitric oxide mediated signal transduction]; GO:0006357 [Name: regulation of transcription from RNA polymerase II promoter]; GO:0048010 [Name: vascular endothelial growth factor receptor signaling pathway]; GO:0035767 [Name: endothelial cell chemotaxis]; GO:0048842 [Name: positive regulation of axon extension involved in axon guidance]; GO:0038033 [Name: positive regulation of endothelial cell chemotaxis by VEGF-activated vascular endothelial growth factor receptor signaling pathway]; GO:1903141 [Name: negative regulation of establishment of endothelial barrier]; GO:1903589 [Name: positive regulation of blood vessel endothelial cell proliferation involved in sprouting angiogenesis]; GO:0007595 [Name: lactation]; GO:0030335 [Name: positive regulation of cell migration]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0060319 [Name: primitive erythrocyte differentiation]; GO:0035148 [Name: tube formation]; GO:0001822 [Name: kidney development]; GO:1900745 [Name: positive regulation of p38MAPK cascade]; GO:1905604 [Name: negative regulation of maintenance of permeability of blood-brain barrier]</t>
+    <t>GO:0048739 [Name: cardiac muscle fiber development]; GO:0048469 [Name: cell maturation]; GO:0071456 [Name: cellular response to hypoxia]; GO:0035924 [Name: cellular response to vascular endothelial growth factor stimulus]; GO:0001701 [Name: in utero embryonic development]; GO:0050930 [Name: induction of positive chemotaxis]; GO:0010595 [Name: positive regulation of endothelial cell migration]; GO:0001938 [Name: positive regulation of endothelial cell proliferation]; GO:0043117 [Name: positive regulation of vascular permeability]; GO:0031077 [Name: post-embryonic camera-type eye development]; GO:0097533 [Name: cellular stress response to acid chemical]; GO:0090190 [Name: positive regulation of branching involved in ureteric bud morphogenesis]; GO:1902336 [Name: positive regulation of retinal ganglion cell axon guidance]; GO:0061419 [Name: positive regulation of transcription from RNA polymerase II promoter in response to hypoxia]; GO:0060749 [Name: mammary gland alveolus development]; GO:1903392 [Name: negative regulation of adherens junction organization]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0045785 [Name: positive regulation of cell adhesion]; GO:0042327 [Name: positive regulation of phosphorylation]; GO:0050927 [Name: positive regulation of positive chemotaxis]; GO:0010629 [Name: negative regulation of gene expression]; GO:1901727 [Name: positive regulation of histone deacetylase activity]; GO:0002053 [Name: positive regulation of mesenchymal cell proliferation]; GO:0060948 [Name: cardiac vascular smooth muscle cell development]; GO:0002575 [Name: basophil chemotaxis]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0071542 [Name: dopaminergic neuron differentiation]; GO:0007399 [Name: nervous system development]; GO:0038091 [Name: positive regulation of cell proliferation by VEGF-activated platelet derived growth factor receptor signaling pathway]; GO:0033138 [Name: positive regulation of peptidyl-serine phosphorylation]; GO:0070374 [Name: positive regulation of ERK1 and ERK2 cascade]; GO:0097475 [Name: motor neuron migration]; GO:0051781 [Name: positive regulation of cell division]; GO:0090050 [Name: positive regulation of cell migration involved in sprouting angiogenesis]; GO:0002687 [Name: positive regulation of leukocyte migration]; GO:0060754 [Name: positive regulation of mast cell chemotaxis]; GO:0003007 [Name: heart morphogenesis]; GO:0003169 [Name: coronary vein morphogenesis]; GO:0001569 [Name: branching involved in blood vessel morphogenesis]; GO:0048593 [Name: camera-type eye morphogenesis]; GO:0030224 [Name: monocyte differentiation]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0051894 [Name: positive regulation of focal adhesion assembly]; GO:0031954 [Name: positive regulation of protein autophosphorylation]; GO:1903572 [Name: positive regulation of protein kinase D signaling]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0008360 [Name: regulation of cell shape]; GO:0001666 [Name: response to hypoxia]; GO:0043129 [Name: surfactant homeostasis]; GO:0001570 [Name: vasculogenesis]; GO:0036303 [Name: lymph vessel morphogenesis]; GO:0090037 [Name: positive regulation of protein kinase C signaling]; GO:2000573 [Name: positive regulation of DNA biosynthetic process]; GO:0038084 [Name: vascular endothelial growth factor signaling pathway]; GO:1900086 [Name: positive regulation of peptidyl-tyrosine autophosphorylation]; GO:0061418 [Name: regulation of transcription from RNA polymerase II promoter in response to hypoxia]; GO:0060982 [Name: coronary artery morphogenesis]; GO:0032147 [Name: activation of protein kinase activity]; GO:0048844 [Name: artery morphogenesis]; GO:0002042 [Name: cell migration involved in sprouting angiogenesis]; GO:0042462 [Name: eye photoreceptor cell development]; GO:0001541 [Name: ovarian follicle development]; GO:0043406 [Name: positive regulation of MAP kinase activity]; GO:0031334 [Name: positive regulation of protein complex assembly]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0030949 [Name: positive regulation of vascular endothelial growth factor receptor signaling pathway]; GO:0002040 [Name: sprouting angiogenesis]; GO:1902966 [Name: positive regulation of protein localization to early endosome]; GO:0003151 [Name: outflow tract morphogenesis]; GO:0001525 [Name: angiogenesis]; GO:0048754 [Name: branching morphogenesis of an epithelial tube]; GO:0030225 [Name: macrophage differentiation]; GO:2000048 [Name: negative regulation of cell-cell adhesion mediated by cadherin]; GO:0043154 [Name: negative regulation of cysteine-type endopeptidase activity involved in apoptotic process]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0032793 [Name: positive regulation of CREB transcription factor activity]; GO:0002052 [Name: positive regulation of neuroblast proliferation]; GO:0090259 [Name: regulation of retinal ganglion cell axon guidance]; GO:0010628 [Name: positive regulation of gene expression]; GO:0038190 [Name: VEGF-activated neuropilin signaling pathway]; GO:0007498 [Name: mesoderm development]; GO:0002092 [Name: positive regulation of receptor internalization]; GO:0050731 [Name: positive regulation of peptidyl-tyrosine phosphorylation]; GO:1903672 [Name: positive regulation of sprouting angiogenesis]; GO:0050679 [Name: positive regulation of epithelial cell proliferation]; GO:0071679 [Name: commissural neuron axon guidance]; GO:0035767 [Name: endothelial cell chemotaxis]; GO:0030855 [Name: epithelial cell differentiation]; GO:0030324 [Name: lung development]; GO:0002576 [Name: platelet degranulation]; GO:0050918 [Name: positive chemotaxis]; GO:0048842 [Name: positive regulation of axon extension involved in axon guidance]; GO:0043536 [Name: positive regulation of blood vessel endothelial cell migration]; GO:0051272 [Name: positive regulation of cellular component movement]; GO:0010749 [Name: regulation of nitric oxide mediated signal transduction]; GO:0048010 [Name: vascular endothelial growth factor receptor signaling pathway]; GO:0006357 [Name: regulation of transcription from RNA polymerase II promoter]; GO:1903141 [Name: negative regulation of establishment of endothelial barrier]; GO:1903589 [Name: positive regulation of blood vessel endothelial cell proliferation involved in sprouting angiogenesis]; GO:0038033 [Name: positive regulation of endothelial cell chemotaxis by VEGF-activated vascular endothelial growth factor receptor signaling pathway]; GO:0001822 [Name: kidney development]; GO:0007595 [Name: lactation]; GO:0030335 [Name: positive regulation of cell migration]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:1900745 [Name: positive regulation of p38MAPK cascade]; GO:0060319 [Name: primitive erythrocyte differentiation]; GO:0035148 [Name: tube formation]; GO:1905604 [Name: negative regulation of maintenance of permeability of blood-brain barrier]</t>
   </si>
   <si>
     <t>GO:0043184 [Name: vascular endothelial growth factor receptor 2 binding]; GO:0042056 [Name: chemoattractant activity]; GO:0008201 [Name: heparin binding]; GO:0048018 [Name: receptor agonist activity]; GO:0043183 [Name: vascular endothelial growth factor receptor 1 binding]; GO:0008083 [Name: growth factor activity]; GO:0050840 [Name: extracellular matrix binding]; GO:0001968 [Name: fibronectin binding]; GO:0005125 [Name: cytokine activity]; GO:0042802 [Name: identical protein binding]; GO:0005161 [Name: platelet-derived growth factor receptor binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0038191 [Name: neuropilin binding]; GO:0005172 [Name: vascular endothelial growth factor receptor binding]</t>
   </si>
   <si>
-    <t>P17612</t>
-  </si>
-  <si>
-    <t>5566 [Gene Symbol: PRKACA] [Locus Tag: ] [Chromosome: 19] [Map Location: 19p13.12] [Description: protein kinase cAMP-activated catalytic subunit alpha] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0071333 [Name: cellular response to glucose stimulus]; GO:0001843 [Name: neural tube closure]; GO:0045667 [Name: regulation of osteoblast differentiation]; GO:0070613 [Name: regulation of protein processing]; GO:0071377 [Name: cellular response to glucagon stimulus]; GO:0071872 [Name: cellular response to epinephrine stimulus]; GO:0006397 [Name: mRNA processing]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0071158 [Name: positive regulation of cell cycle arrest]; GO:0003091 [Name: renal water homeostasis]; GO:0002223 [Name: stimulatory C-type lectin receptor signaling pathway]; GO:0086064 [Name: cell communication by electrical coupling involved in cardiac conduction]; GO:0097711 [Name: ciliary basal body docking]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0046777 [Name: protein autophosphorylation]; GO:0010737 [Name: protein kinase A signaling]; GO:0035584 [Name: calcium-mediated signaling using intracellular calcium source]; GO:0050804 [Name: modulation of synaptic transmission]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0006468 [Name: protein phosphorylation]; GO:2000810 [Name: regulation of bicellular tight junction assembly]; GO:0007596 [Name: blood coagulation]; GO:0055117 [Name: regulation of cardiac muscle contraction]; GO:0010389 [Name: regulation of G2/M transition of mitotic cell cycle]; GO:0061136 [Name: regulation of proteasomal protein catabolic process]; GO:0060314 [Name: regulation of ryanodine-sensitive calcium-release channel activity]; GO:1901621 [Name: negative regulation of smoothened signaling pathway involved in dorsal/ventral neural tube patterning]; GO:0034605 [Name: cellular response to heat]; GO:0034380 [Name: high-density lipoprotein particle assembly]; GO:0051480 [Name: regulation of cytosolic calcium ion concentration]; GO:0016241 [Name: regulation of macroautophagy]; GO:0071374 [Name: cellular response to parathyroid hormone stimulus]; GO:0001707 [Name: mesoderm formation]; GO:0046827 [Name: positive regulation of protein export from nucleus]; GO:0010881 [Name: regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion]; GO:0043393 [Name: regulation of protein binding]; GO:0034199 [Name: activation of protein kinase A activity]; GO:0000086 [Name: G2/M transition of mitotic cell cycle]; GO:1903779 [Name: regulation of cardiac conduction]; GO:0002027 [Name: regulation of heart rate]; GO:0048240 [Name: sperm capacitation]</t>
-  </si>
-  <si>
-    <t>GO:0005524 [Name: ATP binding]; GO:0000287 [Name: magnesium ion binding]; GO:0019901 [Name: protein kinase binding]; GO:0030145 [Name: manganese ion binding]; GO:0004672 [Name: protein kinase activity]; GO:0019904 [Name: protein domain specific binding]; GO:0031625 [Name: ubiquitin protein ligase binding]; GO:0004712 [Name: protein serine/threonine/tyrosine kinase activity]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0004691 [Name: cAMP-dependent protein kinase activity]; GO:0034237 [Name: protein kinase A regulatory subunit binding]</t>
-  </si>
-  <si>
-    <t>P19784</t>
-  </si>
-  <si>
-    <t>1459 [Gene Symbol: CSNK2A2] [Locus Tag: ] [Chromosome: 16] [Map Location: 16q21] [Description: casein kinase 2 alpha 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:1903146 [Name: regulation of mitophagy]; GO:0051726 [Name: regulation of cell cycle]; GO:0016055 [Name: Wnt signaling pathway]; GO:2000059 [Name: negative regulation of protein ubiquitination involved in ubiquitin-dependent protein catabolic process]; GO:0016236 [Name: macroautophagy]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0007283 [Name: spermatogenesis]; GO:0006915 [Name: apoptotic process]; GO:0097421 [Name: liver regeneration]; GO:0006656 [Name: phosphatidylcholine biosynthetic process]; GO:0006457 [Name: protein folding]; GO:1901796 [Name: regulation of signal transduction by p53 class mediator]; GO:0021987 [Name: cerebral cortex development]; GO:2001234 [Name: negative regulation of apoptotic signaling pathway]; GO:1903955 [Name: positive regulation of protein targeting to mitochondrion]; GO:1905818 [Name: regulation of chromosome separation]; GO:0007049 [Name: cell cycle]</t>
-  </si>
-  <si>
-    <t>GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0047485 [Name: protein N-terminus binding]; GO:0005524 [Name: ATP binding]</t>
-  </si>
-  <si>
-    <t>P21964</t>
+    <t>UniProtKB:P21964</t>
   </si>
   <si>
     <t>1312 [Gene Symbol: COMT] [Locus Tag: ] [Chromosome: 22] [Map Location: 22q11.21] [Description: catechol-O-methyltransferase] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0032502 [Name: developmental process]; GO:0007565 [Name: female pregnancy]; GO:0014070 [Name: response to organic cyclic compound]; GO:0007614 [Name: short-term memory]; GO:0016036 [Name: cellular response to phosphate starvation]; GO:0048609 [Name: multicellular organismal reproductive process]; GO:0042493 [Name: response to drug]; GO:0008210 [Name: estrogen metabolic process]; GO:0007612 [Name: learning]; GO:0045963 [Name: negative regulation of dopamine metabolic process]; GO:0048662 [Name: negative regulation of smooth muscle cell proliferation]; GO:0050668 [Name: positive regulation of homocysteine metabolic process]; GO:0048265 [Name: response to pain]; GO:0042424 [Name: catecholamine catabolic process]; GO:0042420 [Name: dopamine catabolic process]; GO:0042417 [Name: dopamine metabolic process]; GO:0032259 [Name: methylation]; GO:0043627 [Name: response to estrogen]; GO:0051930 [Name: regulation of sensory perception of pain]; GO:0032496 [Name: response to lipopolysaccharide]; GO:0035814 [Name: negative regulation of renal sodium excretion]; GO:0042135 [Name: neurotransmitter catabolic process]</t>
+    <t>GO:0032502 [Name: developmental process]; GO:0007565 [Name: female pregnancy]; GO:0014070 [Name: response to organic cyclic compound]; GO:0007614 [Name: short-term memory]; GO:0016036 [Name: cellular response to phosphate starvation]; GO:0048609 [Name: multicellular organismal reproductive process]; GO:0042493 [Name: response to drug]; GO:0008210 [Name: estrogen metabolic process]; GO:0007612 [Name: learning]; GO:0045963 [Name: negative regulation of dopamine metabolic process]; GO:0048662 [Name: negative regulation of smooth muscle cell proliferation]; GO:0048265 [Name: response to pain]; GO:0050668 [Name: positive regulation of homocysteine metabolic process]; GO:0042424 [Name: catecholamine catabolic process]; GO:0042420 [Name: dopamine catabolic process]; GO:0042417 [Name: dopamine metabolic process]; GO:0043627 [Name: response to estrogen]; GO:0032259 [Name: methylation]; GO:0051930 [Name: regulation of sensory perception of pain]; GO:0032496 [Name: response to lipopolysaccharide]; GO:0035814 [Name: negative regulation of renal sodium excretion]; GO:0042135 [Name: neurotransmitter catabolic process]</t>
   </si>
   <si>
     <t>GO:0102084 [Name: L-dopa O-methyltransferase activity]; GO:0016206 [Name: catechol O-methyltransferase activity]; GO:0008171 [Name: O-methyltransferase activity]; GO:0008168 [Name: methyltransferase activity]; GO:0000287 [Name: magnesium ion binding]</t>
   </si>
   <si>
-    <t>P22459</t>
+    <t>UniProtKB:P22459</t>
   </si>
   <si>
     <t>3739 [Gene Symbol: KCNA4] [Locus Tag: ] [Chromosome: 11] [Map Location: 11p14.1] [Description: potassium voltage-gated channel subfamily A member 4] [Gene Type: protein-coding]</t>
@@ -457,31 +260,19 @@
     <t>GO:0030955 [Name: potassium ion binding]; GO:0005249 [Name: voltage-gated potassium channel activity]; GO:0005251 [Name: delayed rectifier potassium channel activity]</t>
   </si>
   <si>
-    <t>P22460</t>
+    <t>UniProtKB:P22460</t>
   </si>
   <si>
     <t>3741 [Gene Symbol: KCNA5] [Locus Tag: ] [Chromosome: 12] [Map Location: 12p13.32] [Description: potassium voltage-gated channel subfamily A member 5] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0097623 [Name: potassium ion export across plasma membrane]; GO:2000288 [Name: positive regulation of myoblast proliferation]; GO:0006813 [Name: potassium ion transport]; GO:0051260 [Name: protein homooligomerization]; GO:0050796 [Name: regulation of insulin secretion]; GO:0043266 [Name: regulation of potassium ion transport]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0010033 [Name: response to organic substance]; GO:0007219 [Name: Notch signaling pathway]; GO:0055075 [Name: potassium ion homeostasis]; GO:0060372 [Name: regulation of atrial cardiac muscle cell membrane repolarization]; GO:0086052 [Name: membrane repolarization during SA node cell action potential]; GO:1900087 [Name: positive regulation of G1/S transition of mitotic cell cycle]; GO:0042391 [Name: regulation of membrane potential]; GO:0009612 [Name: response to mechanical stimulus]; GO:0098914 [Name: membrane repolarization during atrial cardiac muscle cell action potential]; GO:0019229 [Name: regulation of vasoconstriction]; GO:0060081 [Name: membrane hyperpolarization]; GO:0071805 [Name: potassium ion transmembrane transport]; GO:0055093 [Name: response to hyperoxia]; GO:0086050 [Name: membrane repolarization during bundle of His cell action potential]; GO:0086014 [Name: atrial cardiac muscle cell action potential]; GO:0051481 [Name: negative regulation of cytosolic calcium ion concentration]; GO:0001666 [Name: response to hypoxia]; GO:0086091 [Name: regulation of heart rate by cardiac conduction]</t>
+    <t>GO:0097623 [Name: potassium ion export across plasma membrane]; GO:2000288 [Name: positive regulation of myoblast proliferation]; GO:0051260 [Name: protein homooligomerization]; GO:0050796 [Name: regulation of insulin secretion]; GO:0043266 [Name: regulation of potassium ion transport]; GO:0010033 [Name: response to organic substance]; GO:0006813 [Name: potassium ion transport]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0007219 [Name: Notch signaling pathway]; GO:0055075 [Name: potassium ion homeostasis]; GO:0060372 [Name: regulation of atrial cardiac muscle cell membrane repolarization]; GO:0086052 [Name: membrane repolarization during SA node cell action potential]; GO:0042391 [Name: regulation of membrane potential]; GO:1900087 [Name: positive regulation of G1/S transition of mitotic cell cycle]; GO:0098914 [Name: membrane repolarization during atrial cardiac muscle cell action potential]; GO:0009612 [Name: response to mechanical stimulus]; GO:0019229 [Name: regulation of vasoconstriction]; GO:0060081 [Name: membrane hyperpolarization]; GO:0071805 [Name: potassium ion transmembrane transport]; GO:0055093 [Name: response to hyperoxia]; GO:0086050 [Name: membrane repolarization during bundle of His cell action potential]; GO:0086014 [Name: atrial cardiac muscle cell action potential]; GO:0051481 [Name: negative regulation of cytosolic calcium ion concentration]; GO:0001666 [Name: response to hypoxia]; GO:0086091 [Name: regulation of heart rate by cardiac conduction]</t>
   </si>
   <si>
     <t>GO:0051393 [Name: alpha-actinin binding]; GO:0097110 [Name: scaffold protein binding]; GO:0005249 [Name: voltage-gated potassium channel activity]; GO:0019901 [Name: protein kinase binding]; GO:0086087 [Name: voltage-gated potassium channel activity involved in bundle of His cell action potential repolarization]; GO:0005102 [Name: receptor binding]; GO:0086089 [Name: voltage-gated potassium channel activity involved in atrial cardiac muscle cell action potential repolarization]; GO:0015271 [Name: outward rectifier potassium channel activity]; GO:0005251 [Name: delayed rectifier potassium channel activity]; GO:0086090 [Name: voltage-gated potassium channel activity involved in SA node cell action potential repolarization]</t>
   </si>
   <si>
-    <t>P23284</t>
-  </si>
-  <si>
-    <t>5479 [Gene Symbol: PPIB] [Locus Tag: ] [Chromosome: 15] [Map Location: 15q22.31] [Description: peptidylprolyl isomerase B] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0060348 [Name: bone development]; GO:0061077 [Name: chaperone-mediated protein folding]; GO:0042026 [Name: protein refolding]; GO:0040018 [Name: positive regulation of multicellular organism growth]; GO:0050821 [Name: protein stabilization]; GO:0044829 [Name: positive regulation by host of viral genome replication]; GO:0044794 [Name: positive regulation by host of viral process]; GO:0000413 [Name: protein peptidyl-prolyl isomerization]</t>
-  </si>
-  <si>
-    <t>GO:0003723 [Name: RNA binding]; GO:0051082 [Name: unfolded protein binding]; GO:0016018 [Name: cyclosporin A binding]; GO:0070063 [Name: RNA polymerase binding]; GO:0003755 [Name: peptidyl-prolyl cis-trans isomerase activity]</t>
-  </si>
-  <si>
-    <t>P25100</t>
+    <t>UniProtKB:P25100</t>
   </si>
   <si>
     <t>146 [Gene Symbol: ADRA1D] [Locus Tag: ] [Chromosome: 20] [Map Location: 20p13] [Description: adrenoceptor alpha 1D] [Gene Type: protein-coding]</t>
@@ -493,55 +284,31 @@
     <t>GO:0004935 [Name: adrenergic receptor activity]; GO:0004937 [Name: alpha1-adrenergic receptor activity]; GO:0042802 [Name: identical protein binding]</t>
   </si>
   <si>
-    <t>P26358</t>
+    <t>UniProtKB:P26358</t>
   </si>
   <si>
     <t>1786 [Gene Symbol: DNMT1] [Locus Tag: ] [Chromosome: 19] [Map Location: 19p13.2] [Description: DNA methyltransferase 1] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0071230 [Name: cellular response to amino acid stimulus]; GO:0016458 [Name: gene silencing]; GO:0010629 [Name: negative regulation of gene expression]; GO:0010628 [Name: positive regulation of gene expression]; GO:0051571 [Name: positive regulation of histone H3-K4 methylation]; GO:0045814 [Name: negative regulation of gene expression, epigenetic]; GO:0006325 [Name: chromatin organization]; GO:1905460 [Name: negative regulation of vascular associated smooth muscle cell apoptotic process]; GO:1904707 [Name: positive regulation of vascular smooth muscle cell proliferation]; GO:0006306 [Name: DNA methylation]; GO:0010424 [Name: DNA methylation on cytosine within a CG sequence]; GO:0051573 [Name: negative regulation of histone H3-K9 methylation]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0043045 [Name: DNA methylation involved in embryo development]; GO:0010216 [Name: maintenance of DNA methylation]; GO:0090309 [Name: positive regulation of methylation-dependent chromatin silencing]; GO:1905931 [Name: negative regulation of vascular smooth muscle cell differentiation involved in phenotypic switching]; GO:0007265 [Name: Ras protein signal transduction]</t>
+    <t>GO:0071230 [Name: cellular response to amino acid stimulus]; GO:0016458 [Name: gene silencing]; GO:0010629 [Name: negative regulation of gene expression]; GO:0051571 [Name: positive regulation of histone H3-K4 methylation]; GO:0010628 [Name: positive regulation of gene expression]; GO:0045814 [Name: negative regulation of gene expression, epigenetic]; GO:0006325 [Name: chromatin organization]; GO:1904707 [Name: positive regulation of vascular smooth muscle cell proliferation]; GO:1905460 [Name: negative regulation of vascular associated smooth muscle cell apoptotic process]; GO:0006306 [Name: DNA methylation]; GO:0051573 [Name: negative regulation of histone H3-K9 methylation]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0010424 [Name: DNA methylation on cytosine within a CG sequence]; GO:0043045 [Name: DNA methylation involved in embryo development]; GO:0090309 [Name: positive regulation of methylation-dependent chromatin silencing]; GO:0010216 [Name: maintenance of DNA methylation]; GO:1905931 [Name: negative regulation of vascular smooth muscle cell differentiation involved in phenotypic switching]; GO:0007265 [Name: Ras protein signal transduction]</t>
   </si>
   <si>
     <t>GO:0003886 [Name: DNA (cytosine-5-)-methyltransferase activity]; GO:0003723 [Name: RNA binding]; GO:0003677 [Name: DNA binding]; GO:0009008 [Name: DNA-methyltransferase activity]; GO:1990841 [Name: promoter-specific chromatin binding]; GO:0008327 [Name: methyl-CpG binding]; GO:0008270 [Name: zinc ion binding]</t>
   </si>
   <si>
-    <t>P27448</t>
-  </si>
-  <si>
-    <t>4140 [Gene Symbol: MARK3] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q32.32-q32.33] [Description: microtubule affinity regulating kinase 3] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0000165 [Name: MAPK cascade]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0036289 [Name: peptidyl-serine autophosphorylation]; GO:0035556 [Name: intracellular signal transduction]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0032092 [Name: positive regulation of protein binding]; GO:0035331 [Name: negative regulation of hippo signaling]; GO:0006468 [Name: protein phosphorylation]</t>
-  </si>
-  <si>
-    <t>GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0048156 [Name: tau protein binding]; GO:0050321 [Name: tau-protein kinase activity]; GO:0005524 [Name: ATP binding]</t>
-  </si>
-  <si>
-    <t>P27487</t>
+    <t>UniProtKB:P27487</t>
   </si>
   <si>
     <t>1803 [Gene Symbol: DPP4] [Locus Tag: ] [Chromosome: 2] [Map Location: 2q24.2] [Description: dipeptidyl peptidase 4] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0007155 [Name: cell adhesion]; GO:0090024 [Name: negative regulation of neutrophil chemotaxis]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0036343 [Name: psychomotor behavior]; GO:0050796 [Name: regulation of insulin secretion]; GO:0006508 [Name: proteolysis]; GO:0033632 [Name: regulation of cell-cell adhesion mediated by integrin]; GO:0001662 [Name: behavioral fear response]; GO:0043542 [Name: endothelial cell migration]; GO:0010716 [Name: negative regulation of extracellular matrix disassembly]; GO:0001666 [Name: response to hypoxia]; GO:0042110 [Name: T cell activation]; GO:0031295 [Name: T cell costimulation]; GO:0035641 [Name: locomotory exploration behavior]</t>
+    <t>GO:0007155 [Name: cell adhesion]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0036343 [Name: psychomotor behavior]; GO:0090024 [Name: negative regulation of neutrophil chemotaxis]; GO:0050796 [Name: regulation of insulin secretion]; GO:0006508 [Name: proteolysis]; GO:0033632 [Name: regulation of cell-cell adhesion mediated by integrin]; GO:0001662 [Name: behavioral fear response]; GO:0043542 [Name: endothelial cell migration]; GO:0010716 [Name: negative regulation of extracellular matrix disassembly]; GO:0001666 [Name: response to hypoxia]; GO:0042110 [Name: T cell activation]; GO:0031295 [Name: T cell costimulation]; GO:0035641 [Name: locomotory exploration behavior]</t>
   </si>
   <si>
     <t>GO:0004252 [Name: serine-type endopeptidase activity]; GO:0008239 [Name: dipeptidyl-peptidase activity]; GO:0008236 [Name: serine-type peptidase activity]; GO:0001618 [Name: virus receptor activity]; GO:0045499 [Name: chemorepellent activity]; GO:0002020 [Name: protease binding]; GO:0005102 [Name: receptor binding]; GO:0042802 [Name: identical protein binding]; GO:0042803 [Name: protein homodimerization activity]</t>
   </si>
   <si>
-    <t>P30043</t>
-  </si>
-  <si>
-    <t>645 [Gene Symbol: BLVRB] [Locus Tag: ] [Chromosome: 19] [Map Location: 19q13.2] [Description: biliverdin reductase B] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0042167 [Name: heme catabolic process]</t>
-  </si>
-  <si>
-    <t>GO:0042602 [Name: riboflavin reductase (NADPH) activity]; GO:0004074 [Name: biliverdin reductase activity]</t>
-  </si>
-  <si>
-    <t>P33402</t>
+    <t>UniProtKB:P33402</t>
   </si>
   <si>
     <t>2977 [Gene Symbol: GUCY1A2] [Locus Tag: ] [Chromosome: 11] [Map Location: 11q22.3] [Description: guanylate cyclase 1 soluble subunit alpha 2] [Gene Type: protein-coding]</t>
@@ -553,31 +320,7 @@
     <t>GO:0044877 [Name: macromolecular complex binding]; GO:0004383 [Name: guanylate cyclase activity]; GO:0020037 [Name: heme binding]; GO:0005525 [Name: GTP binding]</t>
   </si>
   <si>
-    <t>P33527</t>
-  </si>
-  <si>
-    <t>4363 [Gene Symbol: ABCC1] [Locus Tag: ] [Chromosome: 16] [Map Location: 16p13.11] [Description: ATP binding cassette subfamily C member 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006691 [Name: leukotriene metabolic process]; GO:0009235 [Name: cobalamin metabolic process]; GO:0050729 [Name: positive regulation of inflammatory response]; GO:0042493 [Name: response to drug]; GO:0034775 [Name: glutathione transmembrane transport]; GO:0045332 [Name: phospholipid translocation]; GO:0055085 [Name: transmembrane transport]; GO:1904646 [Name: cellular response to beta-amyloid]; GO:0060326 [Name: cell chemotaxis]; GO:0042908 [Name: xenobiotic transport]; GO:0099039 [Name: sphingolipid translocation]; GO:0071716 [Name: leukotriene transport]; GO:0070633 [Name: transepithelial transport]</t>
-  </si>
-  <si>
-    <t>GO:0015562 [Name: efflux transmembrane transporter activity]; GO:0034040 [Name: lipid-transporting ATPase activity]; GO:0015420 [Name: cobalamin-transporting ATPase activity]; GO:0015431 [Name: glutathione S-conjugate-exporting ATPase activity]; GO:0008559 [Name: xenobiotic-transporting ATPase activity]; GO:0042910 [Name: xenobiotic transporter activity]; GO:0042626 [Name: ATPase activity, coupled to transmembrane movement of substances]; GO:0005524 [Name: ATP binding]; GO:0016887 [Name: ATPase activity]; GO:0034634 [Name: glutathione transmembrane transporter activity]; GO:0008514 [Name: organic anion transmembrane transporter activity]</t>
-  </si>
-  <si>
-    <t>P37173</t>
-  </si>
-  <si>
-    <t>7048 [Gene Symbol: TGFBR2] [Locus Tag: ] [Chromosome: 3] [Map Location: 3p24.1] [Description: transforming growth factor beta receptor 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0001701 [Name: in utero embryonic development]; GO:1990428 [Name: miRNA transport]; GO:0007219 [Name: Notch signaling pathway]; GO:0010634 [Name: positive regulation of epithelial cell migration]; GO:0060440 [Name: trachea formation]; GO:0007179 [Name: transforming growth factor beta receptor signaling pathway]; GO:1990086 [Name: lens fiber cell apoptotic process]; GO:0060443 [Name: mammary gland morphogenesis]; GO:0070723 [Name: response to cholesterol]; GO:0007369 [Name: gastrulation]; GO:2000379 [Name: positive regulation of reactive oxygen species metabolic process]; GO:0002666 [Name: positive regulation of T cell tolerance induction]; GO:0002651 [Name: positive regulation of tolerance induction to self antigen]; GO:0001666 [Name: response to hypoxia]; GO:0009612 [Name: response to mechanical stimulus]; GO:0003151 [Name: outflow tract morphogenesis]; GO:0003274 [Name: endocardial cushion fusion]; GO:0032147 [Name: activation of protein kinase activity]; GO:0006915 [Name: apoptotic process]; GO:0001569 [Name: branching involved in blood vessel morphogenesis]; GO:0007507 [Name: heart development]; GO:0030512 [Name: negative regulation of transforming growth factor beta receptor signaling pathway]; GO:0060389 [Name: pathway-restricted SMAD protein phosphorylation]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0002663 [Name: positive regulation of B cell tolerance induction]; GO:0051138 [Name: positive regulation of NK T cell differentiation]; GO:0042127 [Name: regulation of cell proliferation]; GO:0042060 [Name: wound healing]; GO:0060463 [Name: lung lobe morphogenesis]; GO:0007568 [Name: aging]; GO:0007182 [Name: common-partner SMAD protein phosphorylation]; GO:0035162 [Name: embryonic hemopoiesis]; GO:0002088 [Name: lens development in camera-type eye]; GO:0043011 [Name: myeloid dendritic cell differentiation]; GO:0006468 [Name: protein phosphorylation]; GO:0007584 [Name: response to nutrient]; GO:0007224 [Name: smoothened signaling pathway]; GO:0060412 [Name: ventricular septum morphogenesis]; GO:2000563 [Name: positive regulation of CD4-positive, alpha-beta T cell proliferation]; GO:0071363 [Name: cellular response to growth factor stimulus]; GO:0048565 [Name: digestive tract development]; GO:0007566 [Name: embryo implantation]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:1905317 [Name: inferior endocardial cushion morphogenesis]; GO:0001947 [Name: heart looping]; GO:0010718 [Name: positive regulation of epithelial to mesenchymal transition]; GO:0043415 [Name: positive regulation of skeletal muscle tissue regeneration]; GO:0006898 [Name: receptor-mediated endocytosis]; GO:0003181 [Name: atrioventricular valve morphogenesis]; GO:1905007 [Name: positive regulation of epithelial to mesenchymal transition involved in endocardial cushion formation]; GO:0031100 [Name: animal organ regeneration]; GO:0048701 [Name: embryonic cranial skeleton morphogenesis]; GO:0002053 [Name: positive regulation of mesenchymal cell proliferation]; GO:0010468 [Name: regulation of gene expression]; GO:0042493 [Name: response to drug]; GO:0048545 [Name: response to steroid hormone]; GO:0001570 [Name: vasculogenesis]; GO:0003148 [Name: outflow tract septum morphogenesis]; GO:0003214 [Name: cardiac left ventricle morphogenesis]; GO:0003186 [Name: tricuspid valve morphogenesis]; GO:0001568 [Name: blood vessel development]; GO:0007420 [Name: brain development]; GO:0060434 [Name: bronchus morphogenesis]; GO:0003430 [Name: growth plate cartilage chondrocyte growth]; GO:0060044 [Name: negative regulation of cardiac muscle cell proliferation]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0048661 [Name: positive regulation of smooth muscle cell proliferation]; GO:0043627 [Name: response to estrogen]; GO:0009749 [Name: response to glucose]; GO:0003149 [Name: membranous septum morphogenesis]</t>
-  </si>
-  <si>
-    <t>GO:0017002 [Name: activin-activated receptor activity]; GO:0005539 [Name: glycosaminoglycan binding]; GO:0034713 [Name: type I transforming growth factor beta receptor binding]; GO:0005524 [Name: ATP binding]; GO:0046332 [Name: SMAD binding]; GO:0005026 [Name: transforming growth factor beta receptor activity, type II]; GO:0004675 [Name: transmembrane receptor protein serine/threonine kinase activity]; GO:0031435 [Name: mitogen-activated protein kinase kinase kinase binding]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0048185 [Name: activin binding]; GO:0050431 [Name: transforming growth factor beta binding]; GO:0005024 [Name: transforming growth factor beta-activated receptor activity]; GO:0046872 [Name: metal ion binding]; GO:0034714 [Name: type III transforming growth factor beta receptor binding]</t>
-  </si>
-  <si>
-    <t>P38435</t>
+    <t>UniProtKB:P38435</t>
   </si>
   <si>
     <t>2677 [Gene Symbol: GGCX] [Locus Tag: ] [Chromosome: 2] [Map Location: 2p11.2] [Description: gamma-glutamyl carboxylase] [Gene Type: protein-coding]</t>
@@ -589,43 +332,7 @@
     <t>GO:0008488 [Name: gamma-glutamyl carboxylase activity]; GO:0019842 [Name: vitamin binding]</t>
   </si>
   <si>
-    <t>P48050</t>
-  </si>
-  <si>
-    <t>3761 [Gene Symbol: KCNJ4] [Locus Tag: ] [Chromosome: 22] [Map Location: 22q13.1] [Description: potassium inwardly rectifying channel subfamily J member 4] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0061337 [Name: cardiac conduction]; GO:0006813 [Name: potassium ion transport]; GO:1990573 [Name: potassium ion import across plasma membrane]; GO:0034765 [Name: regulation of ion transmembrane transport]</t>
-  </si>
-  <si>
-    <t>GO:0005242 [Name: inward rectifier potassium channel activity]; GO:0030165 [Name: PDZ domain binding]</t>
-  </si>
-  <si>
-    <t>P48065</t>
-  </si>
-  <si>
-    <t>6539 [Gene Symbol: SLC6A12] [Locus Tag: ] [Chromosome: 12] [Map Location: 12p13.33] [Description: solute carrier family 6 member 12] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006865 [Name: amino acid transport]</t>
-  </si>
-  <si>
-    <t>GO:0015171 [Name: amino acid transmembrane transporter activity]; GO:0042165 [Name: neurotransmitter binding]; GO:0005332 [Name: gamma-aminobutyric acid:sodium symporter activity]</t>
-  </si>
-  <si>
-    <t>P49327</t>
-  </si>
-  <si>
-    <t>2194 [Gene Symbol: FASN] [Locus Tag: ] [Chromosome: 17] [Map Location: 17q25.3] [Description: fatty acid synthase] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0071353 [Name: cellular response to interleukin-4]; GO:0006631 [Name: fatty acid metabolic process]; GO:0030223 [Name: neutrophil differentiation]; GO:0001649 [Name: osteoblast differentiation]; GO:0090557 [Name: establishment of endothelial intestinal barrier]; GO:0008611 [Name: ether lipid biosynthetic process]; GO:0030224 [Name: monocyte differentiation]; GO:0031325 [Name: positive regulation of cellular metabolic process]; GO:0046949 [Name: fatty-acyl-CoA biosynthetic process]; GO:0045540 [Name: regulation of cholesterol biosynthetic process]; GO:0006084 [Name: acetyl-CoA metabolic process]; GO:0006633 [Name: fatty acid biosynthetic process]; GO:0030879 [Name: mammary gland development]</t>
-  </si>
-  <si>
-    <t>GO:0004313 [Name: [acyl-carrier-protein] S-acetyltransferase activity]; GO:0042802 [Name: identical protein binding]; GO:0016295 [Name: myristoyl-[acyl-carrier-protein] hydrolase activity]; GO:0016296 [Name: palmitoyl-[acyl-carrier-protein] hydrolase activity]; GO:0031177 [Name: phosphopantetheine binding]; GO:0008693 [Name: 3-hydroxydecanoyl-[acyl-carrier-protein] dehydratase activity]; GO:0004316 [Name: 3-oxoacyl-[acyl-carrier-protein] reductase (NADPH) activity]; GO:0004317 [Name: 3-hydroxypalmitoyl-[acyl-carrier-protein] dehydratase activity]; GO:0047451 [Name: 3-hydroxyoctanoyl-[acyl-carrier-protein] dehydratase activity]; GO:0102132 [Name: 3-oxo-pimeloyl-[acp] methyl ester reductase activity]; GO:0004320 [Name: oleoyl-[acyl-carrier-protein] hydrolase activity]; GO:0003723 [Name: RNA binding]; GO:0004315 [Name: 3-oxoacyl-[acyl-carrier-protein] synthase activity]; GO:0004314 [Name: [acyl-carrier-protein] S-malonyltransferase activity]; GO:0008144 [Name: drug binding]; GO:0047117 [Name: enoyl-[acyl-carrier-protein] reductase (NADPH, A-specific) activity]; GO:0008659 [Name: (3R)-hydroxymyristoyl-[acyl-carrier-protein] dehydratase activity]; GO:0045296 [Name: cadherin binding]; GO:0070402 [Name: NADPH binding]</t>
-  </si>
-  <si>
-    <t>P53396</t>
+    <t>UniProtKB:P53396</t>
   </si>
   <si>
     <t>47 [Gene Symbol: ACLY] [Locus Tag: ] [Chromosome: 17] [Map Location: 17q21.2] [Description: ATP citrate lyase] [Gene Type: protein-coding]</t>
@@ -637,199 +344,67 @@
     <t>GO:0005524 [Name: ATP binding]; GO:0003878 [Name: ATP citrate synthase activity]; GO:0048037 [Name: cofactor binding]; GO:0046872 [Name: metal ion binding]</t>
   </si>
   <si>
-    <t>P53582</t>
-  </si>
-  <si>
-    <t>23173 [Gene Symbol: METAP1] [Locus Tag: ] [Chromosome: 4] [Map Location: 4q23] [Description: methionyl aminopeptidase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0031365 [Name: N-terminal protein amino acid modification]; GO:0070084 [Name: protein initiator methionine removal]; GO:0022400 [Name: regulation of rhodopsin mediated signaling pathway]; GO:0070527 [Name: platelet aggregation]; GO:0006417 [Name: regulation of translation]; GO:0018206 [Name: peptidyl-methionine modification]</t>
-  </si>
-  <si>
-    <t>GO:0008235 [Name: metalloexopeptidase activity]; GO:0070006 [Name: metalloaminopeptidase activity]; GO:0004177 [Name: aminopeptidase activity]; GO:0046872 [Name: metal ion binding]</t>
-  </si>
-  <si>
-    <t>P53778</t>
-  </si>
-  <si>
-    <t>6300 [Gene Symbol: MAPK12] [Locus Tag: ] [Chromosome: 22] [Map Location: 22q13.33] [Description: mitogen-activated protein kinase 12] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0007050 [Name: cell cycle arrest]; GO:0010952 [Name: positive regulation of peptidase activity]; GO:0051149 [Name: positive regulation of muscle cell differentiation]; GO:0010468 [Name: regulation of gene expression]; GO:0007517 [Name: muscle organ development]; GO:0007165 [Name: signal transduction]; GO:0006975 [Name: DNA damage induced protein phosphorylation]; GO:0035556 [Name: intracellular signal transduction]; GO:0045445 [Name: myoblast differentiation]; GO:0018105 [Name: peptidyl-serine phosphorylation]</t>
-  </si>
-  <si>
-    <t>GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0005524 [Name: ATP binding]; GO:0000287 [Name: magnesium ion binding]; GO:0004707 [Name: MAP kinase activity]</t>
-  </si>
-  <si>
-    <t>P55789</t>
-  </si>
-  <si>
-    <t>2671 [Gene Symbol: GFER] [Locus Tag: ] [Chromosome: 16] [Map Location: 16p13.3] [Description: growth factor, augmenter of liver regeneration] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0001889 [Name: liver development]</t>
-  </si>
-  <si>
-    <t>GO:0050660 [Name: flavin adenine dinucleotide binding]; GO:0008083 [Name: growth factor activity]; GO:0016971 [Name: flavin-linked sulfhydryl oxidase activity]; GO:0015035 [Name: protein disulfide oxidoreductase activity]</t>
-  </si>
-  <si>
-    <t>P62937</t>
+    <t>UniProtKB:P62937</t>
   </si>
   <si>
     <t>5478 [Gene Symbol: PPIA] [Locus Tag: ] [Chromosome: 7] [Map Location: 7p13] [Description: peptidylprolyl isomerase A] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0043312 [Name: neutrophil degranulation]; GO:0045070 [Name: positive regulation of viral genome replication]; GO:0045069 [Name: regulation of viral genome replication]; GO:0006278 [Name: RNA-dependent DNA biosynthetic process]; GO:0019058 [Name: viral life cycle]; GO:0006457 [Name: protein folding]; GO:0000413 [Name: protein peptidyl-prolyl isomerization]; GO:0019076 [Name: viral release from host cell]; GO:0075713 [Name: establishment of integrated proviral latency]; GO:0019061 [Name: uncoating of virus]; GO:0050900 [Name: leukocyte migration]; GO:0042026 [Name: protein refolding]; GO:0019068 [Name: virion assembly]; GO:0035722 [Name: interleukin-12-mediated signaling pathway]; GO:0030260 [Name: entry into host cell]; GO:0019064 [Name: fusion of virus membrane with host plasma membrane]; GO:0034389 [Name: lipid particle organization]; GO:0050714 [Name: positive regulation of protein secretion]</t>
+    <t>GO:0043312 [Name: neutrophil degranulation]; GO:0045070 [Name: positive regulation of viral genome replication]; GO:0045069 [Name: regulation of viral genome replication]; GO:0006278 [Name: RNA-dependent DNA biosynthetic process]; GO:0019058 [Name: viral life cycle]; GO:0006457 [Name: protein folding]; GO:0019076 [Name: viral release from host cell]; GO:0000413 [Name: protein peptidyl-prolyl isomerization]; GO:0075713 [Name: establishment of integrated proviral latency]; GO:0019061 [Name: uncoating of virus]; GO:0050900 [Name: leukocyte migration]; GO:0042026 [Name: protein refolding]; GO:0019068 [Name: virion assembly]; GO:0035722 [Name: interleukin-12-mediated signaling pathway]; GO:0030260 [Name: entry into host cell]; GO:0019064 [Name: fusion of virus membrane with host plasma membrane]; GO:0050714 [Name: positive regulation of protein secretion]; GO:0034389 [Name: lipid particle organization]</t>
   </si>
   <si>
     <t>GO:0003723 [Name: RNA binding]; GO:0051082 [Name: unfolded protein binding]; GO:0046790 [Name: virion binding]; GO:0003755 [Name: peptidyl-prolyl cis-trans isomerase activity]; GO:0016018 [Name: cyclosporin A binding]</t>
   </si>
   <si>
-    <t>P62942</t>
+    <t>UniProtKB:P62942</t>
   </si>
   <si>
     <t>2280 [Gene Symbol: FKBP1A] [Locus Tag: ] [Chromosome: 20] [Map Location: 20p13] [Description: FKBP prolyl isomerase 1A] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0000413 [Name: protein peptidyl-prolyl isomerization]; GO:0042110 [Name: T cell activation]; GO:0070588 [Name: calcium ion transmembrane transport]; GO:0043123 [Name: positive regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0006458 [Name: 'de novo' protein folding]; GO:0060347 [Name: heart trabecula formation]; GO:0022417 [Name: protein maturation by protein folding]; GO:0003007 [Name: heart morphogenesis]; GO:0007183 [Name: SMAD protein complex assembly]; GO:0032515 [Name: negative regulation of phosphoprotein phosphatase activity]; GO:0032925 [Name: regulation of activin receptor signaling pathway]; GO:0032880 [Name: regulation of protein localization]; GO:0060314 [Name: regulation of ryanodine-sensitive calcium-release channel activity]; GO:0061077 [Name: chaperone-mediated protein folding]; GO:0031398 [Name: positive regulation of protein ubiquitination]; GO:0006457 [Name: protein folding]; GO:0050776 [Name: regulation of immune response]; GO:0055010 [Name: ventricular cardiac muscle tissue morphogenesis]; GO:1902991 [Name: regulation of amyloid precursor protein catabolic process]; GO:0032092 [Name: positive regulation of protein binding]; GO:0042026 [Name: protein refolding]; GO:0097435 [Name: supramolecular fiber organization]; GO:1990000 [Name: amyloid fibril formation]</t>
+    <t>GO:0042110 [Name: T cell activation]; GO:0000413 [Name: protein peptidyl-prolyl isomerization]; GO:0043123 [Name: positive regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0070588 [Name: calcium ion transmembrane transport]; GO:0006458 [Name: 'de novo' protein folding]; GO:0060347 [Name: heart trabecula formation]; GO:0022417 [Name: protein maturation by protein folding]; GO:0003007 [Name: heart morphogenesis]; GO:0007183 [Name: SMAD protein complex assembly]; GO:0032515 [Name: negative regulation of phosphoprotein phosphatase activity]; GO:0032880 [Name: regulation of protein localization]; GO:0060314 [Name: regulation of ryanodine-sensitive calcium-release channel activity]; GO:0032925 [Name: regulation of activin receptor signaling pathway]; GO:0061077 [Name: chaperone-mediated protein folding]; GO:0031398 [Name: positive regulation of protein ubiquitination]; GO:0006457 [Name: protein folding]; GO:0050776 [Name: regulation of immune response]; GO:0055010 [Name: ventricular cardiac muscle tissue morphogenesis]; GO:1902991 [Name: regulation of amyloid precursor protein catabolic process]; GO:0032092 [Name: positive regulation of protein binding]; GO:0042026 [Name: protein refolding]; GO:0097435 [Name: supramolecular fiber organization]; GO:1990000 [Name: amyloid fibril formation]</t>
   </si>
   <si>
     <t>GO:0046332 [Name: SMAD binding]; GO:0003755 [Name: peptidyl-prolyl cis-trans isomerase activity]; GO:0048185 [Name: activin binding]; GO:0044325 [Name: ion channel binding]; GO:0034713 [Name: type I transforming growth factor beta receptor binding]; GO:0005160 [Name: transforming growth factor beta receptor binding]; GO:0005528 [Name: FK506 binding]; GO:0005527 [Name: macrolide binding]</t>
   </si>
   <si>
-    <t>P68400</t>
-  </si>
-  <si>
-    <t>1457 [Gene Symbol: CSNK2A1] [Locus Tag: ] [Chromosome: 20] [Map Location: 20p13] [Description: casein kinase 2 alpha 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006457 [Name: protein folding]; GO:0016055 [Name: Wnt signaling pathway]; GO:1901796 [Name: regulation of signal transduction by p53 class mediator]; GO:0006656 [Name: phosphatidylcholine biosynthetic process]; GO:0030307 [Name: positive regulation of cell growth]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0006468 [Name: protein phosphorylation]; GO:0048511 [Name: rhythmic process]; GO:2000059 [Name: negative regulation of protein ubiquitination involved in ubiquitin-dependent protein catabolic process]; GO:0016236 [Name: macroautophagy]; GO:0045732 [Name: positive regulation of protein catabolic process]; GO:0043154 [Name: negative regulation of cysteine-type endopeptidase activity involved in apoptotic process]; GO:0007165 [Name: signal transduction]; GO:0007049 [Name: cell cycle]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0030177 [Name: positive regulation of Wnt signaling pathway]; GO:0051726 [Name: regulation of cell cycle]; GO:0006915 [Name: apoptotic process]; GO:2001234 [Name: negative regulation of apoptotic signaling pathway]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0061077 [Name: chaperone-mediated protein folding]; GO:1905818 [Name: regulation of chromosome separation]</t>
-  </si>
-  <si>
-    <t>GO:0042802 [Name: identical protein binding]; GO:0047485 [Name: protein N-terminus binding]; GO:0005524 [Name: ATP binding]; GO:0016301 [Name: kinase activity]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0051879 [Name: Hsp90 protein binding]</t>
-  </si>
-  <si>
-    <t>Q00688</t>
-  </si>
-  <si>
-    <t>2287 [Gene Symbol: FKBP3] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q21.2] [Description: FKBP prolyl isomerase 3] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0000413 [Name: protein peptidyl-prolyl isomerization]</t>
-  </si>
-  <si>
-    <t>GO:0038023 [Name: signaling receptor activity]; GO:0003755 [Name: peptidyl-prolyl cis-trans isomerase activity]; GO:0005528 [Name: FK506 binding]; GO:0003723 [Name: RNA binding]</t>
-  </si>
-  <si>
-    <t>Q07817</t>
-  </si>
-  <si>
-    <t>598 [Gene Symbol: BCL2L1] [Locus Tag: ] [Chromosome: 20] [Map Location: 20q11.21] [Description: BCL2 like 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0010507 [Name: negative regulation of autophagy]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:0051402 [Name: neuron apoptotic process]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:2000811 [Name: negative regulation of anoikis]; GO:1900118 [Name: negative regulation of execution phase of apoptosis]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0046902 [Name: regulation of mitochondrial membrane permeability]; GO:0034097 [Name: response to cytokine]; GO:0071312 [Name: cellular response to alkaloid]; GO:0097284 [Name: hepatocyte apoptotic process]; GO:0090201 [Name: negative regulation of release of cytochrome c from mitochondria]; GO:2001244 [Name: positive regulation of intrinsic apoptotic signaling pathway]; GO:0051881 [Name: regulation of mitochondrial membrane potential]; GO:0040008 [Name: regulation of growth]; GO:0043524 [Name: negative regulation of neuron apoptotic process]; GO:0001541 [Name: ovarian follicle development]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0046898 [Name: response to cycloheximide]; GO:0007283 [Name: spermatogenesis]; GO:1902230 [Name: negative regulation of intrinsic apoptotic signaling pathway in response to DNA damage]; GO:0019050 [Name: suppression by virus of host apoptotic process]; GO:0009566 [Name: fertilization]; GO:0006897 [Name: endocytosis]; GO:0007281 [Name: germ cell development]; GO:0070584 [Name: mitochondrion morphogenesis]; GO:0008637 [Name: apoptotic mitochondrial changes]; GO:0071839 [Name: apoptotic process in bone marrow]; GO:0008283 [Name: cell proliferation]; GO:0071480 [Name: cellular response to gamma radiation]; GO:0007093 [Name: mitotic cell cycle checkpoint]; GO:2001243 [Name: negative regulation of intrinsic apoptotic signaling pathway]; GO:0001836 [Name: release of cytochrome c from mitochondria]; GO:1902236 [Name: negative regulation of endoplasmic reticulum stress-induced intrinsic apoptotic signaling pathway]; GO:0071230 [Name: cellular response to amino acid stimulus]; GO:0097192 [Name: extrinsic apoptotic signaling pathway in absence of ligand]; GO:0001701 [Name: in utero embryonic development]; GO:0008584 [Name: male gonad development]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:1902042 [Name: negative regulation of extrinsic apoptotic signaling pathway via death domain receptors]; GO:1903077 [Name: negative regulation of protein localization to plasma membrane]; GO:0032465 [Name: regulation of cytokinesis]; GO:0009615 [Name: response to virus]</t>
-  </si>
-  <si>
-    <t>GO:0019901 [Name: protein kinase binding]; GO:0046982 [Name: protein heterodimerization activity]; GO:0042802 [Name: identical protein binding]; GO:0051434 [Name: BH3 domain binding]; GO:0042803 [Name: protein homodimerization activity]</t>
-  </si>
-  <si>
-    <t>Q07820</t>
-  </si>
-  <si>
-    <t>4170 [Gene Symbol: MCL1] [Locus Tag: ] [Chromosome: 1] [Map Location: 1q21.2] [Description: MCL1 apoptosis regulator, BCL2 family member] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:2001243 [Name: negative regulation of intrinsic apoptotic signaling pathway]; GO:0001709 [Name: cell fate determination]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:2001020 [Name: regulation of response to DNA damage stimulus]; GO:0019725 [Name: cellular homeostasis]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:1903378 [Name: positive regulation of oxidative stress-induced neuron intrinsic apoptotic signaling pathway]; GO:0007275 [Name: multicellular organism development]; GO:2000811 [Name: negative regulation of anoikis]; GO:0034097 [Name: response to cytokine]; GO:0019221 [Name: cytokine-mediated signaling pathway]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0097192 [Name: extrinsic apoptotic signaling pathway in absence of ligand]; GO:0010507 [Name: negative regulation of autophagy]</t>
-  </si>
-  <si>
-    <t>GO:0046982 [Name: protein heterodimerization activity]; GO:0051434 [Name: BH3 domain binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0008320 [Name: protein transmembrane transporter activity]</t>
-  </si>
-  <si>
-    <t>Q13224</t>
+    <t>UniProtKB:Q13224</t>
   </si>
   <si>
     <t>2904 [Gene Symbol: GRIN2B] [Locus Tag: ] [Chromosome: 12] [Map Location: 12p13.1] [Description: glutamate ionotropic receptor NMDA type subunit 2B] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0048013 [Name: ephrin receptor signaling pathway]; GO:0007215 [Name: glutamate receptor signaling pathway]; GO:0007275 [Name: multicellular organism development]; GO:2001056 [Name: positive regulation of cysteine-type endopeptidase activity]; GO:1902951 [Name: negative regulation of dendritic spine maintenance]; GO:0098976 [Name: excitatory chemical synaptic transmission]; GO:0000165 [Name: MAPK cascade]; GO:0035249 [Name: synaptic transmission, glutamatergic]; GO:0007420 [Name: brain development]; GO:0060291 [Name: long-term synaptic potentiation]; GO:0045471 [Name: response to ethanol]; GO:1901216 [Name: positive regulation of neuron death]; GO:0007268 [Name: chemical synaptic transmission]; GO:0007611 [Name: learning or memory]; GO:0051290 [Name: protein heterotetramerization]; GO:0060079 [Name: excitatory postsynaptic potential]; GO:0048167 [Name: regulation of synaptic plasticity]; GO:0097553 [Name: calcium ion transmembrane import into cytosol]; GO:0050804 [Name: modulation of synaptic transmission]; GO:2000310 [Name: regulation of NMDA receptor activity]</t>
+    <t>GO:0048013 [Name: ephrin receptor signaling pathway]; GO:0007215 [Name: glutamate receptor signaling pathway]; GO:0007275 [Name: multicellular organism development]; GO:2001056 [Name: positive regulation of cysteine-type endopeptidase activity]; GO:1902951 [Name: negative regulation of dendritic spine maintenance]; GO:0098976 [Name: excitatory chemical synaptic transmission]; GO:0000165 [Name: MAPK cascade]; GO:0035249 [Name: synaptic transmission, glutamatergic]; GO:0007420 [Name: brain development]; GO:0060291 [Name: long-term synaptic potentiation]; GO:0045471 [Name: response to ethanol]; GO:1901216 [Name: positive regulation of neuron death]; GO:0007268 [Name: chemical synaptic transmission]; GO:0007611 [Name: learning or memory]; GO:0051290 [Name: protein heterotetramerization]; GO:0060079 [Name: excitatory postsynaptic potential]; GO:0048167 [Name: regulation of synaptic plasticity]; GO:0050804 [Name: modulation of synaptic transmission]; GO:0097553 [Name: calcium ion transmembrane import into cytosol]; GO:2000310 [Name: regulation of NMDA receptor activity]</t>
   </si>
   <si>
     <t>GO:0004972 [Name: NMDA glutamate receptor activity]; GO:0016595 [Name: glutamate binding]; GO:0038023 [Name: signaling receptor activity]; GO:0008270 [Name: zinc ion binding]; GO:0016594 [Name: glycine binding]; GO:0001540 [Name: beta-amyloid binding]; GO:0008066 [Name: glutamate receptor activity]; GO:0015276 [Name: ligand-gated ion channel activity]; GO:0022849 [Name: glutamate-gated calcium ion channel activity]; GO:1904315 [Name: transmitter-gated ion channel activity involved in regulation of postsynaptic membrane potential]</t>
   </si>
   <si>
-    <t>Q13443</t>
-  </si>
-  <si>
-    <t>8754 [Gene Symbol: ADAM9] [Locus Tag: ] [Chromosome: 8] [Map Location: 8p11.22] [Description: ADAM metallopeptidase domain 9] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0051088 [Name: PMA-inducible membrane protein ectodomain proteolysis]; GO:0051044 [Name: positive regulation of membrane protein ectodomain proteolysis]; GO:0051384 [Name: response to glucocorticoid]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0010042 [Name: response to manganese ion]; GO:0007179 [Name: transforming growth factor beta receptor signaling pathway]; GO:0050714 [Name: positive regulation of protein secretion]; GO:0033627 [Name: cell adhesion mediated by integrin]; GO:0007160 [Name: cell-matrix adhesion]; GO:0006509 [Name: membrane protein ectodomain proteolysis]; GO:0051549 [Name: positive regulation of keratinocyte migration]; GO:0030216 [Name: keratinocyte differentiation]; GO:0097327 [Name: response to antineoplastic agent]; GO:0042117 [Name: monocyte activation]; GO:0034241 [Name: positive regulation of macrophage fusion]; GO:0034612 [Name: response to tumor necrosis factor]; GO:0000186 [Name: activation of MAPKK activity]; GO:0033630 [Name: positive regulation of cell adhesion mediated by integrin]; GO:0051592 [Name: response to calcium ion]; GO:0034616 [Name: response to laminar fluid shear stress]; GO:0007155 [Name: cell adhesion]; GO:0007229 [Name: integrin-mediated signaling pathway]; GO:0016477 [Name: cell migration]; GO:0033631 [Name: cell-cell adhesion mediated by integrin]; GO:0071222 [Name: cellular response to lipopolysaccharide]</t>
-  </si>
-  <si>
-    <t>GO:0043236 [Name: laminin binding]; GO:0046872 [Name: metal ion binding]; GO:0004222 [Name: metalloendopeptidase activity]; GO:0005518 [Name: collagen binding]; GO:0008237 [Name: metallopeptidase activity]; GO:0005178 [Name: integrin binding]; GO:0005080 [Name: protein kinase C binding]; GO:0017124 [Name: SH3 domain binding]</t>
-  </si>
-  <si>
-    <t>Q13523</t>
-  </si>
-  <si>
-    <t>8899 [Gene Symbol: PRPF4B] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p25.2] [Description: pre-mRNA processing factor 4B] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0000398 [Name: mRNA splicing, via spliceosome]; GO:0006468 [Name: protein phosphorylation]; GO:0008380 [Name: RNA splicing]</t>
-  </si>
-  <si>
-    <t>GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0004672 [Name: protein kinase activity]; GO:0005524 [Name: ATP binding]; GO:0003723 [Name: RNA binding]</t>
-  </si>
-  <si>
-    <t>Q13546</t>
-  </si>
-  <si>
-    <t>8737 [Gene Symbol: RIPK1] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p25.2] [Description: receptor interacting serine/threonine kinase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0071550 [Name: death-inducing signaling complex assembly]; GO:0046330 [Name: positive regulation of JNK cascade]; GO:1990000 [Name: amyloid fibril formation]; GO:0007257 [Name: activation of JUN kinase activity]; GO:0071363 [Name: cellular response to growth factor stimulus]; GO:0007249 [Name: I-kappaB kinase/NF-kappaB signaling]; GO:2001240 [Name: negative regulation of extrinsic apoptotic signaling pathway in absence of ligand]; GO:0060545 [Name: positive regulation of necroptotic process]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0097300 [Name: programmed necrotic cell death]; GO:0034612 [Name: response to tumor necrosis factor]; GO:0016032 [Name: viral process]; GO:0070926 [Name: regulation of ATP:ADP antiporter activity]; GO:0006919 [Name: activation of cysteine-type endopeptidase activity involved in apoptotic process]; GO:0097527 [Name: necroptotic signaling pathway]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:2001237 [Name: negative regulation of extrinsic apoptotic signaling pathway]; GO:1902042 [Name: negative regulation of extrinsic apoptotic signaling pathway via death domain receptors]; GO:0043123 [Name: positive regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0051092 [Name: positive regulation of NF-kappaB transcription factor activity]; GO:0060044 [Name: negative regulation of cardiac muscle cell proliferation]; GO:2000134 [Name: negative regulation of G1/S transition of mitotic cell cycle]; GO:0036289 [Name: peptidyl-serine autophosphorylation]; GO:0045651 [Name: positive regulation of macrophage differentiation]; GO:0010940 [Name: positive regulation of necrotic cell death]; GO:1903800 [Name: positive regulation of production of miRNAs involved in gene silencing by miRNA]; GO:0016579 [Name: protein deubiquitination]; GO:0010803 [Name: regulation of tumor necrosis factor-mediated signaling pathway]; GO:0034138 [Name: toll-like receptor 3 signaling pathway]; GO:0033209 [Name: tumor necrosis factor-mediated signaling pathway]; GO:0002756 [Name: MyD88-independent toll-like receptor signaling pathway]; GO:0097190 [Name: apoptotic signaling pathway]; GO:0071356 [Name: cellular response to tumor necrosis factor]; GO:0097191 [Name: extrinsic apoptotic signaling pathway]; GO:1905206 [Name: positive regulation of hydrogen peroxide-induced cell death]; GO:0006915 [Name: apoptotic process]; GO:0070266 [Name: necroptotic process]; GO:0043124 [Name: negative regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0043065 [Name: positive regulation of apoptotic process]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0046777 [Name: protein autophosphorylation]; GO:0044257 [Name: cellular protein catabolic process]; GO:0070301 [Name: cellular response to hydrogen peroxide]; GO:2001238 [Name: positive regulation of extrinsic apoptotic signaling pathway]; GO:0032757 [Name: positive regulation of interleukin-8 production]; GO:0043068 [Name: positive regulation of programmed cell death]; GO:1903265 [Name: positive regulation of tumor necrosis factor-mediated signaling pathway]; GO:1902041 [Name: regulation of extrinsic apoptotic signaling pathway via death domain receptors]; GO:0097343 [Name: ripoptosome assembly]; GO:0035666 [Name: TRIF-dependent toll-like receptor signaling pathway]; GO:1901026 [Name: ripoptosome assembly involved in necroptotic process]; GO:0008219 [Name: cell death]; GO:2000379 [Name: positive regulation of reactive oxygen species metabolic process]; GO:0032760 [Name: positive regulation of tumor necrosis factor production]; GO:0070231 [Name: T cell apoptotic process]</t>
-  </si>
-  <si>
-    <t>GO:0005524 [Name: ATP binding]; GO:0004672 [Name: protein kinase activity]; GO:0044877 [Name: macromolecular complex binding]; GO:0005123 [Name: death receptor binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0070513 [Name: death domain binding]; GO:0042802 [Name: identical protein binding]; GO:0004706 [Name: JUN kinase kinase kinase activity]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0031625 [Name: ubiquitin protein ligase binding]</t>
-  </si>
-  <si>
-    <t>Q14181</t>
-  </si>
-  <si>
-    <t>23649 [Gene Symbol: POLA2] [Locus Tag: ] [Chromosome: 11] [Map Location: 11q13.1] [Description: DNA polymerase alpha 2, accessory subunit] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006260 [Name: DNA replication]; GO:0000082 [Name: G1/S transition of mitotic cell cycle]; GO:0006270 [Name: DNA replication initiation]; GO:0032201 [Name: telomere maintenance via semi-conservative replication]</t>
-  </si>
-  <si>
-    <t>GO:0003677 [Name: DNA binding]; GO:0003887 [Name: DNA-directed DNA polymerase activity]; GO:0046982 [Name: protein heterodimerization activity]</t>
-  </si>
-  <si>
-    <t>Q14524</t>
+    <t>UniProtKB:Q14524</t>
   </si>
   <si>
     <t>6331 [Gene Symbol: SCN5A] [Locus Tag: ] [Chromosome: 3] [Map Location: 3p22.2] [Description: sodium voltage-gated channel alpha subunit 5] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0086014 [Name: atrial cardiac muscle cell action potential]; GO:0086010 [Name: membrane depolarization during action potential]; GO:0050679 [Name: positive regulation of epithelial cell proliferation]; GO:0014894 [Name: response to denervation involved in regulation of muscle adaptation]; GO:0086091 [Name: regulation of heart rate by cardiac conduction]; GO:0060048 [Name: cardiac muscle contraction]; GO:0060373 [Name: regulation of ventricular cardiac muscle cell membrane depolarization]; GO:0060307 [Name: regulation of ventricular cardiac muscle cell membrane repolarization]; GO:0086015 [Name: SA node cell action potential]; GO:0086005 [Name: ventricular cardiac muscle cell action potential]; GO:0098912 [Name: membrane depolarization during atrial cardiac muscle cell action potential]; GO:0071277 [Name: cellular response to calcium ion]; GO:0086012 [Name: membrane depolarization during cardiac muscle cell action potential]; GO:0060371 [Name: regulation of atrial cardiac muscle cell membrane depolarization]; GO:0003231 [Name: cardiac ventricle development]; GO:0086016 [Name: AV node cell action potential]; GO:0021537 [Name: telencephalon development]; GO:0086043 [Name: bundle of His cell action potential]; GO:0086002 [Name: cardiac muscle cell action potential involved in contraction]; GO:0051899 [Name: membrane depolarization]; GO:0042475 [Name: odontogenesis of dentin-containing tooth]; GO:0045760 [Name: positive regulation of action potential]; GO:0060372 [Name: regulation of atrial cardiac muscle cell membrane repolarization]; GO:0061337 [Name: cardiac conduction]; GO:0086067 [Name: AV node cell to bundle of His cell communication]; GO:0086004 [Name: regulation of cardiac muscle cell contraction]; GO:0003360 [Name: brainstem development]; GO:0086048 [Name: membrane depolarization during bundle of His cell action potential]; GO:0086046 [Name: membrane depolarization during SA node cell action potential]; GO:0086045 [Name: membrane depolarization during AV node cell action potential]; GO:0086047 [Name: membrane depolarization during Purkinje myocyte cell action potential]; GO:0019228 [Name: neuronal action potential]; GO:0010765 [Name: positive regulation of sodium ion transport]; GO:0002027 [Name: regulation of heart rate]; GO:0035725 [Name: sodium ion transmembrane transport]; GO:0006814 [Name: sodium ion transport]; GO:1902305 [Name: regulation of sodium ion transmembrane transport]; GO:0021549 [Name: cerebellum development]</t>
+    <t>GO:0086014 [Name: atrial cardiac muscle cell action potential]; GO:0086010 [Name: membrane depolarization during action potential]; GO:0014894 [Name: response to denervation involved in regulation of muscle adaptation]; GO:0086091 [Name: regulation of heart rate by cardiac conduction]; GO:0050679 [Name: positive regulation of epithelial cell proliferation]; GO:0060048 [Name: cardiac muscle contraction]; GO:0060373 [Name: regulation of ventricular cardiac muscle cell membrane depolarization]; GO:0060307 [Name: regulation of ventricular cardiac muscle cell membrane repolarization]; GO:0086015 [Name: SA node cell action potential]; GO:0086005 [Name: ventricular cardiac muscle cell action potential]; GO:0098912 [Name: membrane depolarization during atrial cardiac muscle cell action potential]; GO:0071277 [Name: cellular response to calcium ion]; GO:0086012 [Name: membrane depolarization during cardiac muscle cell action potential]; GO:0060371 [Name: regulation of atrial cardiac muscle cell membrane depolarization]; GO:0003231 [Name: cardiac ventricle development]; GO:0086016 [Name: AV node cell action potential]; GO:0021537 [Name: telencephalon development]; GO:0086043 [Name: bundle of His cell action potential]; GO:0086002 [Name: cardiac muscle cell action potential involved in contraction]; GO:0051899 [Name: membrane depolarization]; GO:0042475 [Name: odontogenesis of dentin-containing tooth]; GO:0045760 [Name: positive regulation of action potential]; GO:0060372 [Name: regulation of atrial cardiac muscle cell membrane repolarization]; GO:0061337 [Name: cardiac conduction]; GO:0086067 [Name: AV node cell to bundle of His cell communication]; GO:0086004 [Name: regulation of cardiac muscle cell contraction]; GO:0003360 [Name: brainstem development]; GO:0086048 [Name: membrane depolarization during bundle of His cell action potential]; GO:0086046 [Name: membrane depolarization during SA node cell action potential]; GO:0086045 [Name: membrane depolarization during AV node cell action potential]; GO:0086047 [Name: membrane depolarization during Purkinje myocyte cell action potential]; GO:0019228 [Name: neuronal action potential]; GO:0010765 [Name: positive regulation of sodium ion transport]; GO:0002027 [Name: regulation of heart rate]; GO:0035725 [Name: sodium ion transmembrane transport]; GO:0006814 [Name: sodium ion transport]; GO:1902305 [Name: regulation of sodium ion transmembrane transport]; GO:0021549 [Name: cerebellum development]</t>
   </si>
   <si>
     <t>GO:0019899 [Name: enzyme binding]; GO:0019901 [Name: protein kinase binding]; GO:0005261 [Name: cation channel activity]; GO:0086006 [Name: voltage-gated sodium channel activity involved in cardiac muscle cell action potential]; GO:0086062 [Name: voltage-gated sodium channel activity involved in Purkinje myocyte action potential]; GO:0086063 [Name: voltage-gated sodium channel activity involved in SA node cell action potential]; GO:0031625 [Name: ubiquitin protein ligase binding]; GO:0005248 [Name: voltage-gated sodium channel activity]; GO:0005516 [Name: calmodulin binding]; GO:0019904 [Name: protein domain specific binding]; GO:0030506 [Name: ankyrin binding]; GO:0017134 [Name: fibroblast growth factor binding]; GO:0005244 [Name: voltage-gated ion channel activity]; GO:0086060 [Name: voltage-gated sodium channel activity involved in AV node cell action potential]; GO:0097110 [Name: scaffold protein binding]; GO:0086061 [Name: voltage-gated sodium channel activity involved in bundle of His cell action potential]; GO:0044325 [Name: ion channel binding]; GO:0050998 [Name: nitric-oxide synthase binding]</t>
   </si>
   <si>
-    <t>Q15303</t>
+    <t>UniProtKB:Q15303</t>
   </si>
   <si>
     <t>2066 [Gene Symbol: ERBB4] [Locus Tag: ] [Chromosome: 2] [Map Location: 2q34] [Description: erb-b2 receptor tyrosine kinase 4] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0007507 [Name: heart development]; GO:0000165 [Name: MAPK cascade]; GO:0043653 [Name: mitochondrial fragmentation involved in apoptotic process]; GO:0007399 [Name: nervous system development]; GO:0001755 [Name: neural crest cell migration]; GO:0060045 [Name: positive regulation of cardiac muscle cell proliferation]; GO:0060644 [Name: mammary gland epithelial cell differentiation]; GO:0071364 [Name: cellular response to epidermal growth factor stimulus]; GO:0038128 [Name: ERBB2 signaling pathway]; GO:0070374 [Name: positive regulation of ERK1 and ERK2 cascade]; GO:2000010 [Name: positive regulation of protein localization to cell surface]; GO:0007165 [Name: signal transduction]; GO:0007416 [Name: synapse assembly]; GO:0060749 [Name: mammary gland alveolus development]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0008285 [Name: negative regulation of cell proliferation]; GO:0043552 [Name: positive regulation of phosphatidylinositol 3-kinase activity]; GO:0046427 [Name: positive regulation of JAK-STAT cascade]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]; GO:0018108 [Name: peptidyl-tyrosine phosphorylation]; GO:0030334 [Name: regulation of cell migration]; GO:0033674 [Name: positive regulation of kinase activity]; GO:0021889 [Name: olfactory bulb interneuron differentiation]; GO:0016477 [Name: cell migration]; GO:0009880 [Name: embryonic pattern specification]; GO:0007275 [Name: multicellular organism development]; GO:2001223 [Name: negative regulation of neuron migration]; GO:0014068 [Name: positive regulation of phosphatidylinositol 3-kinase signaling]; GO:0046777 [Name: protein autophosphorylation]; GO:0007169 [Name: transmembrane receptor protein tyrosine kinase signaling pathway]; GO:0061026 [Name: cardiac muscle tissue regeneration]; GO:0045165 [Name: cell fate commitment]; GO:0007595 [Name: lactation]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0042531 [Name: positive regulation of tyrosine phosphorylation of STAT protein]; GO:2000145 [Name: regulation of cell motility]; GO:0021551 [Name: central nervous system morphogenesis]</t>
+    <t>GO:0000165 [Name: MAPK cascade]; GO:0043653 [Name: mitochondrial fragmentation involved in apoptotic process]; GO:0007399 [Name: nervous system development]; GO:0001755 [Name: neural crest cell migration]; GO:0060045 [Name: positive regulation of cardiac muscle cell proliferation]; GO:0007507 [Name: heart development]; GO:0060644 [Name: mammary gland epithelial cell differentiation]; GO:0071364 [Name: cellular response to epidermal growth factor stimulus]; GO:0038128 [Name: ERBB2 signaling pathway]; GO:2000010 [Name: positive regulation of protein localization to cell surface]; GO:0007165 [Name: signal transduction]; GO:0007416 [Name: synapse assembly]; GO:0070374 [Name: positive regulation of ERK1 and ERK2 cascade]; GO:0060749 [Name: mammary gland alveolus development]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0051897 [Name: positive regulation of protein kinase B signaling]; GO:0001934 [Name: positive regulation of protein phosphorylation]; GO:0008285 [Name: negative regulation of cell proliferation]; GO:0043552 [Name: positive regulation of phosphatidylinositol 3-kinase activity]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]; GO:0046427 [Name: positive regulation of JAK-STAT cascade]; GO:0030334 [Name: regulation of cell migration]; GO:0018108 [Name: peptidyl-tyrosine phosphorylation]; GO:0033674 [Name: positive regulation of kinase activity]; GO:0021889 [Name: olfactory bulb interneuron differentiation]; GO:0016477 [Name: cell migration]; GO:0009880 [Name: embryonic pattern specification]; GO:0007275 [Name: multicellular organism development]; GO:0014068 [Name: positive regulation of phosphatidylinositol 3-kinase signaling]; GO:0046777 [Name: protein autophosphorylation]; GO:0007169 [Name: transmembrane receptor protein tyrosine kinase signaling pathway]; GO:2001223 [Name: negative regulation of neuron migration]; GO:0061026 [Name: cardiac muscle tissue regeneration]; GO:0045165 [Name: cell fate commitment]; GO:0007595 [Name: lactation]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:2000145 [Name: regulation of cell motility]; GO:0042531 [Name: positive regulation of tyrosine phosphorylation of STAT protein]; GO:0021551 [Name: central nervous system morphogenesis]</t>
   </si>
   <si>
     <t>GO:0042803 [Name: protein homodimerization activity]; GO:0044212 [Name: transcription regulatory region DNA binding]; GO:0004714 [Name: transmembrane receptor protein tyrosine kinase activity]; GO:0005524 [Name: ATP binding]; GO:0005154 [Name: epidermal growth factor receptor binding]; GO:0004713 [Name: protein tyrosine kinase activity]</t>
   </si>
   <si>
-    <t>Q15661</t>
+    <t>UniProtKB:Q15661</t>
   </si>
   <si>
     <t>7177 [Gene Symbol: TPSAB1] [Locus Tag: ] [Chromosome: 16] [Map Location: 16p13.3] [Description: tryptase alpha/beta 1] [Gene Type: protein-coding]</t>
@@ -841,19 +416,7 @@
     <t>GO:0008236 [Name: serine-type peptidase activity]; GO:0004252 [Name: serine-type endopeptidase activity]; GO:0042802 [Name: identical protein binding]</t>
   </si>
   <si>
-    <t>Q7KZI7</t>
-  </si>
-  <si>
-    <t>2011 [Gene Symbol: MARK2] [Locus Tag: ] [Chromosome: 11] [Map Location: 11q13.1] [Description: microtubule affinity regulating kinase 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0045197 [Name: establishment or maintenance of epithelial cell apical/basal polarity]; GO:0071963 [Name: establishment or maintenance of cell polarity regulating cell shape]; GO:0030010 [Name: establishment of cell polarity]; GO:0061564 [Name: axon development]; GO:1904526 [Name: regulation of microtubule binding]; GO:0051646 [Name: mitochondrion localization]; GO:0046777 [Name: protein autophosphorylation]; GO:0050770 [Name: regulation of axonogenesis]; GO:0070507 [Name: regulation of microtubule cytoskeleton organization]; GO:0000422 [Name: mitophagy]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0035556 [Name: intracellular signal transduction]; GO:0001764 [Name: neuron migration]; GO:0010976 [Name: positive regulation of neuron projection development]; GO:0006468 [Name: protein phosphorylation]; GO:0051493 [Name: regulation of cytoskeleton organization]; GO:0032147 [Name: activation of protein kinase activity]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0016055 [Name: Wnt signaling pathway]</t>
-  </si>
-  <si>
-    <t>GO:0005524 [Name: ATP binding]; GO:0008289 [Name: lipid binding]; GO:0000287 [Name: magnesium ion binding]; GO:0003723 [Name: RNA binding]; GO:0050321 [Name: tau-protein kinase activity]; GO:0045296 [Name: cadherin binding]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0030295 [Name: protein kinase activator activity]; GO:0048156 [Name: tau protein binding]</t>
-  </si>
-  <si>
-    <t>Q8N183</t>
+    <t>UniProtKB:Q8N183</t>
   </si>
   <si>
     <t>91942 [Gene Symbol: NDUFAF2] [Locus Tag: ] [Chromosome: 5] [Map Location: 5q12.1] [Description: NADH:ubiquinone oxidoreductase complex assembly factor 2] [Gene Type: protein-coding]</t>
@@ -865,43 +428,19 @@
     <t>GO:0008137 [Name: NADH dehydrogenase (ubiquinone) activity]; GO:0009055 [Name: electron carrier activity]</t>
   </si>
   <si>
-    <t>Q8TD19</t>
-  </si>
-  <si>
-    <t>91754 [Gene Symbol: NEK9] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q24.3] [Description: NIMA related kinase 9] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0051301 [Name: cell division]; GO:0007077 [Name: mitotic nuclear envelope disassembly]</t>
-  </si>
-  <si>
-    <t>GO:0019901 [Name: protein kinase binding]; GO:0005524 [Name: ATP binding]; GO:0046872 [Name: metal ion binding]; GO:0004674 [Name: protein serine/threonine kinase activity]</t>
-  </si>
-  <si>
-    <t>Q92769</t>
+    <t>UniProtKB:Q92769</t>
   </si>
   <si>
     <t>3066 [Gene Symbol: HDAC2] [Locus Tag: ] [Chromosome: 6] [Map Location: 6q21] [Description: histone deacetylase 2] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0034605 [Name: cellular response to heat]; GO:0006338 [Name: chromatin remodeling]; GO:0032967 [Name: positive regulation of collagen biosynthetic process]; GO:0048714 [Name: positive regulation of oligodendrocyte differentiation]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0035094 [Name: response to nicotine]; GO:0070933 [Name: histone H4 deacetylation]; GO:0009913 [Name: epidermal cell differentiation]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:1901796 [Name: regulation of signal transduction by p53 class mediator]; GO:0003300 [Name: cardiac muscle hypertrophy]; GO:0043392 [Name: negative regulation of DNA binding]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]; GO:0001975 [Name: response to amphetamine]; GO:0042220 [Name: response to cocaine]; GO:0070932 [Name: histone H3 deacetylation]; GO:0016358 [Name: dendrite development]; GO:0042733 [Name: embryonic digit morphogenesis]; GO:0045862 [Name: positive regulation of proteolysis]; GO:0055093 [Name: response to hyperoxia]; GO:0061000 [Name: negative regulation of dendritic spine development]; GO:0061198 [Name: fungiform papilla formation]; GO:0007596 [Name: blood coagulation]; GO:0071560 [Name: cellular response to transforming growth factor beta stimulus]; GO:0006344 [Name: maintenance of chromatin silencing]; GO:1902437 [Name: positive regulation of male mating behavior]; GO:0010870 [Name: positive regulation of receptor biosynthetic process]; GO:0061029 [Name: eyelid development in camera-type eye]; GO:0043044 [Name: ATP-dependent chromatin remodeling]; GO:0010977 [Name: negative regulation of neuron projection development]; GO:0042475 [Name: odontogenesis of dentin-containing tooth]; GO:0032732 [Name: positive regulation of interleukin-1 production]; GO:0032760 [Name: positive regulation of tumor necrosis factor production]; GO:0060789 [Name: hair follicle placode formation]; GO:0045347 [Name: negative regulation of MHC class II biosynthetic process]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0042531 [Name: positive regulation of tyrosine phosphorylation of STAT protein]; GO:0031000 [Name: response to caffeine]; GO:0032496 [Name: response to lipopolysaccharide]; GO:0048149 [Name: behavioral response to ethanol]; GO:1903351 [Name: cellular response to dopamine]; GO:0070301 [Name: cellular response to hydrogen peroxide]; GO:0071300 [Name: cellular response to retinoic acid]; GO:0032922 [Name: circadian regulation of gene expression]; GO:0016575 [Name: histone deacetylation]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0043433 [Name: negative regulation of sequence-specific DNA binding transcription factor activity]; GO:0045892 [Name: negative regulation of transcription, DNA-templated]; GO:0010718 [Name: positive regulation of epithelial to mesenchymal transition]; GO:2000757 [Name: negative regulation of peptidyl-lysine acetylation]</t>
+    <t>GO:0034605 [Name: cellular response to heat]; GO:0032967 [Name: positive regulation of collagen biosynthetic process]; GO:0048714 [Name: positive regulation of oligodendrocyte differentiation]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0070933 [Name: histone H4 deacetylation]; GO:0006338 [Name: chromatin remodeling]; GO:0035094 [Name: response to nicotine]; GO:0009913 [Name: epidermal cell differentiation]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:1901796 [Name: regulation of signal transduction by p53 class mediator]; GO:0003300 [Name: cardiac muscle hypertrophy]; GO:0043392 [Name: negative regulation of DNA binding]; GO:0045893 [Name: positive regulation of transcription, DNA-templated]; GO:0070932 [Name: histone H3 deacetylation]; GO:0001975 [Name: response to amphetamine]; GO:0042220 [Name: response to cocaine]; GO:0016358 [Name: dendrite development]; GO:0042733 [Name: embryonic digit morphogenesis]; GO:0045862 [Name: positive regulation of proteolysis]; GO:0055093 [Name: response to hyperoxia]; GO:0061000 [Name: negative regulation of dendritic spine development]; GO:0061198 [Name: fungiform papilla formation]; GO:0007596 [Name: blood coagulation]; GO:0071560 [Name: cellular response to transforming growth factor beta stimulus]; GO:1902437 [Name: positive regulation of male mating behavior]; GO:0010870 [Name: positive regulation of receptor biosynthetic process]; GO:0006344 [Name: maintenance of chromatin silencing]; GO:0061029 [Name: eyelid development in camera-type eye]; GO:0043044 [Name: ATP-dependent chromatin remodeling]; GO:0010977 [Name: negative regulation of neuron projection development]; GO:0042475 [Name: odontogenesis of dentin-containing tooth]; GO:0032732 [Name: positive regulation of interleukin-1 production]; GO:0032760 [Name: positive regulation of tumor necrosis factor production]; GO:0045347 [Name: negative regulation of MHC class II biosynthetic process]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0042531 [Name: positive regulation of tyrosine phosphorylation of STAT protein]; GO:0060789 [Name: hair follicle placode formation]; GO:0031000 [Name: response to caffeine]; GO:0032496 [Name: response to lipopolysaccharide]; GO:0048149 [Name: behavioral response to ethanol]; GO:1903351 [Name: cellular response to dopamine]; GO:0071300 [Name: cellular response to retinoic acid]; GO:0016575 [Name: histone deacetylation]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0043433 [Name: negative regulation of sequence-specific DNA binding transcription factor activity]; GO:0045892 [Name: negative regulation of transcription, DNA-templated]; GO:0010718 [Name: positive regulation of epithelial to mesenchymal transition]; GO:0032922 [Name: circadian regulation of gene expression]; GO:0070301 [Name: cellular response to hydrogen peroxide]; GO:2000757 [Name: negative regulation of peptidyl-lysine acetylation]</t>
   </si>
   <si>
     <t>GO:0008134 [Name: transcription factor binding]; GO:0003682 [Name: chromatin binding]; GO:0033558 [Name: protein deacetylase activity]; GO:0019899 [Name: enzyme binding]; GO:0032041 [Name: NAD-dependent histone deacetylase activity (H3-K14 specific)]; GO:0051059 [Name: NF-kappaB binding]; GO:0003723 [Name: RNA binding]; GO:0042826 [Name: histone deacetylase binding]; GO:0019213 [Name: deacetylase activity]; GO:0031072 [Name: heat shock protein binding]; GO:1990841 [Name: promoter-specific chromatin binding]; GO:0001103 [Name: RNA polymerase II repressing transcription factor binding]; GO:0004407 [Name: histone deacetylase activity]; GO:0043565 [Name: sequence-specific DNA binding]</t>
   </si>
   <si>
-    <t>Q92843</t>
-  </si>
-  <si>
-    <t>599 [Gene Symbol: BCL2L2] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q11.2] [Description: BCL2 like 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0007420 [Name: brain development]; GO:1905430 [Name: cellular response to glycine]; GO:0008630 [Name: intrinsic apoptotic signaling pathway in response to DNA damage]; GO:0002931 [Name: response to ischemia]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:2001243 [Name: negative regulation of intrinsic apoptotic signaling pathway]; GO:0071392 [Name: cellular response to estradiol stimulus]; GO:0035795 [Name: negative regulation of mitochondrial membrane permeability]; GO:0090201 [Name: negative regulation of release of cytochrome c from mitochondria]; GO:0060011 [Name: Sertoli cell proliferation]; GO:1904646 [Name: cellular response to beta-amyloid]; GO:0007283 [Name: spermatogenesis]; GO:0097192 [Name: extrinsic apoptotic signaling pathway in absence of ligand]</t>
-  </si>
-  <si>
-    <t>GO:0044877 [Name: macromolecular complex binding]; GO:0097718 [Name: disordered domain specific binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0042802 [Name: identical protein binding]; GO:0051400 [Name: BH domain binding]; GO:0046982 [Name: protein heterodimerization activity]</t>
-  </si>
-  <si>
-    <t>Q92953</t>
+    <t>UniProtKB:Q92953</t>
   </si>
   <si>
     <t>9312 [Gene Symbol: KCNB2] [Locus Tag: ] [Chromosome: 8] [Map Location: 8q21.11] [Description: potassium voltage-gated channel subfamily B member 2] [Gene Type: protein-coding]</t>
@@ -913,64 +452,19 @@
     <t>GO:0005251 [Name: delayed rectifier potassium channel activity]; GO:0046982 [Name: protein heterodimerization activity]; GO:0005249 [Name: voltage-gated potassium channel activity]</t>
   </si>
   <si>
-    <t>Q96AY3</t>
-  </si>
-  <si>
-    <t>60681 [Gene Symbol: FKBP10] [Locus Tag: ] [Chromosome: 17] [Map Location: 17q21.2] [Description: FKBP prolyl isomerase 10] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0003755 [Name: peptidyl-prolyl cis-trans isomerase activity]; GO:0005509 [Name: calcium ion binding]; GO:0005528 [Name: FK506 binding]</t>
-  </si>
-  <si>
-    <t>Q96D53</t>
-  </si>
-  <si>
-    <t>79934 [Gene Symbol: COQ8B] [Locus Tag: ] [Chromosome: 19] [Map Location: 19q13.2] [Description: coenzyme Q8B] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0006744 [Name: ubiquinone biosynthetic process]; GO:0006468 [Name: protein phosphorylation]; GO:0021692 [Name: cerebellar Purkinje cell layer morphogenesis]</t>
-  </si>
-  <si>
-    <t>GO:0016301 [Name: kinase activity]; GO:0005524 [Name: ATP binding]</t>
-  </si>
-  <si>
-    <t>Q96F46</t>
+    <t>UniProtKB:Q96F46</t>
   </si>
   <si>
     <t>23765 [Gene Symbol: IL17RA] [Locus Tag: ] [Chromosome: 22] [Map Location: 22q11.1] [Description: interleukin 17 receptor A] [Gene Type: protein-coding]</t>
   </si>
   <si>
-    <t>GO:0072537 [Name: fibroblast activation]; GO:2000667 [Name: positive regulation of interleukin-13 secretion]; GO:0007166 [Name: cell surface receptor signaling pathway]; GO:0032747 [Name: positive regulation of interleukin-23 production]; GO:2000664 [Name: positive regulation of interleukin-5 secretion]; GO:1900017 [Name: positive regulation of cytokine production involved in inflammatory response]; GO:0071621 [Name: granulocyte chemotaxis]; GO:0050832 [Name: defense response to fungus]; GO:0097400 [Name: interleukin-17-mediated signaling pathway]</t>
+    <t>GO:0072537 [Name: fibroblast activation]; GO:2000667 [Name: positive regulation of interleukin-13 secretion]; GO:0007166 [Name: cell surface receptor signaling pathway]; GO:0032747 [Name: positive regulation of interleukin-23 production]; GO:2000664 [Name: positive regulation of interleukin-5 secretion]; GO:0071621 [Name: granulocyte chemotaxis]; GO:1900017 [Name: positive regulation of cytokine production involved in inflammatory response]; GO:0050832 [Name: defense response to fungus]; GO:0097400 [Name: interleukin-17-mediated signaling pathway]</t>
   </si>
   <si>
     <t>GO:0005102 [Name: receptor binding]; GO:0030368 [Name: interleukin-17 receptor activity]</t>
   </si>
   <si>
-    <t>Q96SB4</t>
-  </si>
-  <si>
-    <t>6732 [Gene Symbol: SRPK1] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p21.31] [Description: SRSF protein kinase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0035556 [Name: intracellular signal transduction]; GO:0035092 [Name: sperm chromatin condensation]; GO:0008380 [Name: RNA splicing]; GO:0000245 [Name: spliceosomal complex assembly]; GO:0045087 [Name: innate immune response]; GO:0048024 [Name: regulation of mRNA splicing, via spliceosome]; GO:0016032 [Name: viral process]; GO:0045070 [Name: positive regulation of viral genome replication]; GO:0006468 [Name: protein phosphorylation]; GO:0010468 [Name: regulation of gene expression]; GO:0050684 [Name: regulation of mRNA processing]; GO:0007059 [Name: chromosome segregation]; GO:0045071 [Name: negative regulation of viral genome replication]</t>
-  </si>
-  <si>
-    <t>GO:0003723 [Name: RNA binding]; GO:0000287 [Name: magnesium ion binding]; GO:0005524 [Name: ATP binding]; GO:0004672 [Name: protein kinase activity]; GO:0004674 [Name: protein serine/threonine kinase activity]</t>
-  </si>
-  <si>
-    <t>Q99460</t>
-  </si>
-  <si>
-    <t>5707 [Gene Symbol: PSMD1] [Locus Tag: ] [Chromosome: 2] [Map Location: 2q37.1] [Description: proteasome 26S subunit, non-ATPase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0061418 [Name: regulation of transcription from RNA polymerase II promoter in response to hypoxia]; GO:0033209 [Name: tumor necrosis factor-mediated signaling pathway]; GO:0000209 [Name: protein polyubiquitination]; GO:1901990 [Name: regulation of mitotic cell cycle phase transition]; GO:0000165 [Name: MAPK cascade]; GO:0090090 [Name: negative regulation of canonical Wnt signaling pathway]; GO:0010972 [Name: negative regulation of G2/M transition of mitotic cell cycle]; GO:0043161 [Name: proteasome-mediated ubiquitin-dependent protein catabolic process]; GO:0043488 [Name: regulation of mRNA stability]; GO:0031145 [Name: anaphase-promoting complex-dependent catabolic process]; GO:0038061 [Name: NIK/NF-kappaB signaling]; GO:0006521 [Name: regulation of cellular amino acid metabolic process]; GO:0050852 [Name: T cell receptor signaling pathway]; GO:0016579 [Name: protein deubiquitination]; GO:0002223 [Name: stimulatory C-type lectin receptor signaling pathway]; GO:0043687 [Name: post-translational protein modification]; GO:1902036 [Name: regulation of hematopoietic stem cell differentiation]; GO:0042176 [Name: regulation of protein catabolic process]; GO:0031146 [Name: SCF-dependent proteasomal ubiquitin-dependent protein catabolic process]; GO:0055085 [Name: transmembrane transport]; GO:0060071 [Name: Wnt signaling pathway, planar cell polarity pathway]; GO:0002479 [Name: antigen processing and presentation of exogenous peptide antigen via MHC class I, TAP-dependent]; GO:0043312 [Name: neutrophil degranulation]; GO:0090263 [Name: positive regulation of canonical Wnt signaling pathway]; GO:0038095 [Name: Fc-epsilon receptor signaling pathway]; GO:0070498 [Name: interleukin-1-mediated signaling pathway]</t>
-  </si>
-  <si>
-    <t>GO:0030234 [Name: enzyme regulator activity]; GO:0031625 [Name: ubiquitin protein ligase binding]</t>
-  </si>
-  <si>
-    <t>Q99720</t>
+    <t>UniProtKB:Q99720</t>
   </si>
   <si>
     <t>10280 [Gene Symbol: SIGMAR1] [Locus Tag: ] [Chromosome: 9] [Map Location: 9p13.3] [Description: sigma non-opioid intracellular receptor 1] [Gene Type: protein-coding]</t>
@@ -982,19 +476,7 @@
     <t>GO:0008144 [Name: drug binding]; GO:0004985 [Name: opioid receptor activity]; GO:0042802 [Name: identical protein binding]</t>
   </si>
   <si>
-    <t>Q99873</t>
-  </si>
-  <si>
-    <t>3276 [Gene Symbol: PRMT1] [Locus Tag: ] [Chromosome: 19] [Map Location: 19q13.33] [Description: protein arginine methyltransferase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0031175 [Name: neuron projection development]; GO:0046985 [Name: positive regulation of hemoglobin biosynthetic process]; GO:0006977 [Name: DNA damage response, signal transduction by p53 class mediator resulting in cell cycle arrest]; GO:0045653 [Name: negative regulation of megakaryocyte differentiation]; GO:1900745 [Name: positive regulation of p38MAPK cascade]; GO:0007166 [Name: cell surface receptor signaling pathway]; GO:0045652 [Name: regulation of megakaryocyte differentiation]; GO:0043985 [Name: histone H4-R3 methylation]; GO:0016571 [Name: histone methylation]; GO:0001701 [Name: in utero embryonic development]; GO:0018216 [Name: peptidyl-arginine methylation]; GO:0008284 [Name: positive regulation of cell proliferation]; GO:0045648 [Name: positive regulation of erythrocyte differentiation]; GO:0051260 [Name: protein homooligomerization]; GO:0006479 [Name: protein methylation]</t>
-  </si>
-  <si>
-    <t>GO:0008170 [Name: N-methyltransferase activity]; GO:0035242 [Name: protein-arginine omega-N asymmetric methyltransferase activity]; GO:0008168 [Name: methyltransferase activity]; GO:0048273 [Name: mitogen-activated protein kinase p38 binding]; GO:0035241 [Name: protein-arginine omega-N monomethyltransferase activity]; GO:0019899 [Name: enzyme binding]; GO:0042054 [Name: histone methyltransferase activity]; GO:0008276 [Name: protein methyltransferase activity]; GO:0003723 [Name: RNA binding]; GO:0044020 [Name: histone methyltransferase activity (H4-R3 specific)]; GO:0016274 [Name: protein-arginine N-methyltransferase activity]; GO:1904047 [Name: S-adenosyl-L-methionine binding]; GO:0042802 [Name: identical protein binding]; GO:0008327 [Name: methyl-CpG binding]</t>
-  </si>
-  <si>
-    <t>Q9BQB6</t>
+    <t>UniProtKB:Q9BQB6</t>
   </si>
   <si>
     <t>79001 [Gene Symbol: VKORC1] [Locus Tag: ] [Chromosome: 16] [Map Location: 16p11.2] [Description: vitamin K epoxide reductase complex subunit 1] [Gene Type: protein-coding]</t>
@@ -1006,79 +488,7 @@
     <t>GO:0048038 [Name: quinone binding]; GO:0047058 [Name: vitamin-K-epoxide reductase (warfarin-insensitive) activity]; GO:0047057 [Name: vitamin-K-epoxide reductase (warfarin-sensitive) activity]</t>
   </si>
   <si>
-    <t>Q9BU02</t>
-  </si>
-  <si>
-    <t>79178 [Gene Symbol: THTPA] [Locus Tag: ] [Chromosome: 14] [Map Location: 14q11.2] [Description: thiamine triphosphatase] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0016311 [Name: dephosphorylation]; GO:0006091 [Name: generation of precursor metabolites and energy]; GO:0042723 [Name: thiamine-containing compound metabolic process]; GO:0042357 [Name: thiamine diphosphate metabolic process]; GO:0006772 [Name: thiamine metabolic process]</t>
-  </si>
-  <si>
-    <t>GO:0016787 [Name: hydrolase activity]; GO:0000287 [Name: magnesium ion binding]; GO:0050333 [Name: thiamin-triphosphatase activity]</t>
-  </si>
-  <si>
-    <t>Q9NS75</t>
-  </si>
-  <si>
-    <t>57105 [Gene Symbol: CYSLTR2] [Locus Tag: ] [Chromosome: 13] [Map Location: 13q14.2] [Description: cysteinyl leukotriene receptor 2] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0007218 [Name: neuropeptide signaling pathway]; GO:0007188 [Name: adenylate cyclase-modulating G-protein coupled receptor signaling pathway]; GO:0006955 [Name: immune response]; GO:0007186 [Name: G-protein coupled receptor signaling pathway]</t>
-  </si>
-  <si>
-    <t>GO:0008528 [Name: G-protein coupled peptide receptor activity]; GO:0004974 [Name: leukotriene receptor activity]; GO:0004966 [Name: galanin receptor activity]</t>
-  </si>
-  <si>
-    <t>Q9NXA8</t>
-  </si>
-  <si>
-    <t>23408 [Gene Symbol: SIRT5] [Locus Tag: ] [Chromosome: 6] [Map Location: 6p23] [Description: sirtuin 5] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0007005 [Name: mitochondrion organization]; GO:0010566 [Name: regulation of ketone biosynthetic process]; GO:0031667 [Name: response to nutrient levels]; GO:0061698 [Name: protein deglutarylation]; GO:0036047 [Name: peptidyl-lysine demalonylation]; GO:0036049 [Name: peptidyl-lysine desuccinylation]; GO:0006471 [Name: protein ADP-ribosylation]; GO:0036046 [Name: protein demalonylation]; GO:1904229 [Name: regulation of succinate dehydrogenase activity]; GO:0002931 [Name: response to ischemia]; GO:0006476 [Name: protein deacetylation]; GO:0010667 [Name: negative regulation of cardiac muscle cell apoptotic process]; GO:2000378 [Name: negative regulation of reactive oxygen species metabolic process]; GO:0036048 [Name: protein desuccinylation]</t>
-  </si>
-  <si>
-    <t>GO:0003950 [Name: NAD+ ADP-ribosyltransferase activity]; GO:0070403 [Name: NAD+ binding]; GO:0034979 [Name: NAD-dependent protein deacetylase activity]; GO:0036055 [Name: protein-succinyllysine desuccinylase activity]; GO:0061697 [Name: protein-glutaryllysine deglutarylase activity]; GO:0008270 [Name: zinc ion binding]; GO:0036054 [Name: protein-malonyllysine demalonylase activity]</t>
-  </si>
-  <si>
-    <t>Q9P0L2</t>
-  </si>
-  <si>
-    <t>4139 [Gene Symbol: MARK1] [Locus Tag: ] [Chromosome: 1] [Map Location: 1q41] [Description: microtubule affinity regulating kinase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0007010 [Name: cytoskeleton organization]; GO:0010975 [Name: regulation of neuron projection development]; GO:0000226 [Name: microtubule cytoskeleton organization]; GO:0001764 [Name: neuron migration]; GO:0016055 [Name: Wnt signaling pathway]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0006468 [Name: protein phosphorylation]; GO:0035556 [Name: intracellular signal transduction]; GO:0051654 [Name: establishment of mitochondrion localization]; GO:0050773 [Name: regulation of dendrite development]</t>
-  </si>
-  <si>
-    <t>GO:0070300 [Name: phosphatidic acid binding]; GO:0050321 [Name: tau-protein kinase activity]; GO:0000287 [Name: magnesium ion binding]; GO:0005546 [Name: phosphatidylinositol-4,5-bisphosphate binding]; GO:0005524 [Name: ATP binding]; GO:0048156 [Name: tau protein binding]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0001786 [Name: phosphatidylserine binding]</t>
-  </si>
-  <si>
-    <t>Q9P289</t>
-  </si>
-  <si>
-    <t>51765 [Gene Symbol: STK26] [Locus Tag: ] [Chromosome: X] [Map Location: Xq26.2] [Description: serine/threonine kinase 26] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0032147 [Name: activation of protein kinase activity]; GO:0009267 [Name: cellular response to starvation]; GO:0046777 [Name: protein autophosphorylation]; GO:0006468 [Name: protein phosphorylation]; GO:0023014 [Name: signal transduction by protein phosphorylation]; GO:0031098 [Name: stress-activated protein kinase signaling cascade]; GO:0006915 [Name: apoptotic process]; GO:0042981 [Name: regulation of apoptotic process]; GO:0042542 [Name: response to hydrogen peroxide]; GO:0030336 [Name: negative regulation of cell migration]; GO:0030033 [Name: microvillus assembly]; GO:1903205 [Name: regulation of hydrogen peroxide-induced cell death]; GO:0007346 [Name: regulation of mitotic cell cycle]</t>
-  </si>
-  <si>
-    <t>GO:0000287 [Name: magnesium ion binding]; GO:0004672 [Name: protein kinase activity]; GO:0042802 [Name: identical protein binding]; GO:0042803 [Name: protein homodimerization activity]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0005524 [Name: ATP binding]</t>
-  </si>
-  <si>
-    <t>Q9UHD2</t>
-  </si>
-  <si>
-    <t>29110 [Gene Symbol: TBK1] [Locus Tag: ] [Chromosome: 12] [Map Location: 12q14.2] [Description: TANK binding kinase 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0050830 [Name: defense response to Gram-positive bacterium]; GO:0016032 [Name: viral process]; GO:0071345 [Name: cellular response to cytokine stimulus]; GO:0006954 [Name: inflammatory response]; GO:0033138 [Name: positive regulation of peptidyl-serine phosphorylation]; GO:0032481 [Name: positive regulation of type I interferon production]; GO:1904417 [Name: positive regulation of xenophagy]; GO:1901214 [Name: regulation of neuron death]; GO:0045087 [Name: innate immune response]; GO:0044565 [Name: dendritic cell proliferation]; GO:0009615 [Name: response to virus]; GO:0007249 [Name: I-kappaB kinase/NF-kappaB signaling]; GO:0010629 [Name: negative regulation of gene expression]; GO:0018107 [Name: peptidyl-threonine phosphorylation]; GO:0032728 [Name: positive regulation of interferon-beta production]; GO:0006468 [Name: protein phosphorylation]; GO:0051607 [Name: defense response to virus]; GO:0018105 [Name: peptidyl-serine phosphorylation]; GO:0045944 [Name: positive regulation of transcription from RNA polymerase II promoter]; GO:0032480 [Name: negative regulation of type I interferon production]; GO:0045359 [Name: positive regulation of interferon-beta biosynthetic process]; GO:0016239 [Name: positive regulation of macroautophagy]; GO:0060340 [Name: positive regulation of type I interferon-mediated signaling pathway]; GO:0032479 [Name: regulation of type I interferon production]; GO:0043123 [Name: positive regulation of I-kappaB kinase/NF-kappaB signaling]; GO:0032727 [Name: positive regulation of interferon-alpha production]; GO:0035666 [Name: TRIF-dependent toll-like receptor signaling pathway]; GO:0032606 [Name: type I interferon production]</t>
-  </si>
-  <si>
-    <t>GO:0051219 [Name: phosphoprotein binding]; GO:0004674 [Name: protein serine/threonine kinase activity]; GO:0005524 [Name: ATP binding]; GO:0003676 [Name: nucleic acid binding]; GO:0019903 [Name: protein phosphatase binding]; GO:0042802 [Name: identical protein binding]; GO:0004672 [Name: protein kinase activity]</t>
-  </si>
-  <si>
-    <t>Q9Y375</t>
+    <t>UniProtKB:Q9Y375</t>
   </si>
   <si>
     <t>51103 [Gene Symbol: NDUFAF1] [Locus Tag: ] [Chromosome: 15] [Map Location: 15q15.1] [Description: NADH:ubiquinone oxidoreductase complex assembly factor 1] [Gene Type: protein-coding]</t>
@@ -1090,19 +500,7 @@
     <t>GO:0051082 [Name: unfolded protein binding]</t>
   </si>
   <si>
-    <t>Q9Y466</t>
-  </si>
-  <si>
-    <t>7101 [Gene Symbol: NR2E1] [Locus Tag: ] [Chromosome: 6] [Map Location: 6q21] [Description: nuclear receptor subfamily 2 group E member 1] [Gene Type: protein-coding]</t>
-  </si>
-  <si>
-    <t>GO:0035176 [Name: social behavior]; GO:0002118 [Name: aggressive behavior]; GO:0021764 [Name: amygdala development]; GO:0021960 [Name: anterior commissure morphogenesis]; GO:0001662 [Name: behavioral fear response]; GO:0045165 [Name: cell fate commitment]; GO:0021542 [Name: dentate gyrus development]; GO:0000122 [Name: negative regulation of transcription from RNA polymerase II promoter]; GO:0021872 [Name: forebrain generation of neurons]; GO:0006367 [Name: transcription initiation from RNA polymerase II promoter]; GO:0007601 [Name: visual perception]; GO:0021895 [Name: cerebral cortex neuron differentiation]; GO:0045766 [Name: positive regulation of angiogenesis]; GO:0045787 [Name: positive regulation of cell cycle]; GO:0021819 [Name: layer formation in cerebral cortex]; GO:0090049 [Name: regulation of cell migration involved in sprouting angiogenesis]; GO:0060041 [Name: retina development in camera-type eye]; GO:2000178 [Name: negative regulation of neural precursor cell proliferation]; GO:0045665 [Name: negative regulation of neuron differentiation]; GO:0007399 [Name: nervous system development]; GO:2000179 [Name: positive regulation of neural precursor cell proliferation]; GO:0048814 [Name: regulation of dendrite morphogenesis]; GO:0048856 [Name: anatomical structure development]; GO:0043066 [Name: negative regulation of apoptotic process]; GO:0048712 [Name: negative regulation of astrocyte differentiation]; GO:0060164 [Name: regulation of timing of neuron differentiation]; GO:0030198 [Name: extracellular matrix organization]; GO:2000648 [Name: positive regulation of stem cell proliferation]; GO:0006357 [Name: regulation of transcription from RNA polymerase II promoter]; GO:0021772 [Name: olfactory bulb development]; GO:0035019 [Name: somatic stem cell population maintenance]; GO:0030154 [Name: cell differentiation]; GO:0060291 [Name: long-term synaptic potentiation]</t>
-  </si>
-  <si>
-    <t>GO:0003700 [Name: transcription factor activity, sequence-specific DNA binding]; GO:0042826 [Name: histone deacetylase binding]; GO:0000977 [Name: RNA polymerase II regulatory region sequence-specific DNA binding]; GO:0000978 [Name: RNA polymerase II core promoter proximal region sequence-specific DNA binding]; GO:0003707 [Name: steroid hormone receptor activity]; GO:0001228 [Name: transcriptional activator activity, RNA polymerase II transcription regulatory region sequence-specific binding]; GO:0000981 [Name: RNA polymerase II transcription factor activity, sequence-specific DNA binding]; GO:0001227 [Name: transcriptional repressor activity, RNA polymerase II transcription regulatory region sequence-specific binding]; GO:0008270 [Name: zinc ion binding]</t>
-  </si>
-  <si>
-    <t>Q9Y6M9</t>
+    <t>UniProtKB:Q9Y6M9</t>
   </si>
   <si>
     <t>4715 [Gene Symbol: NDUFB9] [Locus Tag: ] [Chromosome: 8] [Map Location: 8q24.13] [Description: NADH:ubiquinone oxidoreductase subunit B9] [Gene Type: protein-coding]</t>
@@ -1162,6 +560,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1254,28 +667,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1291,28 +689,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2397,16 +1801,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E93"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
-    <col min="2" max="4" width="166.672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.80469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7031" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.17188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.4844" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2417,8 +1824,9 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="20.05" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -2431,1376 +1839,734 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="7">
+      <c r="B3" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="D3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="E3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="B4" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="D4" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="10">
+      <c r="A5" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="10">
+      <c r="A8" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="B8" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="D8" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="10">
+      <c r="A9" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="B9" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="10">
+      <c r="A10" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="B10" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="D10" t="s" s="11">
+      <c r="D10" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s" s="10">
+      <c r="A11" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="B11" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="10">
+      <c r="A12" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="B12" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s" s="10">
+      <c r="A13" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="B13" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="D13" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" t="s" s="13">
+        <v>49</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s" s="10">
+      <c r="A14" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="B14" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="D14" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" t="s" s="13">
+        <v>53</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="10">
+      <c r="A15" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="B15" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="D15" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="D15" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s" s="13">
+        <v>57</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s" s="11">
+      <c r="A16" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="B16" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="13">
         <v>59</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="D16" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s" s="11">
+      <c r="A17" t="s" s="11">
         <v>62</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="B17" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="13">
         <v>63</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="D17" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s" s="13">
+        <v>65</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s" s="11">
+      <c r="A18" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="D18" t="s" s="11">
+      <c r="B18" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="D18" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s" s="13">
+        <v>69</v>
+      </c>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s" s="11">
+      <c r="A19" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="D19" t="s" s="11">
+      <c r="B19" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="13">
         <v>71</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="D19" t="s" s="13">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s" s="13">
+        <v>73</v>
+      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s" s="11">
+      <c r="A20" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="D20" t="s" s="11">
+      <c r="B20" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="13">
         <v>75</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="D20" t="s" s="13">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s" s="11">
+      <c r="A21" t="s" s="11">
         <v>78</v>
       </c>
-      <c r="D21" t="s" s="11">
+      <c r="B21" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="13">
         <v>79</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="D21" t="s" s="13">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s" s="13">
+        <v>81</v>
+      </c>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s" s="11">
+      <c r="A22" t="s" s="11">
         <v>82</v>
       </c>
-      <c r="D22" t="s" s="11">
+      <c r="B22" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="13">
         <v>83</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="D22" t="s" s="13">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s" s="13">
+        <v>85</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s" s="11">
+      <c r="A23" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="D23" t="s" s="11">
+      <c r="B23" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="13">
         <v>87</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="D23" t="s" s="13">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s" s="11">
+      <c r="A24" t="s" s="11">
         <v>90</v>
       </c>
-      <c r="D24" t="s" s="11">
+      <c r="B24" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="13">
         <v>91</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="D24" t="s" s="13">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s" s="13">
+        <v>93</v>
+      </c>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s" s="11">
+      <c r="A25" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="D25" t="s" s="11">
+      <c r="B25" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="13">
         <v>95</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="D25" t="s" s="13">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s" s="13">
+        <v>97</v>
+      </c>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s" s="11">
+      <c r="A26" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="D26" t="s" s="11">
+      <c r="B26" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="13">
         <v>99</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="D26" t="s" s="13">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s" s="13">
+        <v>101</v>
+      </c>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s" s="11">
+      <c r="A27" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="D27" t="s" s="11">
+      <c r="B27" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="13">
         <v>103</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="D27" t="s" s="13">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s" s="13">
+        <v>105</v>
+      </c>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s" s="11">
+      <c r="A28" t="s" s="11">
         <v>106</v>
       </c>
-      <c r="D28" t="s" s="11">
+      <c r="B28" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="13">
         <v>107</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="D28" t="s" s="13">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s" s="13">
+        <v>109</v>
+      </c>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s" s="11">
+      <c r="A29" t="s" s="11">
         <v>110</v>
       </c>
-      <c r="D29" t="s" s="11">
+      <c r="B29" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="13">
         <v>111</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="D29" t="s" s="13">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s" s="13">
+        <v>113</v>
+      </c>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s" s="11">
+      <c r="A30" t="s" s="11">
         <v>114</v>
       </c>
-      <c r="D30" t="s" s="11">
+      <c r="B30" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="13">
         <v>115</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="D30" t="s" s="13">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s" s="13">
+        <v>117</v>
+      </c>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s" s="11">
+      <c r="A31" t="s" s="11">
         <v>118</v>
       </c>
-      <c r="D31" t="s" s="11">
+      <c r="B31" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="13">
         <v>119</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="D31" t="s" s="13">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s" s="13">
+        <v>121</v>
+      </c>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s" s="11">
+      <c r="A32" t="s" s="11">
         <v>122</v>
       </c>
-      <c r="D32" t="s" s="11">
+      <c r="B32" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s" s="13">
         <v>123</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="D32" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s" s="13">
+        <v>125</v>
+      </c>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="B33" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s" s="11">
+      <c r="A33" t="s" s="11">
         <v>126</v>
       </c>
-      <c r="D33" t="s" s="11">
+      <c r="B33" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s" s="13">
         <v>127</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="D33" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>128</v>
-      </c>
-      <c r="B34" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s" s="11">
+      <c r="A34" t="s" s="11">
         <v>130</v>
       </c>
-      <c r="D34" t="s" s="11">
+      <c r="B34" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s" s="13">
         <v>131</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="D34" t="s" s="13">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s" s="11">
+      <c r="A35" t="s" s="11">
         <v>134</v>
       </c>
-      <c r="D35" t="s" s="11">
+      <c r="B35" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s" s="13">
         <v>135</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="D35" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s" s="10">
-        <v>137</v>
-      </c>
-      <c r="C36" t="s" s="11">
+      <c r="A36" t="s" s="11">
         <v>138</v>
       </c>
-      <c r="D36" t="s" s="11">
+      <c r="B36" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s" s="13">
         <v>139</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="D36" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s" s="11">
+      <c r="A37" t="s" s="11">
         <v>142</v>
       </c>
-      <c r="D37" t="s" s="11">
+      <c r="B37" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s" s="13">
         <v>143</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="D37" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>144</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s" s="11">
+      <c r="A38" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="D38" t="s" s="11">
+      <c r="B38" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s" s="13">
         <v>147</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="D38" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="E38" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="C39" t="s" s="11">
+      <c r="A39" t="s" s="11">
         <v>150</v>
       </c>
-      <c r="D39" t="s" s="11">
+      <c r="B39" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="13">
         <v>151</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="D39" t="s" s="13">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s" s="13">
+        <v>153</v>
+      </c>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="B40" t="s" s="10">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s" s="11">
+      <c r="A40" t="s" s="11">
         <v>154</v>
       </c>
-      <c r="D40" t="s" s="11">
+      <c r="B40" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s" s="13">
         <v>155</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="D40" t="s" s="13">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s" s="13">
+        <v>157</v>
+      </c>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>156</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="C41" t="s" s="11">
+      <c r="A41" t="s" s="11">
         <v>158</v>
       </c>
-      <c r="D41" t="s" s="11">
+      <c r="B41" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="13">
         <v>159</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="D41" t="s" s="13">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s" s="13">
+        <v>161</v>
+      </c>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="B42" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s" s="11">
+      <c r="A42" t="s" s="11">
         <v>162</v>
       </c>
-      <c r="D42" t="s" s="11">
+      <c r="B42" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="13">
         <v>163</v>
       </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="9">
+      <c r="D42" t="s" s="13">
         <v>164</v>
       </c>
-      <c r="B43" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s" s="11">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s" s="11">
-        <v>167</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>168</v>
-      </c>
-      <c r="B44" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="C44" t="s" s="11">
-        <v>170</v>
-      </c>
-      <c r="D44" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>173</v>
-      </c>
-      <c r="C45" t="s" s="11">
-        <v>174</v>
-      </c>
-      <c r="D45" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s" s="10">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s" s="11">
-        <v>178</v>
-      </c>
-      <c r="D46" t="s" s="11">
-        <v>179</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>180</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>181</v>
-      </c>
-      <c r="C47" t="s" s="11">
-        <v>182</v>
-      </c>
-      <c r="D47" t="s" s="11">
-        <v>183</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>184</v>
-      </c>
-      <c r="B48" t="s" s="10">
-        <v>185</v>
-      </c>
-      <c r="C48" t="s" s="11">
-        <v>186</v>
-      </c>
-      <c r="D48" t="s" s="11">
-        <v>187</v>
-      </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="B49" t="s" s="10">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s" s="11">
-        <v>190</v>
-      </c>
-      <c r="D49" t="s" s="11">
-        <v>191</v>
-      </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="B50" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>194</v>
-      </c>
-      <c r="D50" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>196</v>
-      </c>
-      <c r="B51" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="C51" t="s" s="11">
-        <v>198</v>
-      </c>
-      <c r="D51" t="s" s="11">
-        <v>199</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="B52" t="s" s="10">
-        <v>201</v>
-      </c>
-      <c r="C52" t="s" s="11">
-        <v>202</v>
-      </c>
-      <c r="D52" t="s" s="11">
-        <v>203</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>204</v>
-      </c>
-      <c r="B53" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="C53" t="s" s="11">
-        <v>206</v>
-      </c>
-      <c r="D53" t="s" s="11">
-        <v>207</v>
-      </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>208</v>
-      </c>
-      <c r="B54" t="s" s="10">
-        <v>209</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>210</v>
-      </c>
-      <c r="D54" t="s" s="11">
-        <v>211</v>
-      </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>212</v>
-      </c>
-      <c r="B55" t="s" s="10">
-        <v>213</v>
-      </c>
-      <c r="C55" t="s" s="11">
-        <v>214</v>
-      </c>
-      <c r="D55" t="s" s="11">
-        <v>215</v>
-      </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s" s="10">
-        <v>217</v>
-      </c>
-      <c r="C56" t="s" s="11">
-        <v>218</v>
-      </c>
-      <c r="D56" t="s" s="11">
-        <v>219</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>220</v>
-      </c>
-      <c r="B57" t="s" s="10">
-        <v>221</v>
-      </c>
-      <c r="C57" t="s" s="11">
-        <v>222</v>
-      </c>
-      <c r="D57" t="s" s="11">
-        <v>223</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s" s="10">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s" s="11">
-        <v>226</v>
-      </c>
-      <c r="D58" t="s" s="11">
-        <v>227</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>228</v>
-      </c>
-      <c r="B59" t="s" s="10">
-        <v>229</v>
-      </c>
-      <c r="C59" t="s" s="11">
-        <v>230</v>
-      </c>
-      <c r="D59" t="s" s="11">
-        <v>231</v>
-      </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>232</v>
-      </c>
-      <c r="B60" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="C60" t="s" s="11">
-        <v>234</v>
-      </c>
-      <c r="D60" t="s" s="11">
-        <v>235</v>
-      </c>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>236</v>
-      </c>
-      <c r="B61" t="s" s="10">
-        <v>237</v>
-      </c>
-      <c r="C61" t="s" s="11">
-        <v>238</v>
-      </c>
-      <c r="D61" t="s" s="11">
-        <v>239</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>240</v>
-      </c>
-      <c r="B62" t="s" s="10">
-        <v>241</v>
-      </c>
-      <c r="C62" t="s" s="11">
-        <v>242</v>
-      </c>
-      <c r="D62" t="s" s="11">
-        <v>243</v>
-      </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>244</v>
-      </c>
-      <c r="B63" t="s" s="10">
-        <v>245</v>
-      </c>
-      <c r="C63" t="s" s="11">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s" s="11">
-        <v>247</v>
-      </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="9">
-        <v>248</v>
-      </c>
-      <c r="B64" t="s" s="10">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s" s="11">
-        <v>250</v>
-      </c>
-      <c r="D64" t="s" s="11">
-        <v>251</v>
-      </c>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="9">
-        <v>252</v>
-      </c>
-      <c r="B65" t="s" s="10">
-        <v>253</v>
-      </c>
-      <c r="C65" t="s" s="11">
-        <v>254</v>
-      </c>
-      <c r="D65" t="s" s="11">
-        <v>255</v>
-      </c>
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="9">
-        <v>256</v>
-      </c>
-      <c r="B66" t="s" s="10">
-        <v>257</v>
-      </c>
-      <c r="C66" t="s" s="11">
-        <v>258</v>
-      </c>
-      <c r="D66" t="s" s="11">
-        <v>259</v>
-      </c>
-      <c r="E66" s="12"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="9">
-        <v>260</v>
-      </c>
-      <c r="B67" t="s" s="10">
-        <v>261</v>
-      </c>
-      <c r="C67" t="s" s="11">
-        <v>262</v>
-      </c>
-      <c r="D67" t="s" s="11">
-        <v>263</v>
-      </c>
-      <c r="E67" s="12"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="9">
-        <v>264</v>
-      </c>
-      <c r="B68" t="s" s="10">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s" s="11">
-        <v>266</v>
-      </c>
-      <c r="D68" t="s" s="11">
-        <v>267</v>
-      </c>
-      <c r="E68" s="12"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="9">
-        <v>268</v>
-      </c>
-      <c r="B69" t="s" s="10">
-        <v>269</v>
-      </c>
-      <c r="C69" t="s" s="11">
-        <v>270</v>
-      </c>
-      <c r="D69" t="s" s="11">
-        <v>271</v>
-      </c>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="9">
-        <v>272</v>
-      </c>
-      <c r="B70" t="s" s="10">
-        <v>273</v>
-      </c>
-      <c r="C70" t="s" s="11">
-        <v>274</v>
-      </c>
-      <c r="D70" t="s" s="11">
-        <v>275</v>
-      </c>
-      <c r="E70" s="12"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="9">
-        <v>276</v>
-      </c>
-      <c r="B71" t="s" s="10">
-        <v>277</v>
-      </c>
-      <c r="C71" t="s" s="11">
-        <v>278</v>
-      </c>
-      <c r="D71" t="s" s="11">
-        <v>279</v>
-      </c>
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="9">
-        <v>280</v>
-      </c>
-      <c r="B72" t="s" s="10">
-        <v>281</v>
-      </c>
-      <c r="C72" t="s" s="11">
-        <v>282</v>
-      </c>
-      <c r="D72" t="s" s="11">
-        <v>283</v>
-      </c>
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="9">
-        <v>284</v>
-      </c>
-      <c r="B73" t="s" s="10">
-        <v>285</v>
-      </c>
-      <c r="C73" t="s" s="11">
-        <v>286</v>
-      </c>
-      <c r="D73" t="s" s="11">
-        <v>287</v>
-      </c>
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>288</v>
-      </c>
-      <c r="B74" t="s" s="10">
-        <v>289</v>
-      </c>
-      <c r="C74" t="s" s="11">
-        <v>290</v>
-      </c>
-      <c r="D74" t="s" s="11">
-        <v>291</v>
-      </c>
-      <c r="E74" s="12"/>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="9">
-        <v>292</v>
-      </c>
-      <c r="B75" t="s" s="10">
-        <v>293</v>
-      </c>
-      <c r="C75" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="D75" t="s" s="11">
-        <v>295</v>
-      </c>
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>296</v>
-      </c>
-      <c r="B76" t="s" s="10">
-        <v>297</v>
-      </c>
-      <c r="C76" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="D76" t="s" s="11">
-        <v>299</v>
-      </c>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="9">
-        <v>300</v>
-      </c>
-      <c r="B77" t="s" s="10">
-        <v>301</v>
-      </c>
-      <c r="C77" t="s" s="11">
-        <v>234</v>
-      </c>
-      <c r="D77" t="s" s="11">
-        <v>302</v>
-      </c>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>303</v>
-      </c>
-      <c r="B78" t="s" s="10">
-        <v>304</v>
-      </c>
-      <c r="C78" t="s" s="11">
-        <v>305</v>
-      </c>
-      <c r="D78" t="s" s="11">
-        <v>306</v>
-      </c>
-      <c r="E78" s="12"/>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="9">
-        <v>307</v>
-      </c>
-      <c r="B79" t="s" s="10">
-        <v>308</v>
-      </c>
-      <c r="C79" t="s" s="11">
-        <v>309</v>
-      </c>
-      <c r="D79" t="s" s="11">
-        <v>310</v>
-      </c>
-      <c r="E79" s="12"/>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>311</v>
-      </c>
-      <c r="B80" t="s" s="10">
-        <v>312</v>
-      </c>
-      <c r="C80" t="s" s="11">
-        <v>313</v>
-      </c>
-      <c r="D80" t="s" s="11">
-        <v>314</v>
-      </c>
-      <c r="E80" s="12"/>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>315</v>
-      </c>
-      <c r="B81" t="s" s="10">
-        <v>316</v>
-      </c>
-      <c r="C81" t="s" s="11">
-        <v>317</v>
-      </c>
-      <c r="D81" t="s" s="11">
-        <v>318</v>
-      </c>
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>319</v>
-      </c>
-      <c r="B82" t="s" s="10">
-        <v>320</v>
-      </c>
-      <c r="C82" t="s" s="11">
-        <v>321</v>
-      </c>
-      <c r="D82" t="s" s="11">
-        <v>322</v>
-      </c>
-      <c r="E82" s="12"/>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="9">
-        <v>323</v>
-      </c>
-      <c r="B83" t="s" s="10">
-        <v>324</v>
-      </c>
-      <c r="C83" t="s" s="11">
-        <v>325</v>
-      </c>
-      <c r="D83" t="s" s="11">
-        <v>326</v>
-      </c>
-      <c r="E83" s="12"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="9">
-        <v>327</v>
-      </c>
-      <c r="B84" t="s" s="10">
-        <v>328</v>
-      </c>
-      <c r="C84" t="s" s="11">
-        <v>329</v>
-      </c>
-      <c r="D84" t="s" s="11">
-        <v>330</v>
-      </c>
-      <c r="E84" s="12"/>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>331</v>
-      </c>
-      <c r="B85" t="s" s="10">
-        <v>332</v>
-      </c>
-      <c r="C85" t="s" s="11">
-        <v>333</v>
-      </c>
-      <c r="D85" t="s" s="11">
-        <v>334</v>
-      </c>
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="9">
-        <v>335</v>
-      </c>
-      <c r="B86" t="s" s="10">
-        <v>336</v>
-      </c>
-      <c r="C86" t="s" s="11">
-        <v>337</v>
-      </c>
-      <c r="D86" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="E86" s="12"/>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="9">
-        <v>339</v>
-      </c>
-      <c r="B87" t="s" s="10">
-        <v>340</v>
-      </c>
-      <c r="C87" t="s" s="11">
-        <v>341</v>
-      </c>
-      <c r="D87" t="s" s="11">
-        <v>342</v>
-      </c>
-      <c r="E87" s="12"/>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="9">
-        <v>343</v>
-      </c>
-      <c r="B88" t="s" s="10">
-        <v>344</v>
-      </c>
-      <c r="C88" t="s" s="11">
-        <v>345</v>
-      </c>
-      <c r="D88" t="s" s="11">
-        <v>346</v>
-      </c>
-      <c r="E88" s="12"/>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="9">
-        <v>347</v>
-      </c>
-      <c r="B89" t="s" s="10">
-        <v>348</v>
-      </c>
-      <c r="C89" t="s" s="11">
-        <v>349</v>
-      </c>
-      <c r="D89" t="s" s="11">
-        <v>350</v>
-      </c>
-      <c r="E89" s="12"/>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="9">
-        <v>351</v>
-      </c>
-      <c r="B90" t="s" s="10">
-        <v>352</v>
-      </c>
-      <c r="C90" t="s" s="11">
-        <v>353</v>
-      </c>
-      <c r="D90" t="s" s="11">
-        <v>354</v>
-      </c>
-      <c r="E90" s="12"/>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="9">
-        <v>355</v>
-      </c>
-      <c r="B91" t="s" s="10">
-        <v>356</v>
-      </c>
-      <c r="C91" t="s" s="11">
-        <v>357</v>
-      </c>
-      <c r="D91" t="s" s="11">
-        <v>358</v>
-      </c>
-      <c r="E91" s="12"/>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="9">
-        <v>359</v>
-      </c>
-      <c r="B92" t="s" s="10">
-        <v>360</v>
-      </c>
-      <c r="C92" t="s" s="11">
-        <v>361</v>
-      </c>
-      <c r="D92" t="s" s="11">
-        <v>362</v>
-      </c>
-      <c r="E92" s="12"/>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="9">
-        <v>363</v>
-      </c>
-      <c r="B93" t="s" s="10">
-        <v>364</v>
-      </c>
-      <c r="C93" t="s" s="11">
-        <v>365</v>
-      </c>
-      <c r="D93" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="E93" s="12"/>
+      <c r="E42" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="F42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
